--- a/総合演習資料/1.プロジェクト計画/ガントチャート.xlsx
+++ b/総合演習資料/1.プロジェクト計画/ガントチャート.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>プロジェクト計画</t>
     <rPh sb="6" eb="8">
@@ -196,23 +196,6 @@
   </si>
   <si>
     <t>システムテスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（担当単位）</t>
-    <rPh sb="1" eb="3">
-      <t>タントウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（システム単位）</t>
-    <rPh sb="5" eb="7">
-      <t>タンイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -395,6 +378,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -412,24 +413,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -737,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -752,20 +735,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -777,39 +760,39 @@
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="7">
         <v>43031</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7">
         <v>43032</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7">
         <v>43033</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18">
+      <c r="J4" s="7"/>
+      <c r="K4" s="7">
         <v>43034</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18">
+      <c r="L4" s="7"/>
+      <c r="M4" s="7">
         <v>43035</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18">
+      <c r="N4" s="7"/>
+      <c r="O4" s="7">
         <v>43038</v>
       </c>
-      <c r="P4" s="18"/>
+      <c r="P4" s="7"/>
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="13"/>
+      <c r="C5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="10"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
       <c r="G5" s="5"/>
@@ -824,9 +807,9 @@
       <c r="P5" s="6"/>
     </row>
     <row r="6" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="17"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="13"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="4"/>
       <c r="F6" s="2"/>
       <c r="G6" s="4"/>
@@ -841,11 +824,11 @@
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="17"/>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="5"/>
@@ -860,9 +843,9 @@
       <c r="P7" s="6"/>
     </row>
     <row r="8" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="17"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="13"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="4"/>
       <c r="F8" s="2"/>
       <c r="G8" s="4"/>
@@ -877,11 +860,11 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="17"/>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
       <c r="G9" s="5"/>
@@ -896,9 +879,9 @@
       <c r="P9" s="6"/>
     </row>
     <row r="10" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="17"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="4"/>
       <c r="F10" s="2"/>
       <c r="G10" s="4"/>
@@ -913,13 +896,13 @@
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
       <c r="G11" s="5"/>
@@ -934,9 +917,9 @@
       <c r="P11" s="6"/>
     </row>
     <row r="12" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="4"/>
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
@@ -951,11 +934,11 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="14"/>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
       <c r="G13" s="5"/>
@@ -970,9 +953,9 @@
       <c r="P13" s="6"/>
     </row>
     <row r="14" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="13"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="4"/>
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
@@ -987,11 +970,11 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="14"/>
-      <c r="C15" s="16" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
       <c r="G15" s="5"/>
@@ -1006,9 +989,9 @@
       <c r="P15" s="6"/>
     </row>
     <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="13"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="4"/>
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
@@ -1023,11 +1006,11 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="14"/>
-      <c r="C17" s="16" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
       <c r="G17" s="5"/>
@@ -1042,9 +1025,9 @@
       <c r="P17" s="6"/>
     </row>
     <row r="18" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="4"/>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
@@ -1059,11 +1042,11 @@
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="14"/>
-      <c r="C19" s="15" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
       <c r="G19" s="5"/>
@@ -1078,9 +1061,9 @@
       <c r="P19" s="6"/>
     </row>
     <row r="20" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="13"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="4"/>
       <c r="F20" s="2"/>
       <c r="G20" s="4"/>
@@ -1095,11 +1078,11 @@
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="14"/>
-      <c r="C21" s="15" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
       <c r="G21" s="5"/>
@@ -1114,9 +1097,9 @@
       <c r="P21" s="6"/>
     </row>
     <row r="22" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="13"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="4"/>
       <c r="F22" s="2"/>
       <c r="G22" s="4"/>
@@ -1131,11 +1114,11 @@
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="14"/>
-      <c r="C23" s="15" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="13"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
       <c r="G23" s="5"/>
@@ -1150,9 +1133,9 @@
       <c r="P23" s="6"/>
     </row>
     <row r="24" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="13"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="4"/>
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
@@ -1167,11 +1150,11 @@
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="14"/>
-      <c r="C25" s="15" t="s">
+      <c r="B25" s="12"/>
+      <c r="C25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="13"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
       <c r="G25" s="5"/>
@@ -1186,9 +1169,9 @@
       <c r="P25" s="6"/>
     </row>
     <row r="26" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="13"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="4"/>
       <c r="F26" s="2"/>
       <c r="G26" s="4"/>
@@ -1203,13 +1186,13 @@
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="13"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
       <c r="G27" s="5"/>
@@ -1224,9 +1207,9 @@
       <c r="P27" s="6"/>
     </row>
     <row r="28" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="13"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="4"/>
       <c r="F28" s="2"/>
       <c r="G28" s="4"/>
@@ -1241,11 +1224,11 @@
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="13"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="5"/>
       <c r="F29" s="6"/>
       <c r="G29" s="5"/>
@@ -1260,9 +1243,9 @@
       <c r="P29" s="6"/>
     </row>
     <row r="30" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="13"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="4"/>
       <c r="F30" s="2"/>
       <c r="G30" s="4"/>
@@ -1277,11 +1260,11 @@
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="14"/>
-      <c r="C31" s="15" t="s">
+      <c r="B31" s="12"/>
+      <c r="C31" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="13"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
       <c r="G31" s="5"/>
@@ -1296,9 +1279,9 @@
       <c r="P31" s="6"/>
     </row>
     <row r="32" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="13"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="4"/>
       <c r="F32" s="2"/>
       <c r="G32" s="4"/>
@@ -1313,13 +1296,11 @@
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="13"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="5"/>
       <c r="F33" s="6"/>
       <c r="G33" s="5"/>
@@ -1334,9 +1315,9 @@
       <c r="P33" s="6"/>
     </row>
     <row r="34" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="13"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
       <c r="E34" s="4"/>
       <c r="F34" s="2"/>
       <c r="G34" s="4"/>
@@ -1351,9 +1332,9 @@
       <c r="P34" s="2"/>
     </row>
     <row r="35" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="13"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
       <c r="E35" s="5"/>
       <c r="F35" s="6"/>
       <c r="G35" s="5"/>
@@ -1368,9 +1349,9 @@
       <c r="P35" s="6"/>
     </row>
     <row r="36" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="13"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="4"/>
       <c r="F36" s="2"/>
       <c r="G36" s="4"/>
@@ -1385,9 +1366,9 @@
       <c r="P36" s="2"/>
     </row>
     <row r="37" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="13"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
       <c r="E37" s="5"/>
       <c r="F37" s="6"/>
       <c r="G37" s="5"/>
@@ -1402,9 +1383,9 @@
       <c r="P37" s="6"/>
     </row>
     <row r="38" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="13"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="4"/>
       <c r="F38" s="2"/>
       <c r="G38" s="4"/>
@@ -1419,9 +1400,9 @@
       <c r="P38" s="2"/>
     </row>
     <row r="39" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="13"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
       <c r="E39" s="5"/>
       <c r="F39" s="6"/>
       <c r="G39" s="5"/>
@@ -1436,9 +1417,9 @@
       <c r="P39" s="6"/>
     </row>
     <row r="40" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="14"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="13"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10"/>
       <c r="E40" s="4"/>
       <c r="F40" s="2"/>
       <c r="G40" s="4"/>
@@ -1453,13 +1434,11 @@
       <c r="P40" s="2"/>
     </row>
     <row r="41" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="13"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="10"/>
       <c r="E41" s="5"/>
       <c r="F41" s="6"/>
       <c r="G41" s="5"/>
@@ -1474,9 +1453,9 @@
       <c r="P41" s="6"/>
     </row>
     <row r="42" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="14"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="13"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
       <c r="E42" s="4"/>
       <c r="F42" s="2"/>
       <c r="G42" s="4"/>
@@ -1491,9 +1470,9 @@
       <c r="P42" s="2"/>
     </row>
     <row r="43" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="14"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="13"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
       <c r="E43" s="5"/>
       <c r="F43" s="6"/>
       <c r="G43" s="5"/>
@@ -1508,9 +1487,9 @@
       <c r="P43" s="6"/>
     </row>
     <row r="44" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="13"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
       <c r="E44" s="4"/>
       <c r="F44" s="2"/>
       <c r="G44" s="4"/>
@@ -1525,9 +1504,9 @@
       <c r="P44" s="2"/>
     </row>
     <row r="45" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="13"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="10"/>
       <c r="E45" s="5"/>
       <c r="F45" s="6"/>
       <c r="G45" s="5"/>
@@ -1542,9 +1521,9 @@
       <c r="P45" s="6"/>
     </row>
     <row r="46" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="14"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="13"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="10"/>
       <c r="E46" s="4"/>
       <c r="F46" s="2"/>
       <c r="G46" s="4"/>
@@ -1559,9 +1538,9 @@
       <c r="P46" s="2"/>
     </row>
     <row r="47" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="14"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="13"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="10"/>
       <c r="E47" s="5"/>
       <c r="F47" s="6"/>
       <c r="G47" s="5"/>
@@ -1576,9 +1555,9 @@
       <c r="P47" s="6"/>
     </row>
     <row r="48" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="14"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="13"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="10"/>
       <c r="E48" s="4"/>
       <c r="F48" s="2"/>
       <c r="G48" s="4"/>
@@ -1593,13 +1572,11 @@
       <c r="P48" s="2"/>
     </row>
     <row r="49" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="13"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="10"/>
       <c r="E49" s="5"/>
       <c r="F49" s="6"/>
       <c r="G49" s="5"/>
@@ -1614,9 +1591,9 @@
       <c r="P49" s="6"/>
     </row>
     <row r="50" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="14"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="13"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="10"/>
       <c r="E50" s="4"/>
       <c r="F50" s="2"/>
       <c r="G50" s="4"/>
@@ -1631,9 +1608,9 @@
       <c r="P50" s="2"/>
     </row>
     <row r="51" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="14"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="13"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="10"/>
       <c r="E51" s="5"/>
       <c r="F51" s="6"/>
       <c r="G51" s="5"/>
@@ -1648,9 +1625,9 @@
       <c r="P51" s="6"/>
     </row>
     <row r="52" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="14"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="13"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="10"/>
       <c r="E52" s="4"/>
       <c r="F52" s="2"/>
       <c r="G52" s="4"/>
@@ -1665,9 +1642,9 @@
       <c r="P52" s="2"/>
     </row>
     <row r="53" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="14"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="13"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="10"/>
       <c r="E53" s="5"/>
       <c r="F53" s="6"/>
       <c r="G53" s="5"/>
@@ -1682,9 +1659,9 @@
       <c r="P53" s="6"/>
     </row>
     <row r="54" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="14"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="13"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="10"/>
       <c r="E54" s="4"/>
       <c r="F54" s="2"/>
       <c r="G54" s="4"/>
@@ -1699,9 +1676,9 @@
       <c r="P54" s="2"/>
     </row>
     <row r="55" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="14"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="13"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="10"/>
       <c r="E55" s="5"/>
       <c r="F55" s="6"/>
       <c r="G55" s="5"/>
@@ -1716,9 +1693,9 @@
       <c r="P55" s="6"/>
     </row>
     <row r="56" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="14"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="13"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="10"/>
       <c r="E56" s="4"/>
       <c r="F56" s="2"/>
       <c r="G56" s="4"/>
@@ -1733,13 +1710,11 @@
       <c r="P56" s="2"/>
     </row>
     <row r="57" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C57" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D57" s="13"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="10"/>
       <c r="E57" s="5"/>
       <c r="F57" s="6"/>
       <c r="G57" s="5"/>
@@ -1754,9 +1729,9 @@
       <c r="P57" s="6"/>
     </row>
     <row r="58" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="14"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="13"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="10"/>
       <c r="E58" s="4"/>
       <c r="F58" s="2"/>
       <c r="G58" s="4"/>
@@ -1771,9 +1746,9 @@
       <c r="P58" s="2"/>
     </row>
     <row r="59" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="14"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="13"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="10"/>
       <c r="E59" s="5"/>
       <c r="F59" s="6"/>
       <c r="G59" s="5"/>
@@ -1788,9 +1763,9 @@
       <c r="P59" s="6"/>
     </row>
     <row r="60" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="14"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="13"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="10"/>
       <c r="E60" s="4"/>
       <c r="F60" s="2"/>
       <c r="G60" s="4"/>
@@ -1805,9 +1780,9 @@
       <c r="P60" s="2"/>
     </row>
     <row r="61" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="14"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="13"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="10"/>
       <c r="E61" s="5"/>
       <c r="F61" s="6"/>
       <c r="G61" s="5"/>
@@ -1822,9 +1797,9 @@
       <c r="P61" s="6"/>
     </row>
     <row r="62" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="14"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="13"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="10"/>
       <c r="E62" s="4"/>
       <c r="F62" s="2"/>
       <c r="G62" s="4"/>
@@ -1840,63 +1815,6 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="B33:B40"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B11:B26"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B41:B48"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="D51:D52"/>
@@ -1913,6 +1831,63 @@
     <mergeCell ref="C51:C52"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B41:B48"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B11:B26"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/総合演習資料/1.プロジェクト計画/ガントチャート.xlsx
+++ b/総合演習資料/1.プロジェクト計画/ガントチャート.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>プロジェクト計画</t>
     <rPh sb="6" eb="8">
@@ -212,6 +212,59 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>向山・
+ミッチェル</t>
+    <rPh sb="0" eb="2">
+      <t>ムカイヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>向山・香川・
+ミッチェル</t>
+    <rPh sb="0" eb="2">
+      <t>ムカイヤマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>納品期日
+10時厳守！</t>
+    <rPh sb="0" eb="2">
+      <t>ノウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キジツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゲンシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>納品物すべて</t>
+    <rPh sb="0" eb="2">
+      <t>ノウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検収</t>
+    <rPh sb="0" eb="2">
+      <t>ケンシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -223,7 +276,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,16 +313,42 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -354,11 +433,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -378,41 +483,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P62"/>
+  <dimension ref="B2:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:C34"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -735,20 +873,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -760,41 +898,43 @@
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="18">
         <v>43031</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7">
+      <c r="F4" s="18"/>
+      <c r="G4" s="18">
         <v>43032</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7">
+      <c r="H4" s="18"/>
+      <c r="I4" s="18">
         <v>43033</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7">
+      <c r="J4" s="18"/>
+      <c r="K4" s="18">
         <v>43034</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7">
+      <c r="L4" s="18"/>
+      <c r="M4" s="18">
         <v>43035</v>
       </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7">
+      <c r="N4" s="18"/>
+      <c r="O4" s="18">
         <v>43038</v>
       </c>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="11" t="s">
+      <c r="P4" s="18"/>
+    </row>
+    <row r="5" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+      <c r="D5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="5"/>
       <c r="H5" s="6"/>
       <c r="I5" s="5"/>
@@ -806,12 +946,12 @@
       <c r="O5" s="5"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="11"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="2"/>
+    <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="17"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="4"/>
       <c r="H6" s="2"/>
       <c r="I6" s="4"/>
@@ -823,15 +963,17 @@
       <c r="O6" s="4"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="11"/>
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="17"/>
+      <c r="C7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
+      <c r="D7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="6"/>
       <c r="I7" s="5"/>
       <c r="J7" s="6"/>
@@ -842,13 +984,13 @@
       <c r="O7" s="5"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="11"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
+    <row r="8" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="17"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="4"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="2"/>
       <c r="I8" s="4"/>
       <c r="J8" s="2"/>
@@ -859,16 +1001,18 @@
       <c r="O8" s="4"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="11"/>
-      <c r="C9" s="9" t="s">
+    <row r="9" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="17"/>
+      <c r="C9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
       <c r="I9" s="5"/>
       <c r="J9" s="6"/>
       <c r="K9" s="5"/>
@@ -878,14 +1022,14 @@
       <c r="O9" s="5"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="11"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
+    <row r="10" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="17"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="4"/>
       <c r="F10" s="2"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="4"/>
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
@@ -895,14 +1039,14 @@
       <c r="O10" s="4"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="12" t="s">
+    <row r="11" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
       <c r="G11" s="5"/>
@@ -916,10 +1060,10 @@
       <c r="O11" s="5"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="12"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
+    <row r="12" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="4"/>
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
@@ -933,12 +1077,12 @@
       <c r="O12" s="4"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="12"/>
-      <c r="C13" s="9" t="s">
+    <row r="13" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
       <c r="G13" s="5"/>
@@ -952,10 +1096,10 @@
       <c r="O13" s="5"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="12"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
+    <row r="14" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="4"/>
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
@@ -969,12 +1113,12 @@
       <c r="O14" s="4"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="12"/>
-      <c r="C15" s="8" t="s">
+    <row r="15" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="14"/>
+      <c r="C15" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
       <c r="G15" s="5"/>
@@ -988,10 +1132,10 @@
       <c r="O15" s="5"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="12"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
+    <row r="16" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="4"/>
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
@@ -1005,12 +1149,12 @@
       <c r="O16" s="4"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="12"/>
-      <c r="C17" s="8" t="s">
+    <row r="17" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="14"/>
+      <c r="C17" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
       <c r="G17" s="5"/>
@@ -1024,10 +1168,10 @@
       <c r="O17" s="5"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="12"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
+    <row r="18" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="4"/>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
@@ -1041,12 +1185,12 @@
       <c r="O18" s="4"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="12"/>
-      <c r="C19" s="9" t="s">
+    <row r="19" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
       <c r="G19" s="5"/>
@@ -1060,10 +1204,10 @@
       <c r="O19" s="5"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="12"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
+    <row r="20" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="4"/>
       <c r="F20" s="2"/>
       <c r="G20" s="4"/>
@@ -1077,12 +1221,12 @@
       <c r="O20" s="4"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="12"/>
-      <c r="C21" s="9" t="s">
+    <row r="21" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
       <c r="G21" s="5"/>
@@ -1096,10 +1240,10 @@
       <c r="O21" s="5"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="12"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
+    <row r="22" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="4"/>
       <c r="F22" s="2"/>
       <c r="G22" s="4"/>
@@ -1113,12 +1257,12 @@
       <c r="O22" s="4"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="12"/>
-      <c r="C23" s="9" t="s">
+    <row r="23" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="14"/>
+      <c r="C23" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
       <c r="G23" s="5"/>
@@ -1132,10 +1276,10 @@
       <c r="O23" s="5"/>
       <c r="P23" s="6"/>
     </row>
-    <row r="24" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="12"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
+    <row r="24" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="4"/>
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
@@ -1149,12 +1293,12 @@
       <c r="O24" s="4"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="12"/>
-      <c r="C25" s="9" t="s">
+    <row r="25" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="14"/>
+      <c r="C25" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
       <c r="G25" s="5"/>
@@ -1168,10 +1312,10 @@
       <c r="O25" s="5"/>
       <c r="P25" s="6"/>
     </row>
-    <row r="26" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="12"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
+    <row r="26" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="4"/>
       <c r="F26" s="2"/>
       <c r="G26" s="4"/>
@@ -1185,14 +1329,14 @@
       <c r="O26" s="4"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="12" t="s">
+    <row r="27" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
       <c r="G27" s="5"/>
@@ -1206,10 +1350,10 @@
       <c r="O27" s="5"/>
       <c r="P27" s="6"/>
     </row>
-    <row r="28" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="12"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
+    <row r="28" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="4"/>
       <c r="F28" s="2"/>
       <c r="G28" s="4"/>
@@ -1223,12 +1367,12 @@
       <c r="O28" s="4"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="12"/>
-      <c r="C29" s="9" t="s">
+    <row r="29" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="14"/>
+      <c r="C29" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="13"/>
       <c r="E29" s="5"/>
       <c r="F29" s="6"/>
       <c r="G29" s="5"/>
@@ -1242,10 +1386,10 @@
       <c r="O29" s="5"/>
       <c r="P29" s="6"/>
     </row>
-    <row r="30" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="12"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
+    <row r="30" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="13"/>
       <c r="E30" s="4"/>
       <c r="F30" s="2"/>
       <c r="G30" s="4"/>
@@ -1259,12 +1403,12 @@
       <c r="O30" s="4"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="12"/>
-      <c r="C31" s="9" t="s">
+    <row r="31" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="14"/>
+      <c r="C31" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="13"/>
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
       <c r="G31" s="5"/>
@@ -1278,10 +1422,10 @@
       <c r="O31" s="5"/>
       <c r="P31" s="6"/>
     </row>
-    <row r="32" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="12"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
+    <row r="32" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="13"/>
       <c r="E32" s="4"/>
       <c r="F32" s="2"/>
       <c r="G32" s="4"/>
@@ -1295,12 +1439,12 @@
       <c r="O32" s="4"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="12" t="s">
+    <row r="33" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="13"/>
       <c r="E33" s="5"/>
       <c r="F33" s="6"/>
       <c r="G33" s="5"/>
@@ -1314,10 +1458,10 @@
       <c r="O33" s="5"/>
       <c r="P33" s="6"/>
     </row>
-    <row r="34" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="12"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
+    <row r="34" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="13"/>
       <c r="E34" s="4"/>
       <c r="F34" s="2"/>
       <c r="G34" s="4"/>
@@ -1331,10 +1475,10 @@
       <c r="O34" s="4"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="12"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
+    <row r="35" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="13"/>
       <c r="E35" s="5"/>
       <c r="F35" s="6"/>
       <c r="G35" s="5"/>
@@ -1348,10 +1492,10 @@
       <c r="O35" s="5"/>
       <c r="P35" s="6"/>
     </row>
-    <row r="36" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="12"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
+    <row r="36" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="13"/>
       <c r="E36" s="4"/>
       <c r="F36" s="2"/>
       <c r="G36" s="4"/>
@@ -1365,10 +1509,10 @@
       <c r="O36" s="4"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="12"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
+    <row r="37" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="13"/>
       <c r="E37" s="5"/>
       <c r="F37" s="6"/>
       <c r="G37" s="5"/>
@@ -1382,10 +1526,10 @@
       <c r="O37" s="5"/>
       <c r="P37" s="6"/>
     </row>
-    <row r="38" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="12"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
+    <row r="38" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="13"/>
       <c r="E38" s="4"/>
       <c r="F38" s="2"/>
       <c r="G38" s="4"/>
@@ -1399,10 +1543,10 @@
       <c r="O38" s="4"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="12"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="10"/>
+    <row r="39" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="13"/>
       <c r="E39" s="5"/>
       <c r="F39" s="6"/>
       <c r="G39" s="5"/>
@@ -1416,10 +1560,10 @@
       <c r="O39" s="5"/>
       <c r="P39" s="6"/>
     </row>
-    <row r="40" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="12"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
+    <row r="40" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="13"/>
       <c r="E40" s="4"/>
       <c r="F40" s="2"/>
       <c r="G40" s="4"/>
@@ -1433,12 +1577,12 @@
       <c r="O40" s="4"/>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="12" t="s">
+    <row r="41" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="13"/>
       <c r="E41" s="5"/>
       <c r="F41" s="6"/>
       <c r="G41" s="5"/>
@@ -1452,10 +1596,10 @@
       <c r="O41" s="5"/>
       <c r="P41" s="6"/>
     </row>
-    <row r="42" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="12"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
+    <row r="42" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="13"/>
       <c r="E42" s="4"/>
       <c r="F42" s="2"/>
       <c r="G42" s="4"/>
@@ -1469,10 +1613,10 @@
       <c r="O42" s="4"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="12"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
+    <row r="43" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="13"/>
       <c r="E43" s="5"/>
       <c r="F43" s="6"/>
       <c r="G43" s="5"/>
@@ -1486,10 +1630,10 @@
       <c r="O43" s="5"/>
       <c r="P43" s="6"/>
     </row>
-    <row r="44" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="12"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="10"/>
+    <row r="44" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="13"/>
       <c r="E44" s="4"/>
       <c r="F44" s="2"/>
       <c r="G44" s="4"/>
@@ -1503,10 +1647,10 @@
       <c r="O44" s="4"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="12"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="10"/>
+    <row r="45" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="13"/>
       <c r="E45" s="5"/>
       <c r="F45" s="6"/>
       <c r="G45" s="5"/>
@@ -1520,10 +1664,10 @@
       <c r="O45" s="5"/>
       <c r="P45" s="6"/>
     </row>
-    <row r="46" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="12"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="10"/>
+    <row r="46" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="14"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="13"/>
       <c r="E46" s="4"/>
       <c r="F46" s="2"/>
       <c r="G46" s="4"/>
@@ -1537,10 +1681,10 @@
       <c r="O46" s="4"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="12"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="10"/>
+    <row r="47" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="14"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="13"/>
       <c r="E47" s="5"/>
       <c r="F47" s="6"/>
       <c r="G47" s="5"/>
@@ -1554,10 +1698,10 @@
       <c r="O47" s="5"/>
       <c r="P47" s="6"/>
     </row>
-    <row r="48" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="12"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10"/>
+    <row r="48" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="14"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="13"/>
       <c r="E48" s="4"/>
       <c r="F48" s="2"/>
       <c r="G48" s="4"/>
@@ -1571,12 +1715,12 @@
       <c r="O48" s="4"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="12" t="s">
+    <row r="49" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="10"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="13"/>
       <c r="E49" s="5"/>
       <c r="F49" s="6"/>
       <c r="G49" s="5"/>
@@ -1590,10 +1734,10 @@
       <c r="O49" s="5"/>
       <c r="P49" s="6"/>
     </row>
-    <row r="50" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="12"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="10"/>
+    <row r="50" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="14"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="13"/>
       <c r="E50" s="4"/>
       <c r="F50" s="2"/>
       <c r="G50" s="4"/>
@@ -1607,10 +1751,10 @@
       <c r="O50" s="4"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="12"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="10"/>
+    <row r="51" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="14"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="13"/>
       <c r="E51" s="5"/>
       <c r="F51" s="6"/>
       <c r="G51" s="5"/>
@@ -1624,10 +1768,10 @@
       <c r="O51" s="5"/>
       <c r="P51" s="6"/>
     </row>
-    <row r="52" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="12"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="10"/>
+    <row r="52" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="14"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="13"/>
       <c r="E52" s="4"/>
       <c r="F52" s="2"/>
       <c r="G52" s="4"/>
@@ -1641,10 +1785,10 @@
       <c r="O52" s="4"/>
       <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="12"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="10"/>
+    <row r="53" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="14"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="13"/>
       <c r="E53" s="5"/>
       <c r="F53" s="6"/>
       <c r="G53" s="5"/>
@@ -1658,10 +1802,10 @@
       <c r="O53" s="5"/>
       <c r="P53" s="6"/>
     </row>
-    <row r="54" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="12"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="10"/>
+    <row r="54" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="14"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="13"/>
       <c r="E54" s="4"/>
       <c r="F54" s="2"/>
       <c r="G54" s="4"/>
@@ -1675,10 +1819,10 @@
       <c r="O54" s="4"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="12"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="10"/>
+    <row r="55" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="14"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="13"/>
       <c r="E55" s="5"/>
       <c r="F55" s="6"/>
       <c r="G55" s="5"/>
@@ -1692,10 +1836,10 @@
       <c r="O55" s="5"/>
       <c r="P55" s="6"/>
     </row>
-    <row r="56" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="12"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="10"/>
+    <row r="56" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="14"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="13"/>
       <c r="E56" s="4"/>
       <c r="F56" s="2"/>
       <c r="G56" s="4"/>
@@ -1709,12 +1853,12 @@
       <c r="O56" s="4"/>
       <c r="P56" s="2"/>
     </row>
-    <row r="57" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="12" t="s">
+    <row r="57" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="10"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="13"/>
       <c r="E57" s="5"/>
       <c r="F57" s="6"/>
       <c r="G57" s="5"/>
@@ -1728,10 +1872,10 @@
       <c r="O57" s="5"/>
       <c r="P57" s="6"/>
     </row>
-    <row r="58" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="12"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="10"/>
+    <row r="58" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="14"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="13"/>
       <c r="E58" s="4"/>
       <c r="F58" s="2"/>
       <c r="G58" s="4"/>
@@ -1745,10 +1889,10 @@
       <c r="O58" s="4"/>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="12"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="10"/>
+    <row r="59" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="14"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="13"/>
       <c r="E59" s="5"/>
       <c r="F59" s="6"/>
       <c r="G59" s="5"/>
@@ -1762,10 +1906,10 @@
       <c r="O59" s="5"/>
       <c r="P59" s="6"/>
     </row>
-    <row r="60" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="12"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="10"/>
+    <row r="60" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="14"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="13"/>
       <c r="E60" s="4"/>
       <c r="F60" s="2"/>
       <c r="G60" s="4"/>
@@ -1779,10 +1923,10 @@
       <c r="O60" s="4"/>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="12"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="10"/>
+    <row r="61" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="14"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="13"/>
       <c r="E61" s="5"/>
       <c r="F61" s="6"/>
       <c r="G61" s="5"/>
@@ -1796,10 +1940,10 @@
       <c r="O61" s="5"/>
       <c r="P61" s="6"/>
     </row>
-    <row r="62" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="12"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="10"/>
+    <row r="62" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="14"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="13"/>
       <c r="E62" s="4"/>
       <c r="F62" s="2"/>
       <c r="G62" s="4"/>
@@ -1813,8 +1957,111 @@
       <c r="O62" s="4"/>
       <c r="P62" s="2"/>
     </row>
+    <row r="63" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" s="13"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="27"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="29"/>
+    </row>
   </sheetData>
-  <mergeCells count="73">
+  <mergeCells count="77">
+    <mergeCell ref="Q63:Q64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B11:B26"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B41:B48"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="D51:D52"/>
@@ -1831,63 +2078,6 @@
     <mergeCell ref="C51:C52"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B41:B48"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="B33:B40"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B11:B26"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/総合演習資料/1.プロジェクト計画/ガントチャート.xlsx
+++ b/総合演習資料/1.プロジェクト計画/ガントチャート.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
   <si>
     <t>プロジェクト計画</t>
     <rPh sb="6" eb="8">
@@ -82,11 +82,6 @@
   </si>
   <si>
     <t>状態遷移図</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面設計図
-（）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -265,6 +260,257 @@
     <t>検収</t>
     <rPh sb="0" eb="2">
       <t>ケンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面設計図
+（ログイン）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面設計図
+（メイン（管理））</t>
+    <rPh sb="11" eb="13">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面設計図
+（メイン（一般））</t>
+    <rPh sb="11" eb="13">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面設計図
+（新規入力）</t>
+    <rPh sb="7" eb="9">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面設計図
+（新規確認）</t>
+    <rPh sb="7" eb="9">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面設計図
+（修正確認）</t>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面設計図
+（削除確認）</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面設計図
+（詳細（管理））</t>
+    <rPh sb="7" eb="9">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面設計図
+（詳細（一般））</t>
+    <rPh sb="7" eb="9">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面設計図
+（修正入力（管理））</t>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面設計図
+（修正入力（一般））</t>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香川</t>
+    <rPh sb="0" eb="2">
+      <t>カガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミッチェル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>向山</t>
+    <rPh sb="0" eb="2">
+      <t>ムカイヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミッチェル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミッチェル
+（向山・香川）</t>
+    <rPh sb="7" eb="9">
+      <t>ムカイヤマ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コントローラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>common/bean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>insert
+Logic/daoLogic/jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update
+Logic/daoLogic/jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete
+Logic/daoLogic/jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>select 一覧
+Logic/daoLogic/jsp</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>select 詳細
+Logic/daoLogic/jsp</t>
+    <rPh sb="7" eb="9">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン
+Logic/daoLogic/jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者用</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般社員用</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディング、テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部設計、内部設計</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報管理システム</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -276,7 +522,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,8 +567,23 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,6 +605,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,7 +730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -483,6 +750,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -501,55 +816,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -856,10 +1153,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q64"/>
+  <dimension ref="B2:Q104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -873,20 +1171,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
+      <c r="I2" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
     </row>
     <row r="3" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
+      <c r="B3" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -924,17 +1236,17 @@
       <c r="P4" s="18"/>
     </row>
     <row r="5" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
       <c r="G5" s="5"/>
       <c r="H5" s="6"/>
       <c r="I5" s="5"/>
@@ -947,11 +1259,11 @@
       <c r="P5" s="6"/>
     </row>
     <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="17"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="4"/>
       <c r="H6" s="2"/>
       <c r="I6" s="4"/>
@@ -964,16 +1276,16 @@
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="17"/>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="20"/>
+      <c r="D7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="6"/>
       <c r="I7" s="5"/>
       <c r="J7" s="6"/>
@@ -985,12 +1297,12 @@
       <c r="P7" s="6"/>
     </row>
     <row r="8" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="17"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="13"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="22"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="2"/>
       <c r="I8" s="4"/>
       <c r="J8" s="2"/>
@@ -1002,17 +1314,17 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="17"/>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>25</v>
+      <c r="D9" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
       <c r="I9" s="5"/>
       <c r="J9" s="6"/>
       <c r="K9" s="5"/>
@@ -1023,13 +1335,13 @@
       <c r="P9" s="6"/>
     </row>
     <row r="10" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="17"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="4"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="25"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
       <c r="I10" s="4"/>
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
@@ -1040,18 +1352,20 @@
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="5"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="6"/>
       <c r="K11" s="5"/>
       <c r="L11" s="6"/>
@@ -1061,9 +1375,9 @@
       <c r="P11" s="6"/>
     </row>
     <row r="12" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="4"/>
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
@@ -1078,17 +1392,19 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="14"/>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
       <c r="K13" s="5"/>
       <c r="L13" s="6"/>
       <c r="M13" s="5"/>
@@ -1097,9 +1413,9 @@
       <c r="P13" s="6"/>
     </row>
     <row r="14" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="13"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="4"/>
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
@@ -1114,15 +1430,17 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="14"/>
-      <c r="C15" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="13"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="5"/>
       <c r="J15" s="6"/>
       <c r="K15" s="5"/>
@@ -1133,13 +1451,13 @@
       <c r="P15" s="6"/>
     </row>
     <row r="16" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="13"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="4"/>
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="2"/>
+      <c r="H16" s="10"/>
       <c r="I16" s="4"/>
       <c r="J16" s="2"/>
       <c r="K16" s="4"/>
@@ -1150,15 +1468,17 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="14"/>
-      <c r="C17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="13"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="8"/>
       <c r="I17" s="5"/>
       <c r="J17" s="6"/>
       <c r="K17" s="5"/>
@@ -1169,13 +1489,13 @@
       <c r="P17" s="6"/>
     </row>
     <row r="18" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="4"/>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="2"/>
+      <c r="H18" s="10"/>
       <c r="I18" s="4"/>
       <c r="J18" s="2"/>
       <c r="K18" s="4"/>
@@ -1186,15 +1506,17 @@
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="14"/>
-      <c r="C19" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="13"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
+      <c r="H19" s="8"/>
       <c r="I19" s="5"/>
       <c r="J19" s="6"/>
       <c r="K19" s="5"/>
@@ -1205,13 +1527,13 @@
       <c r="P19" s="6"/>
     </row>
     <row r="20" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="13"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="4"/>
       <c r="F20" s="2"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="2"/>
+      <c r="H20" s="10"/>
       <c r="I20" s="4"/>
       <c r="J20" s="2"/>
       <c r="K20" s="4"/>
@@ -1222,15 +1544,17 @@
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="14"/>
-      <c r="C21" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="13"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
+      <c r="H21" s="8"/>
       <c r="I21" s="5"/>
       <c r="J21" s="6"/>
       <c r="K21" s="5"/>
@@ -1241,13 +1565,13 @@
       <c r="P21" s="6"/>
     </row>
     <row r="22" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="13"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="4"/>
       <c r="F22" s="2"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="2"/>
+      <c r="H22" s="10"/>
       <c r="I22" s="4"/>
       <c r="J22" s="2"/>
       <c r="K22" s="4"/>
@@ -1258,15 +1582,17 @@
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="14"/>
-      <c r="C23" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="13"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
+      <c r="H23" s="8"/>
       <c r="I23" s="5"/>
       <c r="J23" s="6"/>
       <c r="K23" s="5"/>
@@ -1277,13 +1603,13 @@
       <c r="P23" s="6"/>
     </row>
     <row r="24" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="13"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="4"/>
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="2"/>
+      <c r="H24" s="10"/>
       <c r="I24" s="4"/>
       <c r="J24" s="2"/>
       <c r="K24" s="4"/>
@@ -1294,15 +1620,17 @@
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="14"/>
-      <c r="C25" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="13"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="6"/>
+      <c r="H25" s="8"/>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
       <c r="K25" s="5"/>
@@ -1313,13 +1641,13 @@
       <c r="P25" s="6"/>
     </row>
     <row r="26" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="13"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="4"/>
       <c r="F26" s="2"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="2"/>
+      <c r="H26" s="10"/>
       <c r="I26" s="4"/>
       <c r="J26" s="2"/>
       <c r="K26" s="4"/>
@@ -1330,17 +1658,17 @@
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="13"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="6"/>
+      <c r="H27" s="8"/>
       <c r="I27" s="5"/>
       <c r="J27" s="6"/>
       <c r="K27" s="5"/>
@@ -1351,13 +1679,13 @@
       <c r="P27" s="6"/>
     </row>
     <row r="28" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="13"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="4"/>
       <c r="F28" s="2"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="2"/>
+      <c r="H28" s="10"/>
       <c r="I28" s="4"/>
       <c r="J28" s="2"/>
       <c r="K28" s="4"/>
@@ -1368,15 +1696,17 @@
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="14"/>
-      <c r="C29" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="13"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="E29" s="5"/>
       <c r="F29" s="6"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="6"/>
+      <c r="H29" s="8"/>
       <c r="I29" s="5"/>
       <c r="J29" s="6"/>
       <c r="K29" s="5"/>
@@ -1387,13 +1717,13 @@
       <c r="P29" s="6"/>
     </row>
     <row r="30" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="13"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="4"/>
       <c r="F30" s="2"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="2"/>
+      <c r="H30" s="10"/>
       <c r="I30" s="4"/>
       <c r="J30" s="2"/>
       <c r="K30" s="4"/>
@@ -1404,15 +1734,17 @@
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="14"/>
-      <c r="C31" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="13"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="6"/>
+      <c r="H31" s="8"/>
       <c r="I31" s="5"/>
       <c r="J31" s="6"/>
       <c r="K31" s="5"/>
@@ -1423,13 +1755,13 @@
       <c r="P31" s="6"/>
     </row>
     <row r="32" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="13"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
       <c r="E32" s="4"/>
       <c r="F32" s="2"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="2"/>
+      <c r="H32" s="10"/>
       <c r="I32" s="4"/>
       <c r="J32" s="2"/>
       <c r="K32" s="4"/>
@@ -1440,15 +1772,17 @@
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="13"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="E33" s="5"/>
       <c r="F33" s="6"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="6"/>
+      <c r="H33" s="8"/>
       <c r="I33" s="5"/>
       <c r="J33" s="6"/>
       <c r="K33" s="5"/>
@@ -1459,13 +1793,13 @@
       <c r="P33" s="6"/>
     </row>
     <row r="34" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="13"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="4"/>
       <c r="F34" s="2"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="2"/>
+      <c r="H34" s="10"/>
       <c r="I34" s="4"/>
       <c r="J34" s="2"/>
       <c r="K34" s="4"/>
@@ -1476,13 +1810,17 @@
       <c r="P34" s="2"/>
     </row>
     <row r="35" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="13"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="E35" s="5"/>
       <c r="F35" s="6"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="6"/>
+      <c r="H35" s="8"/>
       <c r="I35" s="5"/>
       <c r="J35" s="6"/>
       <c r="K35" s="5"/>
@@ -1493,13 +1831,13 @@
       <c r="P35" s="6"/>
     </row>
     <row r="36" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="13"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15"/>
       <c r="E36" s="4"/>
       <c r="F36" s="2"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="2"/>
+      <c r="H36" s="10"/>
       <c r="I36" s="4"/>
       <c r="J36" s="2"/>
       <c r="K36" s="4"/>
@@ -1510,15 +1848,19 @@
       <c r="P36" s="2"/>
     </row>
     <row r="37" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="13"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="E37" s="5"/>
       <c r="F37" s="6"/>
       <c r="G37" s="5"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="6"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="8"/>
       <c r="K37" s="5"/>
       <c r="L37" s="6"/>
       <c r="M37" s="5"/>
@@ -1527,9 +1869,9 @@
       <c r="P37" s="6"/>
     </row>
     <row r="38" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="13"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
       <c r="E38" s="4"/>
       <c r="F38" s="2"/>
       <c r="G38" s="4"/>
@@ -1544,15 +1886,19 @@
       <c r="P38" s="2"/>
     </row>
     <row r="39" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="13"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="E39" s="5"/>
       <c r="F39" s="6"/>
       <c r="G39" s="5"/>
       <c r="H39" s="6"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="6"/>
+      <c r="J39" s="8"/>
       <c r="K39" s="5"/>
       <c r="L39" s="6"/>
       <c r="M39" s="5"/>
@@ -1561,9 +1907,9 @@
       <c r="P39" s="6"/>
     </row>
     <row r="40" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="14"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="13"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="15"/>
       <c r="E40" s="4"/>
       <c r="F40" s="2"/>
       <c r="G40" s="4"/>
@@ -1578,16 +1924,18 @@
       <c r="P40" s="2"/>
     </row>
     <row r="41" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="13"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="E41" s="5"/>
       <c r="F41" s="6"/>
       <c r="G41" s="5"/>
       <c r="H41" s="6"/>
-      <c r="I41" s="5"/>
+      <c r="I41" s="7"/>
       <c r="J41" s="6"/>
       <c r="K41" s="5"/>
       <c r="L41" s="6"/>
@@ -1597,9 +1945,9 @@
       <c r="P41" s="6"/>
     </row>
     <row r="42" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="14"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="13"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15"/>
       <c r="E42" s="4"/>
       <c r="F42" s="2"/>
       <c r="G42" s="4"/>
@@ -1614,15 +1962,19 @@
       <c r="P42" s="2"/>
     </row>
     <row r="43" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="14"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="13"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="E43" s="5"/>
       <c r="F43" s="6"/>
       <c r="G43" s="5"/>
       <c r="H43" s="6"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="6"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="8"/>
       <c r="K43" s="5"/>
       <c r="L43" s="6"/>
       <c r="M43" s="5"/>
@@ -1631,9 +1983,9 @@
       <c r="P43" s="6"/>
     </row>
     <row r="44" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="13"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15"/>
       <c r="E44" s="4"/>
       <c r="F44" s="2"/>
       <c r="G44" s="4"/>
@@ -1648,16 +2000,22 @@
       <c r="P44" s="2"/>
     </row>
     <row r="45" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="13"/>
+      <c r="B45" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="E45" s="5"/>
       <c r="F45" s="6"/>
       <c r="G45" s="5"/>
       <c r="H45" s="6"/>
       <c r="I45" s="5"/>
       <c r="J45" s="6"/>
-      <c r="K45" s="5"/>
+      <c r="K45" s="7"/>
       <c r="L45" s="6"/>
       <c r="M45" s="5"/>
       <c r="N45" s="6"/>
@@ -1665,9 +2023,9 @@
       <c r="P45" s="6"/>
     </row>
     <row r="46" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="14"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="13"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="15"/>
       <c r="E46" s="4"/>
       <c r="F46" s="2"/>
       <c r="G46" s="4"/>
@@ -1682,16 +2040,20 @@
       <c r="P46" s="2"/>
     </row>
     <row r="47" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="14"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="13"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="E47" s="5"/>
       <c r="F47" s="6"/>
       <c r="G47" s="5"/>
       <c r="H47" s="6"/>
       <c r="I47" s="5"/>
       <c r="J47" s="6"/>
-      <c r="K47" s="5"/>
+      <c r="K47" s="7"/>
       <c r="L47" s="6"/>
       <c r="M47" s="5"/>
       <c r="N47" s="6"/>
@@ -1699,9 +2061,9 @@
       <c r="P47" s="6"/>
     </row>
     <row r="48" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="14"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="13"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="15"/>
       <c r="E48" s="4"/>
       <c r="F48" s="2"/>
       <c r="G48" s="4"/>
@@ -1715,29 +2077,31 @@
       <c r="O48" s="4"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="13"/>
+    <row r="49" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="22"/>
+      <c r="C49" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="E49" s="5"/>
       <c r="F49" s="6"/>
       <c r="G49" s="5"/>
       <c r="H49" s="6"/>
       <c r="I49" s="5"/>
       <c r="J49" s="6"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="6"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="8"/>
       <c r="M49" s="5"/>
       <c r="N49" s="6"/>
       <c r="O49" s="5"/>
       <c r="P49" s="6"/>
     </row>
-    <row r="50" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="14"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="13"/>
+    <row r="50" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="22"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15"/>
       <c r="E50" s="4"/>
       <c r="F50" s="2"/>
       <c r="G50" s="4"/>
@@ -1751,10 +2115,16 @@
       <c r="O50" s="4"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="14"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="13"/>
+    <row r="51" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="E51" s="5"/>
       <c r="F51" s="6"/>
       <c r="G51" s="5"/>
@@ -1762,16 +2132,16 @@
       <c r="I51" s="5"/>
       <c r="J51" s="6"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="6"/>
+      <c r="L51" s="8"/>
       <c r="M51" s="5"/>
       <c r="N51" s="6"/>
       <c r="O51" s="5"/>
       <c r="P51" s="6"/>
     </row>
-    <row r="52" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="14"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="13"/>
+    <row r="52" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="22"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="15"/>
       <c r="E52" s="4"/>
       <c r="F52" s="2"/>
       <c r="G52" s="4"/>
@@ -1785,10 +2155,14 @@
       <c r="O52" s="4"/>
       <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="14"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="13"/>
+    <row r="53" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="22"/>
+      <c r="C53" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="E53" s="5"/>
       <c r="F53" s="6"/>
       <c r="G53" s="5"/>
@@ -1796,16 +2170,16 @@
       <c r="I53" s="5"/>
       <c r="J53" s="6"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="6"/>
+      <c r="L53" s="8"/>
       <c r="M53" s="5"/>
       <c r="N53" s="6"/>
       <c r="O53" s="5"/>
       <c r="P53" s="6"/>
     </row>
-    <row r="54" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="14"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="13"/>
+    <row r="54" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="22"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="15"/>
       <c r="E54" s="4"/>
       <c r="F54" s="2"/>
       <c r="G54" s="4"/>
@@ -1819,10 +2193,14 @@
       <c r="O54" s="4"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="14"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="13"/>
+    <row r="55" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="22"/>
+      <c r="C55" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="E55" s="5"/>
       <c r="F55" s="6"/>
       <c r="G55" s="5"/>
@@ -1830,16 +2208,16 @@
       <c r="I55" s="5"/>
       <c r="J55" s="6"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="6"/>
+      <c r="L55" s="8"/>
       <c r="M55" s="5"/>
       <c r="N55" s="6"/>
       <c r="O55" s="5"/>
       <c r="P55" s="6"/>
     </row>
-    <row r="56" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="14"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="13"/>
+    <row r="56" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="22"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="15"/>
       <c r="E56" s="4"/>
       <c r="F56" s="2"/>
       <c r="G56" s="4"/>
@@ -1853,12 +2231,14 @@
       <c r="O56" s="4"/>
       <c r="P56" s="2"/>
     </row>
-    <row r="57" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="13"/>
+    <row r="57" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="22"/>
+      <c r="C57" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="E57" s="5"/>
       <c r="F57" s="6"/>
       <c r="G57" s="5"/>
@@ -1866,16 +2246,16 @@
       <c r="I57" s="5"/>
       <c r="J57" s="6"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="6"/>
+      <c r="L57" s="8"/>
       <c r="M57" s="5"/>
       <c r="N57" s="6"/>
       <c r="O57" s="5"/>
       <c r="P57" s="6"/>
     </row>
-    <row r="58" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="14"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="13"/>
+    <row r="58" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="22"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="15"/>
       <c r="E58" s="4"/>
       <c r="F58" s="2"/>
       <c r="G58" s="4"/>
@@ -1889,10 +2269,14 @@
       <c r="O58" s="4"/>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="14"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="13"/>
+    <row r="59" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="22"/>
+      <c r="C59" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="E59" s="5"/>
       <c r="F59" s="6"/>
       <c r="G59" s="5"/>
@@ -1900,16 +2284,16 @@
       <c r="I59" s="5"/>
       <c r="J59" s="6"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="6"/>
+      <c r="L59" s="8"/>
       <c r="M59" s="5"/>
       <c r="N59" s="6"/>
       <c r="O59" s="5"/>
       <c r="P59" s="6"/>
     </row>
-    <row r="60" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="14"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="13"/>
+    <row r="60" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="22"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="15"/>
       <c r="E60" s="4"/>
       <c r="F60" s="2"/>
       <c r="G60" s="4"/>
@@ -1923,10 +2307,14 @@
       <c r="O60" s="4"/>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="14"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="13"/>
+    <row r="61" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="22"/>
+      <c r="C61" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="E61" s="5"/>
       <c r="F61" s="6"/>
       <c r="G61" s="5"/>
@@ -1934,16 +2322,16 @@
       <c r="I61" s="5"/>
       <c r="J61" s="6"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="6"/>
+      <c r="L61" s="8"/>
       <c r="M61" s="5"/>
       <c r="N61" s="6"/>
       <c r="O61" s="5"/>
       <c r="P61" s="6"/>
     </row>
-    <row r="62" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="14"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="13"/>
+    <row r="62" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="22"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="15"/>
       <c r="E62" s="4"/>
       <c r="F62" s="2"/>
       <c r="G62" s="4"/>
@@ -1957,54 +2345,923 @@
       <c r="O62" s="4"/>
       <c r="P62" s="2"/>
     </row>
-    <row r="63" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C63" s="15" t="s">
+    <row r="63" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="22"/>
+      <c r="C63" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D63" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="33"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="34"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="34"/>
+      <c r="O63" s="33"/>
+      <c r="P63" s="34"/>
+    </row>
+    <row r="64" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="22"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="37"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="37"/>
+    </row>
+    <row r="65" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="22"/>
+      <c r="C65" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="6"/>
+    </row>
+    <row r="66" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="22"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="2"/>
+    </row>
+    <row r="67" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="6"/>
+    </row>
+    <row r="68" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="22"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="2"/>
+    </row>
+    <row r="69" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="22"/>
+      <c r="C69" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="6"/>
+    </row>
+    <row r="70" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="22"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="2"/>
+    </row>
+    <row r="71" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="22"/>
+      <c r="C71" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="6"/>
+    </row>
+    <row r="72" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="22"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="2"/>
+    </row>
+    <row r="73" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="22"/>
+      <c r="C73" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="6"/>
+    </row>
+    <row r="74" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="22"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="2"/>
+    </row>
+    <row r="75" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="22"/>
+      <c r="C75" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E75" s="5"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="6"/>
+    </row>
+    <row r="76" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="22"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="2"/>
+    </row>
+    <row r="77" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="22"/>
+      <c r="C77" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E77" s="5"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="6"/>
+    </row>
+    <row r="78" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="22"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="2"/>
+    </row>
+    <row r="79" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B79" s="22"/>
+      <c r="C79" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="5"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="6"/>
+    </row>
+    <row r="80" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="22"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="22"/>
+      <c r="C81" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E81" s="5"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="38"/>
+    </row>
+    <row r="82" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="22"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="2"/>
+    </row>
+    <row r="83" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E83" s="5"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="6"/>
+    </row>
+    <row r="84" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="22"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="2"/>
+    </row>
+    <row r="85" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B85" s="22"/>
+      <c r="C85" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E85" s="5"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="6"/>
+    </row>
+    <row r="86" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="22"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="2"/>
+    </row>
+    <row r="87" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B87" s="22"/>
+      <c r="C87" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E87" s="5"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="6"/>
+    </row>
+    <row r="88" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="22"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="2"/>
+    </row>
+    <row r="89" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B89" s="22"/>
+      <c r="C89" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E89" s="5"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="6"/>
+    </row>
+    <row r="90" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B90" s="22"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="2"/>
+    </row>
+    <row r="91" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B91" s="22"/>
+      <c r="C91" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E91" s="5"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="7"/>
+      <c r="P91" s="6"/>
+    </row>
+    <row r="92" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B92" s="22"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="2"/>
+    </row>
+    <row r="93" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B93" s="22"/>
+      <c r="C93" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E93" s="5"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="6"/>
+    </row>
+    <row r="94" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B94" s="22"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="2"/>
+    </row>
+    <row r="95" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B95" s="22"/>
+      <c r="C95" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D95" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" s="33"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="33"/>
+      <c r="J95" s="34"/>
+      <c r="K95" s="33"/>
+      <c r="L95" s="34"/>
+      <c r="M95" s="33"/>
+      <c r="N95" s="34"/>
+      <c r="O95" s="33"/>
+      <c r="P95" s="34"/>
+    </row>
+    <row r="96" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B96" s="22"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="35"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="37"/>
+      <c r="K96" s="36"/>
+      <c r="L96" s="37"/>
+      <c r="M96" s="36"/>
+      <c r="N96" s="37"/>
+      <c r="O96" s="36"/>
+      <c r="P96" s="37"/>
+    </row>
+    <row r="97" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B97" s="22"/>
+      <c r="C97" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E97" s="5"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="38"/>
+    </row>
+    <row r="98" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B98" s="22"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="2"/>
+    </row>
+    <row r="99" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B99" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D99" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" s="5"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="8"/>
+    </row>
+    <row r="100" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B100" s="22"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="2"/>
+    </row>
+    <row r="101" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B101" s="22"/>
+      <c r="C101" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" s="5"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="5"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="5"/>
+      <c r="P101" s="8"/>
+    </row>
+    <row r="102" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B102" s="22"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="2"/>
+    </row>
+    <row r="103" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B103" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D63" s="13"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="28" t="s">
+      <c r="C103" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="64" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="27"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="29"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="6"/>
+      <c r="O103" s="5"/>
+      <c r="P103" s="6"/>
+      <c r="Q103" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B104" s="17"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="4"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
-    <mergeCell ref="Q63:Q64"/>
+  <mergeCells count="119">
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
     <mergeCell ref="C63:C64"/>
     <mergeCell ref="D63:D64"/>
-    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="B83:B98"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="B67:B82"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="B51:B66"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B11:B44"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="Q103:Q104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="B103:B104"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="C11:C12"/>
@@ -2016,68 +3273,7 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="B5:B10"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="B33:B40"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B11:B26"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
     <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B41:B48"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="B49:B56"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C55:C56"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/総合演習資料/1.プロジェクト計画/ガントチャート.xlsx
+++ b/総合演習資料/1.プロジェクト計画/ガントチャート.xlsx
@@ -340,45 +340,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面設計図
-（詳細（一般））</t>
-    <rPh sb="7" eb="9">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>イッパン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面設計図
-（修正入力（管理））</t>
-    <rPh sb="7" eb="9">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面設計図
-（修正入力（一般））</t>
-    <rPh sb="7" eb="9">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>イッパン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>香川</t>
     <rPh sb="0" eb="2">
       <t>カガワ</t>
@@ -511,6 +472,45 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面設計図
+（修正入力）</t>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面設計図
+（詳細（一般本人））</t>
+    <rPh sb="7" eb="9">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホンニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面設計図
+（詳細（一般他人））</t>
+    <rPh sb="7" eb="9">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -765,89 +765,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1156,8 +1156,8 @@
   <dimension ref="B2:Q104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1171,34 +1171,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28"/>
-      <c r="I2" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="I2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
     </row>
     <row r="3" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
+      <c r="B3" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -1210,39 +1210,39 @@
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="32">
         <v>43031</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18">
+      <c r="F4" s="32"/>
+      <c r="G4" s="32">
         <v>43032</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18">
+      <c r="H4" s="32"/>
+      <c r="I4" s="32">
         <v>43033</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18">
+      <c r="J4" s="32"/>
+      <c r="K4" s="32">
         <v>43034</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18">
+      <c r="L4" s="32"/>
+      <c r="M4" s="32">
         <v>43035</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18">
+      <c r="N4" s="32"/>
+      <c r="O4" s="32">
         <v>43038</v>
       </c>
-      <c r="P4" s="18"/>
+      <c r="P4" s="32"/>
     </row>
     <row r="5" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="7"/>
@@ -1259,9 +1259,9 @@
       <c r="P5" s="6"/>
     </row>
     <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="20"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
       <c r="G6" s="4"/>
@@ -1276,11 +1276,11 @@
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="20"/>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="11"/>
@@ -1297,9 +1297,9 @@
       <c r="P7" s="6"/>
     </row>
     <row r="8" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="20"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="4"/>
       <c r="F8" s="10"/>
       <c r="G8" s="9"/>
@@ -1314,11 +1314,11 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="20"/>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="5"/>
@@ -1335,9 +1335,9 @@
       <c r="P9" s="6"/>
     </row>
     <row r="10" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="20"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="4"/>
       <c r="F10" s="2"/>
       <c r="G10" s="9"/>
@@ -1352,14 +1352,14 @@
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>40</v>
+      <c r="D11" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
@@ -1375,9 +1375,9 @@
       <c r="P11" s="6"/>
     </row>
     <row r="12" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="22"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="4"/>
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
@@ -1392,12 +1392,12 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="22"/>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="31"/>
+      <c r="C13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="29" t="s">
-        <v>43</v>
+      <c r="D13" s="33" t="s">
+        <v>40</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
@@ -1413,9 +1413,9 @@
       <c r="P13" s="6"/>
     </row>
     <row r="14" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="22"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="4"/>
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
@@ -1430,12 +1430,12 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="22"/>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="31"/>
+      <c r="C15" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>40</v>
+      <c r="D15" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
@@ -1451,9 +1451,9 @@
       <c r="P15" s="6"/>
     </row>
     <row r="16" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="22"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="4"/>
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
@@ -1468,12 +1468,12 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="22"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>40</v>
+      <c r="D17" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
@@ -1489,9 +1489,9 @@
       <c r="P17" s="6"/>
     </row>
     <row r="18" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="22"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="4"/>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
@@ -1506,12 +1506,12 @@
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="22"/>
-      <c r="C19" s="19" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>40</v>
+      <c r="D19" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
@@ -1527,9 +1527,9 @@
       <c r="P19" s="6"/>
     </row>
     <row r="20" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="22"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="4"/>
       <c r="F20" s="2"/>
       <c r="G20" s="4"/>
@@ -1544,12 +1544,12 @@
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="22"/>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="31"/>
+      <c r="C21" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>39</v>
+      <c r="D21" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
@@ -1565,9 +1565,9 @@
       <c r="P21" s="6"/>
     </row>
     <row r="22" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="22"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="4"/>
       <c r="F22" s="2"/>
       <c r="G22" s="4"/>
@@ -1582,12 +1582,12 @@
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="22"/>
-      <c r="C23" s="19" t="s">
+      <c r="B23" s="31"/>
+      <c r="C23" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="15" t="s">
-        <v>39</v>
+      <c r="D23" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
@@ -1603,9 +1603,9 @@
       <c r="P23" s="6"/>
     </row>
     <row r="24" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="22"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="4"/>
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
@@ -1620,12 +1620,12 @@
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="22"/>
-      <c r="C25" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>39</v>
+      <c r="B25" s="31"/>
+      <c r="C25" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
@@ -1641,9 +1641,9 @@
       <c r="P25" s="6"/>
     </row>
     <row r="26" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="22"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="4"/>
       <c r="F26" s="2"/>
       <c r="G26" s="4"/>
@@ -1658,12 +1658,12 @@
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="22"/>
-      <c r="C27" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>39</v>
+      <c r="B27" s="31"/>
+      <c r="C27" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
@@ -1679,9 +1679,9 @@
       <c r="P27" s="6"/>
     </row>
     <row r="28" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="22"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="4"/>
       <c r="F28" s="2"/>
       <c r="G28" s="4"/>
@@ -1696,12 +1696,12 @@
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="22"/>
-      <c r="C29" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>39</v>
+      <c r="B29" s="31"/>
+      <c r="C29" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="6"/>
@@ -1717,9 +1717,9 @@
       <c r="P29" s="6"/>
     </row>
     <row r="30" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="22"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="4"/>
       <c r="F30" s="2"/>
       <c r="G30" s="4"/>
@@ -1734,12 +1734,12 @@
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="22"/>
-      <c r="C31" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>39</v>
+      <c r="B31" s="31"/>
+      <c r="C31" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
@@ -1755,9 +1755,9 @@
       <c r="P31" s="6"/>
     </row>
     <row r="32" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="22"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="4"/>
       <c r="F32" s="2"/>
       <c r="G32" s="4"/>
@@ -1772,12 +1772,12 @@
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="22"/>
-      <c r="C33" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>39</v>
+      <c r="B33" s="31"/>
+      <c r="C33" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="6"/>
@@ -1793,9 +1793,9 @@
       <c r="P33" s="6"/>
     </row>
     <row r="34" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="22"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="4"/>
       <c r="F34" s="2"/>
       <c r="G34" s="4"/>
@@ -1810,12 +1810,12 @@
       <c r="P34" s="2"/>
     </row>
     <row r="35" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="22"/>
-      <c r="C35" s="19" t="s">
+      <c r="B35" s="31"/>
+      <c r="C35" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>39</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="6"/>
@@ -1831,9 +1831,9 @@
       <c r="P35" s="6"/>
     </row>
     <row r="36" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="22"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="4"/>
       <c r="F36" s="2"/>
       <c r="G36" s="4"/>
@@ -1848,12 +1848,12 @@
       <c r="P36" s="2"/>
     </row>
     <row r="37" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="22"/>
-      <c r="C37" s="14" t="s">
+      <c r="B37" s="31"/>
+      <c r="C37" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="15" t="s">
-        <v>41</v>
+      <c r="D37" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="6"/>
@@ -1869,9 +1869,9 @@
       <c r="P37" s="6"/>
     </row>
     <row r="38" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="22"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="19"/>
       <c r="E38" s="4"/>
       <c r="F38" s="2"/>
       <c r="G38" s="4"/>
@@ -1886,12 +1886,12 @@
       <c r="P38" s="2"/>
     </row>
     <row r="39" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="22"/>
-      <c r="C39" s="14" t="s">
+      <c r="B39" s="31"/>
+      <c r="C39" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="15" t="s">
-        <v>41</v>
+      <c r="D39" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="6"/>
@@ -1907,9 +1907,9 @@
       <c r="P39" s="6"/>
     </row>
     <row r="40" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="22"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="19"/>
       <c r="E40" s="4"/>
       <c r="F40" s="2"/>
       <c r="G40" s="4"/>
@@ -1924,12 +1924,12 @@
       <c r="P40" s="2"/>
     </row>
     <row r="41" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="22"/>
-      <c r="C41" s="14" t="s">
+      <c r="B41" s="31"/>
+      <c r="C41" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="15" t="s">
-        <v>41</v>
+      <c r="D41" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="6"/>
@@ -1945,9 +1945,9 @@
       <c r="P41" s="6"/>
     </row>
     <row r="42" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="22"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="19"/>
       <c r="E42" s="4"/>
       <c r="F42" s="2"/>
       <c r="G42" s="4"/>
@@ -1962,12 +1962,12 @@
       <c r="P42" s="2"/>
     </row>
     <row r="43" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="22"/>
-      <c r="C43" s="14" t="s">
+      <c r="B43" s="31"/>
+      <c r="C43" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="15" t="s">
-        <v>39</v>
+      <c r="D43" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="6"/>
@@ -1983,9 +1983,9 @@
       <c r="P43" s="6"/>
     </row>
     <row r="44" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="22"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="19"/>
       <c r="E44" s="4"/>
       <c r="F44" s="2"/>
       <c r="G44" s="4"/>
@@ -2000,14 +2000,14 @@
       <c r="P44" s="2"/>
     </row>
     <row r="45" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="15" t="s">
-        <v>41</v>
+      <c r="D45" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="6"/>
@@ -2023,9 +2023,9 @@
       <c r="P45" s="6"/>
     </row>
     <row r="46" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="22"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="15"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="19"/>
       <c r="E46" s="4"/>
       <c r="F46" s="2"/>
       <c r="G46" s="4"/>
@@ -2040,12 +2040,12 @@
       <c r="P46" s="2"/>
     </row>
     <row r="47" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="22"/>
-      <c r="C47" s="14" t="s">
+      <c r="B47" s="31"/>
+      <c r="C47" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="15" t="s">
-        <v>39</v>
+      <c r="D47" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="6"/>
@@ -2061,9 +2061,9 @@
       <c r="P47" s="6"/>
     </row>
     <row r="48" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="22"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="15"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="19"/>
       <c r="E48" s="4"/>
       <c r="F48" s="2"/>
       <c r="G48" s="4"/>
@@ -2078,11 +2078,11 @@
       <c r="P48" s="2"/>
     </row>
     <row r="49" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="22"/>
-      <c r="C49" s="14" t="s">
+      <c r="B49" s="31"/>
+      <c r="C49" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E49" s="5"/>
@@ -2099,9 +2099,9 @@
       <c r="P49" s="6"/>
     </row>
     <row r="50" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="22"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="15"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="19"/>
       <c r="E50" s="4"/>
       <c r="F50" s="2"/>
       <c r="G50" s="4"/>
@@ -2116,14 +2116,14 @@
       <c r="P50" s="2"/>
     </row>
     <row r="51" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D51" s="15" t="s">
+      <c r="C51" s="18" t="s">
         <v>41</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="6"/>
@@ -2139,9 +2139,9 @@
       <c r="P51" s="6"/>
     </row>
     <row r="52" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="22"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="15"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="19"/>
       <c r="E52" s="4"/>
       <c r="F52" s="2"/>
       <c r="G52" s="4"/>
@@ -2156,12 +2156,12 @@
       <c r="P52" s="2"/>
     </row>
     <row r="53" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="22"/>
-      <c r="C53" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>39</v>
+      <c r="B53" s="31"/>
+      <c r="C53" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="6"/>
@@ -2177,9 +2177,9 @@
       <c r="P53" s="6"/>
     </row>
     <row r="54" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="22"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="15"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="19"/>
       <c r="E54" s="4"/>
       <c r="F54" s="2"/>
       <c r="G54" s="4"/>
@@ -2194,12 +2194,12 @@
       <c r="P54" s="2"/>
     </row>
     <row r="55" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="22"/>
-      <c r="C55" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>39</v>
+      <c r="B55" s="31"/>
+      <c r="C55" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="6"/>
@@ -2215,9 +2215,9 @@
       <c r="P55" s="6"/>
     </row>
     <row r="56" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="22"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="15"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="19"/>
       <c r="E56" s="4"/>
       <c r="F56" s="2"/>
       <c r="G56" s="4"/>
@@ -2232,12 +2232,12 @@
       <c r="P56" s="2"/>
     </row>
     <row r="57" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="22"/>
-      <c r="C57" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>39</v>
+      <c r="B57" s="31"/>
+      <c r="C57" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="6"/>
@@ -2253,9 +2253,9 @@
       <c r="P57" s="6"/>
     </row>
     <row r="58" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="22"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="15"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="19"/>
       <c r="E58" s="4"/>
       <c r="F58" s="2"/>
       <c r="G58" s="4"/>
@@ -2270,12 +2270,12 @@
       <c r="P58" s="2"/>
     </row>
     <row r="59" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="22"/>
-      <c r="C59" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>42</v>
+      <c r="B59" s="31"/>
+      <c r="C59" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="6"/>
@@ -2291,9 +2291,9 @@
       <c r="P59" s="6"/>
     </row>
     <row r="60" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="22"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="15"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="19"/>
       <c r="E60" s="4"/>
       <c r="F60" s="2"/>
       <c r="G60" s="4"/>
@@ -2308,12 +2308,12 @@
       <c r="P60" s="2"/>
     </row>
     <row r="61" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="22"/>
-      <c r="C61" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>42</v>
+      <c r="B61" s="31"/>
+      <c r="C61" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="6"/>
@@ -2329,9 +2329,9 @@
       <c r="P61" s="6"/>
     </row>
     <row r="62" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="22"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="15"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="19"/>
       <c r="E62" s="4"/>
       <c r="F62" s="2"/>
       <c r="G62" s="4"/>
@@ -2346,50 +2346,50 @@
       <c r="P62" s="2"/>
     </row>
     <row r="63" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="22"/>
-      <c r="C63" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D63" s="32" t="s">
+      <c r="B63" s="31"/>
+      <c r="C63" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="33"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="34"/>
-      <c r="O63" s="33"/>
-      <c r="P63" s="34"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="13"/>
     </row>
     <row r="64" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="22"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="37"/>
-      <c r="K64" s="36"/>
-      <c r="L64" s="37"/>
-      <c r="M64" s="36"/>
-      <c r="N64" s="37"/>
-      <c r="O64" s="36"/>
-      <c r="P64" s="37"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="15"/>
     </row>
     <row r="65" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="22"/>
-      <c r="C65" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>41</v>
+      <c r="B65" s="31"/>
+      <c r="C65" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="6"/>
@@ -2405,9 +2405,9 @@
       <c r="P65" s="6"/>
     </row>
     <row r="66" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="22"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="15"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="19"/>
       <c r="E66" s="4"/>
       <c r="F66" s="2"/>
       <c r="G66" s="4"/>
@@ -2422,14 +2422,14 @@
       <c r="P66" s="2"/>
     </row>
     <row r="67" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C67" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D67" s="15" t="s">
+      <c r="C67" s="18" t="s">
         <v>41</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="6"/>
@@ -2445,9 +2445,9 @@
       <c r="P67" s="6"/>
     </row>
     <row r="68" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="22"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="15"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="19"/>
       <c r="E68" s="4"/>
       <c r="F68" s="2"/>
       <c r="G68" s="4"/>
@@ -2462,12 +2462,12 @@
       <c r="P68" s="2"/>
     </row>
     <row r="69" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="22"/>
-      <c r="C69" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>39</v>
+      <c r="B69" s="31"/>
+      <c r="C69" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="6"/>
@@ -2483,9 +2483,9 @@
       <c r="P69" s="6"/>
     </row>
     <row r="70" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="22"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="15"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="19"/>
       <c r="E70" s="4"/>
       <c r="F70" s="2"/>
       <c r="G70" s="4"/>
@@ -2500,12 +2500,12 @@
       <c r="P70" s="2"/>
     </row>
     <row r="71" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="22"/>
-      <c r="C71" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>39</v>
+      <c r="B71" s="31"/>
+      <c r="C71" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="6"/>
@@ -2521,9 +2521,9 @@
       <c r="P71" s="6"/>
     </row>
     <row r="72" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="22"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="15"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="19"/>
       <c r="E72" s="4"/>
       <c r="F72" s="2"/>
       <c r="G72" s="4"/>
@@ -2538,12 +2538,12 @@
       <c r="P72" s="2"/>
     </row>
     <row r="73" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="22"/>
-      <c r="C73" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>39</v>
+      <c r="B73" s="31"/>
+      <c r="C73" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="6"/>
@@ -2559,9 +2559,9 @@
       <c r="P73" s="6"/>
     </row>
     <row r="74" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="22"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="15"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="19"/>
       <c r="E74" s="4"/>
       <c r="F74" s="2"/>
       <c r="G74" s="4"/>
@@ -2576,12 +2576,12 @@
       <c r="P74" s="2"/>
     </row>
     <row r="75" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="22"/>
-      <c r="C75" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>42</v>
+      <c r="B75" s="31"/>
+      <c r="C75" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="6"/>
@@ -2597,9 +2597,9 @@
       <c r="P75" s="6"/>
     </row>
     <row r="76" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="22"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="15"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="19"/>
       <c r="E76" s="4"/>
       <c r="F76" s="2"/>
       <c r="G76" s="4"/>
@@ -2614,12 +2614,12 @@
       <c r="P76" s="2"/>
     </row>
     <row r="77" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="22"/>
-      <c r="C77" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>42</v>
+      <c r="B77" s="31"/>
+      <c r="C77" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="6"/>
@@ -2635,9 +2635,9 @@
       <c r="P77" s="6"/>
     </row>
     <row r="78" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="22"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="15"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="19"/>
       <c r="E78" s="4"/>
       <c r="F78" s="2"/>
       <c r="G78" s="4"/>
@@ -2652,11 +2652,11 @@
       <c r="P78" s="2"/>
     </row>
     <row r="79" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="22"/>
-      <c r="C79" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D79" s="21" t="s">
+      <c r="B79" s="31"/>
+      <c r="C79" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D79" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E79" s="5"/>
@@ -2673,9 +2673,9 @@
       <c r="P79" s="6"/>
     </row>
     <row r="80" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="22"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="15"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="19"/>
       <c r="E80" s="4"/>
       <c r="F80" s="2"/>
       <c r="G80" s="4"/>
@@ -2690,12 +2690,12 @@
       <c r="P80" s="2"/>
     </row>
     <row r="81" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="22"/>
-      <c r="C81" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>41</v>
+      <c r="B81" s="31"/>
+      <c r="C81" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="6"/>
@@ -2708,12 +2708,12 @@
       <c r="M81" s="5"/>
       <c r="N81" s="6"/>
       <c r="O81" s="7"/>
-      <c r="P81" s="38"/>
+      <c r="P81" s="16"/>
     </row>
     <row r="82" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="22"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="15"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="19"/>
       <c r="E82" s="4"/>
       <c r="F82" s="2"/>
       <c r="G82" s="4"/>
@@ -2728,14 +2728,14 @@
       <c r="P82" s="2"/>
     </row>
     <row r="83" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C83" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D83" s="15" t="s">
+      <c r="C83" s="18" t="s">
         <v>41</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="6"/>
@@ -2751,9 +2751,9 @@
       <c r="P83" s="6"/>
     </row>
     <row r="84" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="22"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="15"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="19"/>
       <c r="E84" s="4"/>
       <c r="F84" s="2"/>
       <c r="G84" s="4"/>
@@ -2768,12 +2768,12 @@
       <c r="P84" s="2"/>
     </row>
     <row r="85" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="22"/>
-      <c r="C85" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>39</v>
+      <c r="B85" s="31"/>
+      <c r="C85" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="6"/>
@@ -2789,9 +2789,9 @@
       <c r="P85" s="6"/>
     </row>
     <row r="86" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="22"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="15"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="19"/>
       <c r="E86" s="4"/>
       <c r="F86" s="2"/>
       <c r="G86" s="4"/>
@@ -2806,12 +2806,12 @@
       <c r="P86" s="2"/>
     </row>
     <row r="87" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="22"/>
-      <c r="C87" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D87" s="15" t="s">
-        <v>39</v>
+      <c r="B87" s="31"/>
+      <c r="C87" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="6"/>
@@ -2827,9 +2827,9 @@
       <c r="P87" s="6"/>
     </row>
     <row r="88" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="22"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="15"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="19"/>
       <c r="E88" s="4"/>
       <c r="F88" s="2"/>
       <c r="G88" s="4"/>
@@ -2844,12 +2844,12 @@
       <c r="P88" s="2"/>
     </row>
     <row r="89" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="22"/>
-      <c r="C89" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D89" s="15" t="s">
-        <v>39</v>
+      <c r="B89" s="31"/>
+      <c r="C89" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="6"/>
@@ -2865,9 +2865,9 @@
       <c r="P89" s="6"/>
     </row>
     <row r="90" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="22"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="15"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="19"/>
       <c r="E90" s="4"/>
       <c r="F90" s="2"/>
       <c r="G90" s="4"/>
@@ -2882,12 +2882,12 @@
       <c r="P90" s="2"/>
     </row>
     <row r="91" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="22"/>
-      <c r="C91" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D91" s="15" t="s">
-        <v>42</v>
+      <c r="B91" s="31"/>
+      <c r="C91" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="6"/>
@@ -2903,9 +2903,9 @@
       <c r="P91" s="6"/>
     </row>
     <row r="92" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="22"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="15"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="19"/>
       <c r="E92" s="4"/>
       <c r="F92" s="2"/>
       <c r="G92" s="4"/>
@@ -2920,12 +2920,12 @@
       <c r="P92" s="2"/>
     </row>
     <row r="93" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="22"/>
-      <c r="C93" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D93" s="15" t="s">
-        <v>42</v>
+      <c r="B93" s="31"/>
+      <c r="C93" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="6"/>
@@ -2941,9 +2941,9 @@
       <c r="P93" s="6"/>
     </row>
     <row r="94" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="22"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="15"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="19"/>
       <c r="E94" s="4"/>
       <c r="F94" s="2"/>
       <c r="G94" s="4"/>
@@ -2958,50 +2958,50 @@
       <c r="P94" s="2"/>
     </row>
     <row r="95" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="22"/>
-      <c r="C95" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D95" s="32" t="s">
+      <c r="B95" s="31"/>
+      <c r="C95" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D95" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E95" s="33"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="33"/>
-      <c r="H95" s="34"/>
-      <c r="I95" s="33"/>
-      <c r="J95" s="34"/>
-      <c r="K95" s="33"/>
-      <c r="L95" s="34"/>
-      <c r="M95" s="33"/>
-      <c r="N95" s="34"/>
-      <c r="O95" s="33"/>
-      <c r="P95" s="34"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="13"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="13"/>
+      <c r="O95" s="12"/>
+      <c r="P95" s="13"/>
     </row>
     <row r="96" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="22"/>
-      <c r="C96" s="31"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="37"/>
-      <c r="I96" s="36"/>
-      <c r="J96" s="37"/>
-      <c r="K96" s="36"/>
-      <c r="L96" s="37"/>
-      <c r="M96" s="36"/>
-      <c r="N96" s="37"/>
-      <c r="O96" s="36"/>
-      <c r="P96" s="37"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="14"/>
+      <c r="L96" s="15"/>
+      <c r="M96" s="14"/>
+      <c r="N96" s="15"/>
+      <c r="O96" s="14"/>
+      <c r="P96" s="15"/>
     </row>
     <row r="97" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="22"/>
-      <c r="C97" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D97" s="15" t="s">
-        <v>41</v>
+      <c r="B97" s="31"/>
+      <c r="C97" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="6"/>
@@ -3014,12 +3014,12 @@
       <c r="M97" s="5"/>
       <c r="N97" s="6"/>
       <c r="O97" s="7"/>
-      <c r="P97" s="38"/>
+      <c r="P97" s="16"/>
     </row>
     <row r="98" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="22"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="15"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="19"/>
       <c r="E98" s="4"/>
       <c r="F98" s="2"/>
       <c r="G98" s="4"/>
@@ -3034,13 +3034,13 @@
       <c r="P98" s="2"/>
     </row>
     <row r="99" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="22" t="s">
+      <c r="B99" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C99" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D99" s="21" t="s">
+      <c r="C99" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D99" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E99" s="5"/>
@@ -3057,9 +3057,9 @@
       <c r="P99" s="8"/>
     </row>
     <row r="100" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="22"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="15"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="19"/>
       <c r="E100" s="4"/>
       <c r="F100" s="2"/>
       <c r="G100" s="4"/>
@@ -3074,11 +3074,11 @@
       <c r="P100" s="2"/>
     </row>
     <row r="101" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="22"/>
-      <c r="C101" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D101" s="21" t="s">
+      <c r="B101" s="31"/>
+      <c r="C101" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D101" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E101" s="5"/>
@@ -3095,9 +3095,9 @@
       <c r="P101" s="8"/>
     </row>
     <row r="102" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="22"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="15"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="19"/>
       <c r="E102" s="4"/>
       <c r="F102" s="2"/>
       <c r="G102" s="4"/>
@@ -3112,13 +3112,13 @@
       <c r="P102" s="2"/>
     </row>
     <row r="103" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="16" t="s">
+      <c r="B103" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C103" s="14" t="s">
+      <c r="C103" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D103" s="15"/>
+      <c r="D103" s="19"/>
       <c r="E103" s="5"/>
       <c r="F103" s="6"/>
       <c r="G103" s="5"/>
@@ -3131,14 +3131,14 @@
       <c r="N103" s="6"/>
       <c r="O103" s="5"/>
       <c r="P103" s="6"/>
-      <c r="Q103" s="12" t="s">
+      <c r="Q103" s="35" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="104" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="17"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="15"/>
+      <c r="B104" s="38"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="19"/>
       <c r="E104" s="4"/>
       <c r="F104" s="2"/>
       <c r="G104" s="4"/>
@@ -3151,10 +3151,105 @@
       <c r="N104" s="2"/>
       <c r="O104" s="4"/>
       <c r="P104" s="2"/>
-      <c r="Q104" s="13"/>
+      <c r="Q104" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="119">
+    <mergeCell ref="Q103:Q104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B83:B98"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="B67:B82"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="B51:B66"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B11:B44"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
     <mergeCell ref="C97:C98"/>
     <mergeCell ref="D97:D98"/>
     <mergeCell ref="I2:L2"/>
@@ -3179,101 +3274,6 @@
     <mergeCell ref="D59:D60"/>
     <mergeCell ref="C61:C62"/>
     <mergeCell ref="D61:D62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="B83:B98"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="B67:B82"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="B51:B66"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B11:B44"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="Q103:Q104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="C37:C38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/総合演習資料/1.プロジェクト計画/ガントチャート.xlsx
+++ b/総合演習資料/1.プロジェクト計画/ガントチャート.xlsx
@@ -780,74 +780,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1156,8 +1156,8 @@
   <dimension ref="B2:Q104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37:C38"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1171,34 +1171,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
-      <c r="I2" s="20" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="I2" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20" t="s">
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
     </row>
     <row r="3" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -1210,39 +1210,39 @@
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="23">
         <v>43031</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32">
+      <c r="F4" s="23"/>
+      <c r="G4" s="23">
         <v>43032</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32">
+      <c r="H4" s="23"/>
+      <c r="I4" s="23">
         <v>43033</v>
       </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32">
+      <c r="J4" s="23"/>
+      <c r="K4" s="23">
         <v>43034</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32">
+      <c r="L4" s="23"/>
+      <c r="M4" s="23">
         <v>43035</v>
       </c>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32">
+      <c r="N4" s="23"/>
+      <c r="O4" s="23">
         <v>43038</v>
       </c>
-      <c r="P4" s="32"/>
+      <c r="P4" s="23"/>
     </row>
     <row r="5" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="26" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="7"/>
@@ -1259,9 +1259,9 @@
       <c r="P5" s="6"/>
     </row>
     <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="39"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
       <c r="G6" s="4"/>
@@ -1276,11 +1276,11 @@
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="39"/>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="26" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="11"/>
@@ -1297,9 +1297,9 @@
       <c r="P7" s="6"/>
     </row>
     <row r="8" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="39"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="4"/>
       <c r="F8" s="10"/>
       <c r="G8" s="9"/>
@@ -1314,11 +1314,11 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="39"/>
-      <c r="C9" s="18" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="5"/>
@@ -1335,9 +1335,9 @@
       <c r="P9" s="6"/>
     </row>
     <row r="10" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="39"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="4"/>
       <c r="F10" s="2"/>
       <c r="G10" s="9"/>
@@ -1352,13 +1352,13 @@
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="5"/>
@@ -1375,9 +1375,9 @@
       <c r="P11" s="6"/>
     </row>
     <row r="12" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="31"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="4"/>
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
@@ -1392,11 +1392,11 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="31"/>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="27" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="5"/>
@@ -1413,9 +1413,9 @@
       <c r="P13" s="6"/>
     </row>
     <row r="14" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="31"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="34"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="4"/>
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
@@ -1430,11 +1430,11 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="31"/>
-      <c r="C15" s="17" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="5"/>
@@ -1451,14 +1451,14 @@
       <c r="P15" s="6"/>
     </row>
     <row r="16" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="31"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="4"/>
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="4"/>
+      <c r="I16" s="9"/>
       <c r="J16" s="2"/>
       <c r="K16" s="4"/>
       <c r="L16" s="2"/>
@@ -1468,11 +1468,11 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="31"/>
-      <c r="C17" s="17" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="5"/>
@@ -1489,14 +1489,14 @@
       <c r="P17" s="6"/>
     </row>
     <row r="18" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="31"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="4"/>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="4"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="2"/>
       <c r="K18" s="4"/>
       <c r="L18" s="2"/>
@@ -1506,11 +1506,11 @@
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="31"/>
-      <c r="C19" s="17" t="s">
+      <c r="B19" s="29"/>
+      <c r="C19" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="5"/>
@@ -1527,14 +1527,14 @@
       <c r="P19" s="6"/>
     </row>
     <row r="20" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="31"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="4"/>
       <c r="F20" s="2"/>
       <c r="G20" s="4"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="4"/>
+      <c r="I20" s="9"/>
       <c r="J20" s="2"/>
       <c r="K20" s="4"/>
       <c r="L20" s="2"/>
@@ -1544,11 +1544,11 @@
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="31"/>
-      <c r="C21" s="17" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E21" s="5"/>
@@ -1565,14 +1565,14 @@
       <c r="P21" s="6"/>
     </row>
     <row r="22" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="31"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="4"/>
       <c r="F22" s="2"/>
       <c r="G22" s="4"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="4"/>
+      <c r="I22" s="9"/>
       <c r="J22" s="2"/>
       <c r="K22" s="4"/>
       <c r="L22" s="2"/>
@@ -1582,11 +1582,11 @@
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="31"/>
-      <c r="C23" s="17" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="5"/>
@@ -1603,14 +1603,14 @@
       <c r="P23" s="6"/>
     </row>
     <row r="24" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="31"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="4"/>
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="4"/>
+      <c r="I24" s="9"/>
       <c r="J24" s="2"/>
       <c r="K24" s="4"/>
       <c r="L24" s="2"/>
@@ -1620,11 +1620,11 @@
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="31"/>
-      <c r="C25" s="17" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E25" s="5"/>
@@ -1641,14 +1641,14 @@
       <c r="P25" s="6"/>
     </row>
     <row r="26" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="31"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="4"/>
       <c r="F26" s="2"/>
       <c r="G26" s="4"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="4"/>
+      <c r="I26" s="9"/>
       <c r="J26" s="2"/>
       <c r="K26" s="4"/>
       <c r="L26" s="2"/>
@@ -1658,11 +1658,11 @@
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="31"/>
-      <c r="C27" s="17" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E27" s="5"/>
@@ -1679,14 +1679,14 @@
       <c r="P27" s="6"/>
     </row>
     <row r="28" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="31"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="4"/>
       <c r="F28" s="2"/>
       <c r="G28" s="4"/>
       <c r="H28" s="10"/>
-      <c r="I28" s="4"/>
+      <c r="I28" s="9"/>
       <c r="J28" s="2"/>
       <c r="K28" s="4"/>
       <c r="L28" s="2"/>
@@ -1696,11 +1696,11 @@
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="31"/>
-      <c r="C29" s="17" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E29" s="5"/>
@@ -1717,14 +1717,14 @@
       <c r="P29" s="6"/>
     </row>
     <row r="30" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="31"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="4"/>
       <c r="F30" s="2"/>
       <c r="G30" s="4"/>
       <c r="H30" s="10"/>
-      <c r="I30" s="4"/>
+      <c r="I30" s="9"/>
       <c r="J30" s="2"/>
       <c r="K30" s="4"/>
       <c r="L30" s="2"/>
@@ -1734,11 +1734,11 @@
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="31"/>
-      <c r="C31" s="17" t="s">
+      <c r="B31" s="29"/>
+      <c r="C31" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E31" s="5"/>
@@ -1755,14 +1755,14 @@
       <c r="P31" s="6"/>
     </row>
     <row r="32" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="31"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="4"/>
       <c r="F32" s="2"/>
       <c r="G32" s="4"/>
       <c r="H32" s="10"/>
-      <c r="I32" s="4"/>
+      <c r="I32" s="9"/>
       <c r="J32" s="2"/>
       <c r="K32" s="4"/>
       <c r="L32" s="2"/>
@@ -1772,11 +1772,11 @@
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="31"/>
-      <c r="C33" s="17" t="s">
+      <c r="B33" s="29"/>
+      <c r="C33" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E33" s="5"/>
@@ -1793,14 +1793,14 @@
       <c r="P33" s="6"/>
     </row>
     <row r="34" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="31"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
       <c r="E34" s="4"/>
       <c r="F34" s="2"/>
       <c r="G34" s="4"/>
       <c r="H34" s="10"/>
-      <c r="I34" s="4"/>
+      <c r="I34" s="9"/>
       <c r="J34" s="2"/>
       <c r="K34" s="4"/>
       <c r="L34" s="2"/>
@@ -1810,11 +1810,11 @@
       <c r="P34" s="2"/>
     </row>
     <row r="35" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="31"/>
-      <c r="C35" s="17" t="s">
+      <c r="B35" s="29"/>
+      <c r="C35" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E35" s="5"/>
@@ -1831,14 +1831,14 @@
       <c r="P35" s="6"/>
     </row>
     <row r="36" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="31"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="4"/>
       <c r="F36" s="2"/>
       <c r="G36" s="4"/>
       <c r="H36" s="10"/>
-      <c r="I36" s="4"/>
+      <c r="I36" s="9"/>
       <c r="J36" s="2"/>
       <c r="K36" s="4"/>
       <c r="L36" s="2"/>
@@ -1848,11 +1848,11 @@
       <c r="P36" s="2"/>
     </row>
     <row r="37" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="31"/>
-      <c r="C37" s="18" t="s">
+      <c r="B37" s="29"/>
+      <c r="C37" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E37" s="5"/>
@@ -1869,9 +1869,9 @@
       <c r="P37" s="6"/>
     </row>
     <row r="38" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="31"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
       <c r="E38" s="4"/>
       <c r="F38" s="2"/>
       <c r="G38" s="4"/>
@@ -1886,11 +1886,11 @@
       <c r="P38" s="2"/>
     </row>
     <row r="39" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="31"/>
-      <c r="C39" s="18" t="s">
+      <c r="B39" s="29"/>
+      <c r="C39" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E39" s="5"/>
@@ -1907,9 +1907,9 @@
       <c r="P39" s="6"/>
     </row>
     <row r="40" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="31"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="19"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="4"/>
       <c r="F40" s="2"/>
       <c r="G40" s="4"/>
@@ -1924,11 +1924,11 @@
       <c r="P40" s="2"/>
     </row>
     <row r="41" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="31"/>
-      <c r="C41" s="18" t="s">
+      <c r="B41" s="29"/>
+      <c r="C41" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E41" s="5"/>
@@ -1945,9 +1945,9 @@
       <c r="P41" s="6"/>
     </row>
     <row r="42" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="31"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="19"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="4"/>
       <c r="F42" s="2"/>
       <c r="G42" s="4"/>
@@ -1962,11 +1962,11 @@
       <c r="P42" s="2"/>
     </row>
     <row r="43" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="31"/>
-      <c r="C43" s="18" t="s">
+      <c r="B43" s="29"/>
+      <c r="C43" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E43" s="5"/>
@@ -1983,9 +1983,9 @@
       <c r="P43" s="6"/>
     </row>
     <row r="44" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="31"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="19"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="4"/>
       <c r="F44" s="2"/>
       <c r="G44" s="4"/>
@@ -2000,13 +2000,13 @@
       <c r="P44" s="2"/>
     </row>
     <row r="45" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E45" s="5"/>
@@ -2023,9 +2023,9 @@
       <c r="P45" s="6"/>
     </row>
     <row r="46" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="31"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="19"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="20"/>
       <c r="E46" s="4"/>
       <c r="F46" s="2"/>
       <c r="G46" s="4"/>
@@ -2040,11 +2040,11 @@
       <c r="P46" s="2"/>
     </row>
     <row r="47" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="31"/>
-      <c r="C47" s="18" t="s">
+      <c r="B47" s="29"/>
+      <c r="C47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E47" s="5"/>
@@ -2061,9 +2061,9 @@
       <c r="P47" s="6"/>
     </row>
     <row r="48" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="31"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="19"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="20"/>
       <c r="E48" s="4"/>
       <c r="F48" s="2"/>
       <c r="G48" s="4"/>
@@ -2078,11 +2078,11 @@
       <c r="P48" s="2"/>
     </row>
     <row r="49" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="31"/>
-      <c r="C49" s="18" t="s">
+      <c r="B49" s="29"/>
+      <c r="C49" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E49" s="5"/>
@@ -2099,9 +2099,9 @@
       <c r="P49" s="6"/>
     </row>
     <row r="50" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="31"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="19"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="20"/>
       <c r="E50" s="4"/>
       <c r="F50" s="2"/>
       <c r="G50" s="4"/>
@@ -2116,13 +2116,13 @@
       <c r="P50" s="2"/>
     </row>
     <row r="51" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E51" s="5"/>
@@ -2139,9 +2139,9 @@
       <c r="P51" s="6"/>
     </row>
     <row r="52" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="31"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="19"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="20"/>
       <c r="E52" s="4"/>
       <c r="F52" s="2"/>
       <c r="G52" s="4"/>
@@ -2156,11 +2156,11 @@
       <c r="P52" s="2"/>
     </row>
     <row r="53" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="31"/>
-      <c r="C53" s="17" t="s">
+      <c r="B53" s="29"/>
+      <c r="C53" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E53" s="5"/>
@@ -2177,9 +2177,9 @@
       <c r="P53" s="6"/>
     </row>
     <row r="54" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="31"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="19"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="20"/>
       <c r="E54" s="4"/>
       <c r="F54" s="2"/>
       <c r="G54" s="4"/>
@@ -2194,11 +2194,11 @@
       <c r="P54" s="2"/>
     </row>
     <row r="55" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="31"/>
-      <c r="C55" s="17" t="s">
+      <c r="B55" s="29"/>
+      <c r="C55" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E55" s="5"/>
@@ -2215,9 +2215,9 @@
       <c r="P55" s="6"/>
     </row>
     <row r="56" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="31"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="19"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
       <c r="E56" s="4"/>
       <c r="F56" s="2"/>
       <c r="G56" s="4"/>
@@ -2232,11 +2232,11 @@
       <c r="P56" s="2"/>
     </row>
     <row r="57" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="31"/>
-      <c r="C57" s="17" t="s">
+      <c r="B57" s="29"/>
+      <c r="C57" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E57" s="5"/>
@@ -2253,9 +2253,9 @@
       <c r="P57" s="6"/>
     </row>
     <row r="58" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="31"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="19"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="20"/>
       <c r="E58" s="4"/>
       <c r="F58" s="2"/>
       <c r="G58" s="4"/>
@@ -2270,11 +2270,11 @@
       <c r="P58" s="2"/>
     </row>
     <row r="59" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="31"/>
-      <c r="C59" s="17" t="s">
+      <c r="B59" s="29"/>
+      <c r="C59" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="D59" s="20" t="s">
         <v>39</v>
       </c>
       <c r="E59" s="5"/>
@@ -2291,9 +2291,9 @@
       <c r="P59" s="6"/>
     </row>
     <row r="60" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="31"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="19"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="20"/>
       <c r="E60" s="4"/>
       <c r="F60" s="2"/>
       <c r="G60" s="4"/>
@@ -2308,11 +2308,11 @@
       <c r="P60" s="2"/>
     </row>
     <row r="61" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="31"/>
-      <c r="C61" s="17" t="s">
+      <c r="B61" s="29"/>
+      <c r="C61" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="20" t="s">
         <v>39</v>
       </c>
       <c r="E61" s="5"/>
@@ -2329,9 +2329,9 @@
       <c r="P61" s="6"/>
     </row>
     <row r="62" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="31"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="19"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="20"/>
       <c r="E62" s="4"/>
       <c r="F62" s="2"/>
       <c r="G62" s="4"/>
@@ -2346,11 +2346,11 @@
       <c r="P62" s="2"/>
     </row>
     <row r="63" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="31"/>
-      <c r="C63" s="21" t="s">
+      <c r="B63" s="29"/>
+      <c r="C63" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D63" s="22" t="s">
+      <c r="D63" s="37" t="s">
         <v>24</v>
       </c>
       <c r="E63" s="12"/>
@@ -2367,9 +2367,9 @@
       <c r="P63" s="13"/>
     </row>
     <row r="64" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="31"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="23"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="38"/>
       <c r="E64" s="14"/>
       <c r="F64" s="15"/>
       <c r="G64" s="14"/>
@@ -2384,11 +2384,11 @@
       <c r="P64" s="15"/>
     </row>
     <row r="65" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="31"/>
-      <c r="C65" s="17" t="s">
+      <c r="B65" s="29"/>
+      <c r="C65" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D65" s="19" t="s">
+      <c r="D65" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E65" s="5"/>
@@ -2405,9 +2405,9 @@
       <c r="P65" s="6"/>
     </row>
     <row r="66" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="31"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="19"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="20"/>
       <c r="E66" s="4"/>
       <c r="F66" s="2"/>
       <c r="G66" s="4"/>
@@ -2422,13 +2422,13 @@
       <c r="P66" s="2"/>
     </row>
     <row r="67" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="D67" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E67" s="5"/>
@@ -2445,9 +2445,9 @@
       <c r="P67" s="6"/>
     </row>
     <row r="68" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="31"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="19"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="20"/>
       <c r="E68" s="4"/>
       <c r="F68" s="2"/>
       <c r="G68" s="4"/>
@@ -2462,11 +2462,11 @@
       <c r="P68" s="2"/>
     </row>
     <row r="69" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="31"/>
-      <c r="C69" s="17" t="s">
+      <c r="B69" s="29"/>
+      <c r="C69" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D69" s="19" t="s">
+      <c r="D69" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E69" s="5"/>
@@ -2483,9 +2483,9 @@
       <c r="P69" s="6"/>
     </row>
     <row r="70" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="31"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="19"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="20"/>
       <c r="E70" s="4"/>
       <c r="F70" s="2"/>
       <c r="G70" s="4"/>
@@ -2500,11 +2500,11 @@
       <c r="P70" s="2"/>
     </row>
     <row r="71" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="31"/>
-      <c r="C71" s="17" t="s">
+      <c r="B71" s="29"/>
+      <c r="C71" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D71" s="19" t="s">
+      <c r="D71" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E71" s="5"/>
@@ -2521,9 +2521,9 @@
       <c r="P71" s="6"/>
     </row>
     <row r="72" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="31"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="19"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="20"/>
       <c r="E72" s="4"/>
       <c r="F72" s="2"/>
       <c r="G72" s="4"/>
@@ -2538,11 +2538,11 @@
       <c r="P72" s="2"/>
     </row>
     <row r="73" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="31"/>
-      <c r="C73" s="17" t="s">
+      <c r="B73" s="29"/>
+      <c r="C73" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="19" t="s">
+      <c r="D73" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E73" s="5"/>
@@ -2559,9 +2559,9 @@
       <c r="P73" s="6"/>
     </row>
     <row r="74" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="31"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="19"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="20"/>
       <c r="E74" s="4"/>
       <c r="F74" s="2"/>
       <c r="G74" s="4"/>
@@ -2576,11 +2576,11 @@
       <c r="P74" s="2"/>
     </row>
     <row r="75" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="31"/>
-      <c r="C75" s="17" t="s">
+      <c r="B75" s="29"/>
+      <c r="C75" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="19" t="s">
+      <c r="D75" s="20" t="s">
         <v>39</v>
       </c>
       <c r="E75" s="5"/>
@@ -2597,9 +2597,9 @@
       <c r="P75" s="6"/>
     </row>
     <row r="76" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="31"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="19"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="20"/>
       <c r="E76" s="4"/>
       <c r="F76" s="2"/>
       <c r="G76" s="4"/>
@@ -2614,11 +2614,11 @@
       <c r="P76" s="2"/>
     </row>
     <row r="77" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="31"/>
-      <c r="C77" s="17" t="s">
+      <c r="B77" s="29"/>
+      <c r="C77" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D77" s="19" t="s">
+      <c r="D77" s="20" t="s">
         <v>39</v>
       </c>
       <c r="E77" s="5"/>
@@ -2635,9 +2635,9 @@
       <c r="P77" s="6"/>
     </row>
     <row r="78" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="31"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="19"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="20"/>
       <c r="E78" s="4"/>
       <c r="F78" s="2"/>
       <c r="G78" s="4"/>
@@ -2652,11 +2652,11 @@
       <c r="P78" s="2"/>
     </row>
     <row r="79" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="31"/>
-      <c r="C79" s="18" t="s">
+      <c r="B79" s="29"/>
+      <c r="C79" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D79" s="24" t="s">
+      <c r="D79" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E79" s="5"/>
@@ -2673,9 +2673,9 @@
       <c r="P79" s="6"/>
     </row>
     <row r="80" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="31"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="19"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="20"/>
       <c r="E80" s="4"/>
       <c r="F80" s="2"/>
       <c r="G80" s="4"/>
@@ -2690,11 +2690,11 @@
       <c r="P80" s="2"/>
     </row>
     <row r="81" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="31"/>
-      <c r="C81" s="17" t="s">
+      <c r="B81" s="29"/>
+      <c r="C81" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D81" s="19" t="s">
+      <c r="D81" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E81" s="5"/>
@@ -2711,9 +2711,9 @@
       <c r="P81" s="16"/>
     </row>
     <row r="82" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="31"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="19"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="20"/>
       <c r="E82" s="4"/>
       <c r="F82" s="2"/>
       <c r="G82" s="4"/>
@@ -2728,13 +2728,13 @@
       <c r="P82" s="2"/>
     </row>
     <row r="83" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="31" t="s">
+      <c r="B83" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="19" t="s">
+      <c r="D83" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E83" s="5"/>
@@ -2751,9 +2751,9 @@
       <c r="P83" s="6"/>
     </row>
     <row r="84" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="31"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="19"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="20"/>
       <c r="E84" s="4"/>
       <c r="F84" s="2"/>
       <c r="G84" s="4"/>
@@ -2768,11 +2768,11 @@
       <c r="P84" s="2"/>
     </row>
     <row r="85" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="31"/>
-      <c r="C85" s="17" t="s">
+      <c r="B85" s="29"/>
+      <c r="C85" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D85" s="19" t="s">
+      <c r="D85" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E85" s="5"/>
@@ -2789,9 +2789,9 @@
       <c r="P85" s="6"/>
     </row>
     <row r="86" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="31"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="19"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="20"/>
       <c r="E86" s="4"/>
       <c r="F86" s="2"/>
       <c r="G86" s="4"/>
@@ -2806,11 +2806,11 @@
       <c r="P86" s="2"/>
     </row>
     <row r="87" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="31"/>
-      <c r="C87" s="17" t="s">
+      <c r="B87" s="29"/>
+      <c r="C87" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D87" s="19" t="s">
+      <c r="D87" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E87" s="5"/>
@@ -2827,9 +2827,9 @@
       <c r="P87" s="6"/>
     </row>
     <row r="88" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="31"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="19"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="20"/>
       <c r="E88" s="4"/>
       <c r="F88" s="2"/>
       <c r="G88" s="4"/>
@@ -2844,11 +2844,11 @@
       <c r="P88" s="2"/>
     </row>
     <row r="89" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="31"/>
-      <c r="C89" s="17" t="s">
+      <c r="B89" s="29"/>
+      <c r="C89" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D89" s="19" t="s">
+      <c r="D89" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E89" s="5"/>
@@ -2865,9 +2865,9 @@
       <c r="P89" s="6"/>
     </row>
     <row r="90" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="31"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="19"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="20"/>
       <c r="E90" s="4"/>
       <c r="F90" s="2"/>
       <c r="G90" s="4"/>
@@ -2882,11 +2882,11 @@
       <c r="P90" s="2"/>
     </row>
     <row r="91" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="31"/>
-      <c r="C91" s="17" t="s">
+      <c r="B91" s="29"/>
+      <c r="C91" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D91" s="19" t="s">
+      <c r="D91" s="20" t="s">
         <v>39</v>
       </c>
       <c r="E91" s="5"/>
@@ -2903,9 +2903,9 @@
       <c r="P91" s="6"/>
     </row>
     <row r="92" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="31"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="19"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="20"/>
       <c r="E92" s="4"/>
       <c r="F92" s="2"/>
       <c r="G92" s="4"/>
@@ -2920,11 +2920,11 @@
       <c r="P92" s="2"/>
     </row>
     <row r="93" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="31"/>
-      <c r="C93" s="17" t="s">
+      <c r="B93" s="29"/>
+      <c r="C93" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D93" s="19" t="s">
+      <c r="D93" s="20" t="s">
         <v>39</v>
       </c>
       <c r="E93" s="5"/>
@@ -2941,9 +2941,9 @@
       <c r="P93" s="6"/>
     </row>
     <row r="94" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="31"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="19"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="20"/>
       <c r="E94" s="4"/>
       <c r="F94" s="2"/>
       <c r="G94" s="4"/>
@@ -2958,11 +2958,11 @@
       <c r="P94" s="2"/>
     </row>
     <row r="95" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="31"/>
-      <c r="C95" s="21" t="s">
+      <c r="B95" s="29"/>
+      <c r="C95" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D95" s="22" t="s">
+      <c r="D95" s="37" t="s">
         <v>24</v>
       </c>
       <c r="E95" s="12"/>
@@ -2979,9 +2979,9 @@
       <c r="P95" s="13"/>
     </row>
     <row r="96" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="31"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="23"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="38"/>
       <c r="E96" s="14"/>
       <c r="F96" s="15"/>
       <c r="G96" s="14"/>
@@ -2996,11 +2996,11 @@
       <c r="P96" s="15"/>
     </row>
     <row r="97" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="31"/>
-      <c r="C97" s="17" t="s">
+      <c r="B97" s="29"/>
+      <c r="C97" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D97" s="19" t="s">
+      <c r="D97" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E97" s="5"/>
@@ -3017,9 +3017,9 @@
       <c r="P97" s="16"/>
     </row>
     <row r="98" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="31"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="19"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="20"/>
       <c r="E98" s="4"/>
       <c r="F98" s="2"/>
       <c r="G98" s="4"/>
@@ -3034,13 +3034,13 @@
       <c r="P98" s="2"/>
     </row>
     <row r="99" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="31" t="s">
+      <c r="B99" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C99" s="18" t="s">
+      <c r="C99" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D99" s="24" t="s">
+      <c r="D99" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E99" s="5"/>
@@ -3057,9 +3057,9 @@
       <c r="P99" s="8"/>
     </row>
     <row r="100" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="31"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="19"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="20"/>
       <c r="E100" s="4"/>
       <c r="F100" s="2"/>
       <c r="G100" s="4"/>
@@ -3074,11 +3074,11 @@
       <c r="P100" s="2"/>
     </row>
     <row r="101" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="31"/>
-      <c r="C101" s="18" t="s">
+      <c r="B101" s="29"/>
+      <c r="C101" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D101" s="24" t="s">
+      <c r="D101" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E101" s="5"/>
@@ -3095,9 +3095,9 @@
       <c r="P101" s="8"/>
     </row>
     <row r="102" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="31"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="19"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="20"/>
       <c r="E102" s="4"/>
       <c r="F102" s="2"/>
       <c r="G102" s="4"/>
@@ -3112,13 +3112,13 @@
       <c r="P102" s="2"/>
     </row>
     <row r="103" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="37" t="s">
+      <c r="B103" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C103" s="18" t="s">
+      <c r="C103" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D103" s="19"/>
+      <c r="D103" s="20"/>
       <c r="E103" s="5"/>
       <c r="F103" s="6"/>
       <c r="G103" s="5"/>
@@ -3131,14 +3131,14 @@
       <c r="N103" s="6"/>
       <c r="O103" s="5"/>
       <c r="P103" s="6"/>
-      <c r="Q103" s="35" t="s">
+      <c r="Q103" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="104" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="38"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="19"/>
+      <c r="B104" s="22"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="20"/>
       <c r="E104" s="4"/>
       <c r="F104" s="2"/>
       <c r="G104" s="4"/>
@@ -3151,10 +3151,105 @@
       <c r="N104" s="2"/>
       <c r="O104" s="4"/>
       <c r="P104" s="2"/>
-      <c r="Q104" s="36"/>
+      <c r="Q104" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="119">
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B11:B44"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B83:B98"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B67:B82"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="B51:B66"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C77:C78"/>
     <mergeCell ref="Q103:Q104"/>
     <mergeCell ref="C103:C104"/>
     <mergeCell ref="D103:D104"/>
@@ -3179,101 +3274,6 @@
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B83:B98"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="B67:B82"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="B51:B66"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B11:B44"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/総合演習資料/1.プロジェクト計画/ガントチャート.xlsx
+++ b/総合演習資料/1.プロジェクト計画/ガントチャート.xlsx
@@ -780,18 +780,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -801,53 +846,8 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1156,8 +1156,8 @@
   <dimension ref="B2:Q104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1171,34 +1171,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35"/>
-      <c r="I2" s="39" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="I2" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39" t="s">
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="3" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -1210,39 +1210,39 @@
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="38">
         <v>43031</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23">
+      <c r="F4" s="38"/>
+      <c r="G4" s="38">
         <v>43032</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23">
+      <c r="H4" s="38"/>
+      <c r="I4" s="38">
         <v>43033</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23">
+      <c r="J4" s="38"/>
+      <c r="K4" s="38">
         <v>43034</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23">
+      <c r="L4" s="38"/>
+      <c r="M4" s="38">
         <v>43035</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23">
+      <c r="N4" s="38"/>
+      <c r="O4" s="38">
         <v>43038</v>
       </c>
-      <c r="P4" s="23"/>
+      <c r="P4" s="38"/>
     </row>
     <row r="5" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="7"/>
@@ -1259,9 +1259,9 @@
       <c r="P5" s="6"/>
     </row>
     <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="25"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
       <c r="G6" s="4"/>
@@ -1276,11 +1276,11 @@
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="25"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="11"/>
@@ -1297,9 +1297,9 @@
       <c r="P7" s="6"/>
     </row>
     <row r="8" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="25"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="4"/>
       <c r="F8" s="10"/>
       <c r="G8" s="9"/>
@@ -1314,11 +1314,11 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="25"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="5"/>
@@ -1335,9 +1335,9 @@
       <c r="P9" s="6"/>
     </row>
     <row r="10" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="25"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="4"/>
       <c r="F10" s="2"/>
       <c r="G10" s="9"/>
@@ -1352,13 +1352,13 @@
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="5"/>
@@ -1375,15 +1375,15 @@
       <c r="P11" s="6"/>
     </row>
     <row r="12" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="29"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="4"/>
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="2"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="9"/>
       <c r="K12" s="4"/>
       <c r="L12" s="2"/>
       <c r="M12" s="4"/>
@@ -1392,11 +1392,11 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="29"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="32" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="5"/>
@@ -1413,15 +1413,15 @@
       <c r="P13" s="6"/>
     </row>
     <row r="14" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="29"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="19"/>
-      <c r="D14" s="28"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="4"/>
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="2"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="9"/>
       <c r="K14" s="4"/>
       <c r="L14" s="2"/>
       <c r="M14" s="4"/>
@@ -1430,11 +1430,11 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="29"/>
-      <c r="C15" s="24" t="s">
+      <c r="B15" s="31"/>
+      <c r="C15" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="5"/>
@@ -1451,9 +1451,9 @@
       <c r="P15" s="6"/>
     </row>
     <row r="16" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="29"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="4"/>
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
@@ -1468,11 +1468,11 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="29"/>
-      <c r="C17" s="24" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="5"/>
@@ -1489,9 +1489,9 @@
       <c r="P17" s="6"/>
     </row>
     <row r="18" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="29"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="4"/>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
@@ -1506,11 +1506,11 @@
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="29"/>
-      <c r="C19" s="24" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="5"/>
@@ -1527,9 +1527,9 @@
       <c r="P19" s="6"/>
     </row>
     <row r="20" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="29"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="4"/>
       <c r="F20" s="2"/>
       <c r="G20" s="4"/>
@@ -1544,11 +1544,11 @@
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="29"/>
-      <c r="C21" s="24" t="s">
+      <c r="B21" s="31"/>
+      <c r="C21" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E21" s="5"/>
@@ -1565,9 +1565,9 @@
       <c r="P21" s="6"/>
     </row>
     <row r="22" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="4"/>
       <c r="F22" s="2"/>
       <c r="G22" s="4"/>
@@ -1582,11 +1582,11 @@
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="29"/>
-      <c r="C23" s="24" t="s">
+      <c r="B23" s="31"/>
+      <c r="C23" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="5"/>
@@ -1603,9 +1603,9 @@
       <c r="P23" s="6"/>
     </row>
     <row r="24" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="29"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="4"/>
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
@@ -1620,11 +1620,11 @@
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="29"/>
-      <c r="C25" s="24" t="s">
+      <c r="B25" s="31"/>
+      <c r="C25" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E25" s="5"/>
@@ -1641,9 +1641,9 @@
       <c r="P25" s="6"/>
     </row>
     <row r="26" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="29"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="4"/>
       <c r="F26" s="2"/>
       <c r="G26" s="4"/>
@@ -1658,11 +1658,11 @@
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="29"/>
-      <c r="C27" s="24" t="s">
+      <c r="B27" s="31"/>
+      <c r="C27" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E27" s="5"/>
@@ -1679,9 +1679,9 @@
       <c r="P27" s="6"/>
     </row>
     <row r="28" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="29"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="4"/>
       <c r="F28" s="2"/>
       <c r="G28" s="4"/>
@@ -1696,11 +1696,11 @@
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="29"/>
-      <c r="C29" s="24" t="s">
+      <c r="B29" s="31"/>
+      <c r="C29" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E29" s="5"/>
@@ -1717,9 +1717,9 @@
       <c r="P29" s="6"/>
     </row>
     <row r="30" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="29"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="4"/>
       <c r="F30" s="2"/>
       <c r="G30" s="4"/>
@@ -1734,11 +1734,11 @@
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="29"/>
-      <c r="C31" s="24" t="s">
+      <c r="B31" s="31"/>
+      <c r="C31" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E31" s="5"/>
@@ -1755,9 +1755,9 @@
       <c r="P31" s="6"/>
     </row>
     <row r="32" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="29"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="19"/>
-      <c r="D32" s="20"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="4"/>
       <c r="F32" s="2"/>
       <c r="G32" s="4"/>
@@ -1772,11 +1772,11 @@
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="29"/>
-      <c r="C33" s="24" t="s">
+      <c r="B33" s="31"/>
+      <c r="C33" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E33" s="5"/>
@@ -1793,9 +1793,9 @@
       <c r="P33" s="6"/>
     </row>
     <row r="34" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="29"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="4"/>
       <c r="F34" s="2"/>
       <c r="G34" s="4"/>
@@ -1810,11 +1810,11 @@
       <c r="P34" s="2"/>
     </row>
     <row r="35" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="29"/>
-      <c r="C35" s="24" t="s">
+      <c r="B35" s="31"/>
+      <c r="C35" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E35" s="5"/>
@@ -1831,9 +1831,9 @@
       <c r="P35" s="6"/>
     </row>
     <row r="36" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="29"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="19"/>
-      <c r="D36" s="20"/>
+      <c r="D36" s="17"/>
       <c r="E36" s="4"/>
       <c r="F36" s="2"/>
       <c r="G36" s="4"/>
@@ -1848,11 +1848,11 @@
       <c r="P36" s="2"/>
     </row>
     <row r="37" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="29"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E37" s="5"/>
@@ -1869,9 +1869,9 @@
       <c r="P37" s="6"/>
     </row>
     <row r="38" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="29"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="19"/>
-      <c r="D38" s="20"/>
+      <c r="D38" s="17"/>
       <c r="E38" s="4"/>
       <c r="F38" s="2"/>
       <c r="G38" s="4"/>
@@ -1886,11 +1886,11 @@
       <c r="P38" s="2"/>
     </row>
     <row r="39" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="29"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E39" s="5"/>
@@ -1907,9 +1907,9 @@
       <c r="P39" s="6"/>
     </row>
     <row r="40" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="29"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="19"/>
-      <c r="D40" s="20"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="4"/>
       <c r="F40" s="2"/>
       <c r="G40" s="4"/>
@@ -1924,11 +1924,11 @@
       <c r="P40" s="2"/>
     </row>
     <row r="41" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="29"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E41" s="5"/>
@@ -1945,9 +1945,9 @@
       <c r="P41" s="6"/>
     </row>
     <row r="42" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="29"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="19"/>
-      <c r="D42" s="20"/>
+      <c r="D42" s="17"/>
       <c r="E42" s="4"/>
       <c r="F42" s="2"/>
       <c r="G42" s="4"/>
@@ -1962,11 +1962,11 @@
       <c r="P42" s="2"/>
     </row>
     <row r="43" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="29"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E43" s="5"/>
@@ -1983,9 +1983,9 @@
       <c r="P43" s="6"/>
     </row>
     <row r="44" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="29"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="19"/>
-      <c r="D44" s="20"/>
+      <c r="D44" s="17"/>
       <c r="E44" s="4"/>
       <c r="F44" s="2"/>
       <c r="G44" s="4"/>
@@ -2000,13 +2000,13 @@
       <c r="P44" s="2"/>
     </row>
     <row r="45" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E45" s="5"/>
@@ -2023,9 +2023,9 @@
       <c r="P45" s="6"/>
     </row>
     <row r="46" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="29"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="19"/>
-      <c r="D46" s="20"/>
+      <c r="D46" s="17"/>
       <c r="E46" s="4"/>
       <c r="F46" s="2"/>
       <c r="G46" s="4"/>
@@ -2040,11 +2040,11 @@
       <c r="P46" s="2"/>
     </row>
     <row r="47" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="29"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E47" s="5"/>
@@ -2061,9 +2061,9 @@
       <c r="P47" s="6"/>
     </row>
     <row r="48" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="29"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="19"/>
-      <c r="D48" s="20"/>
+      <c r="D48" s="17"/>
       <c r="E48" s="4"/>
       <c r="F48" s="2"/>
       <c r="G48" s="4"/>
@@ -2078,11 +2078,11 @@
       <c r="P48" s="2"/>
     </row>
     <row r="49" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="29"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D49" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E49" s="5"/>
@@ -2099,9 +2099,9 @@
       <c r="P49" s="6"/>
     </row>
     <row r="50" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="29"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="19"/>
-      <c r="D50" s="20"/>
+      <c r="D50" s="17"/>
       <c r="E50" s="4"/>
       <c r="F50" s="2"/>
       <c r="G50" s="4"/>
@@ -2116,13 +2116,13 @@
       <c r="P50" s="2"/>
     </row>
     <row r="51" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E51" s="5"/>
@@ -2139,9 +2139,9 @@
       <c r="P51" s="6"/>
     </row>
     <row r="52" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="29"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="19"/>
-      <c r="D52" s="20"/>
+      <c r="D52" s="17"/>
       <c r="E52" s="4"/>
       <c r="F52" s="2"/>
       <c r="G52" s="4"/>
@@ -2156,11 +2156,11 @@
       <c r="P52" s="2"/>
     </row>
     <row r="53" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="29"/>
-      <c r="C53" s="24" t="s">
+      <c r="B53" s="31"/>
+      <c r="C53" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="D53" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E53" s="5"/>
@@ -2177,9 +2177,9 @@
       <c r="P53" s="6"/>
     </row>
     <row r="54" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="29"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="19"/>
-      <c r="D54" s="20"/>
+      <c r="D54" s="17"/>
       <c r="E54" s="4"/>
       <c r="F54" s="2"/>
       <c r="G54" s="4"/>
@@ -2194,11 +2194,11 @@
       <c r="P54" s="2"/>
     </row>
     <row r="55" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="29"/>
-      <c r="C55" s="24" t="s">
+      <c r="B55" s="31"/>
+      <c r="C55" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E55" s="5"/>
@@ -2215,9 +2215,9 @@
       <c r="P55" s="6"/>
     </row>
     <row r="56" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="29"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="19"/>
-      <c r="D56" s="20"/>
+      <c r="D56" s="17"/>
       <c r="E56" s="4"/>
       <c r="F56" s="2"/>
       <c r="G56" s="4"/>
@@ -2232,11 +2232,11 @@
       <c r="P56" s="2"/>
     </row>
     <row r="57" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="29"/>
-      <c r="C57" s="24" t="s">
+      <c r="B57" s="31"/>
+      <c r="C57" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E57" s="5"/>
@@ -2253,9 +2253,9 @@
       <c r="P57" s="6"/>
     </row>
     <row r="58" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="29"/>
+      <c r="B58" s="31"/>
       <c r="C58" s="19"/>
-      <c r="D58" s="20"/>
+      <c r="D58" s="17"/>
       <c r="E58" s="4"/>
       <c r="F58" s="2"/>
       <c r="G58" s="4"/>
@@ -2270,11 +2270,11 @@
       <c r="P58" s="2"/>
     </row>
     <row r="59" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="29"/>
-      <c r="C59" s="24" t="s">
+      <c r="B59" s="31"/>
+      <c r="C59" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E59" s="5"/>
@@ -2291,9 +2291,9 @@
       <c r="P59" s="6"/>
     </row>
     <row r="60" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="29"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="19"/>
-      <c r="D60" s="20"/>
+      <c r="D60" s="17"/>
       <c r="E60" s="4"/>
       <c r="F60" s="2"/>
       <c r="G60" s="4"/>
@@ -2308,11 +2308,11 @@
       <c r="P60" s="2"/>
     </row>
     <row r="61" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="29"/>
-      <c r="C61" s="24" t="s">
+      <c r="B61" s="31"/>
+      <c r="C61" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="D61" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E61" s="5"/>
@@ -2329,9 +2329,9 @@
       <c r="P61" s="6"/>
     </row>
     <row r="62" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="29"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="19"/>
-      <c r="D62" s="20"/>
+      <c r="D62" s="17"/>
       <c r="E62" s="4"/>
       <c r="F62" s="2"/>
       <c r="G62" s="4"/>
@@ -2346,11 +2346,11 @@
       <c r="P62" s="2"/>
     </row>
     <row r="63" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="29"/>
-      <c r="C63" s="36" t="s">
+      <c r="B63" s="31"/>
+      <c r="C63" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D63" s="37" t="s">
+      <c r="D63" s="23" t="s">
         <v>24</v>
       </c>
       <c r="E63" s="12"/>
@@ -2367,9 +2367,9 @@
       <c r="P63" s="13"/>
     </row>
     <row r="64" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="29"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="38"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="24"/>
       <c r="E64" s="14"/>
       <c r="F64" s="15"/>
       <c r="G64" s="14"/>
@@ -2384,11 +2384,11 @@
       <c r="P64" s="15"/>
     </row>
     <row r="65" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="29"/>
-      <c r="C65" s="24" t="s">
+      <c r="B65" s="31"/>
+      <c r="C65" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="D65" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E65" s="5"/>
@@ -2405,9 +2405,9 @@
       <c r="P65" s="6"/>
     </row>
     <row r="66" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="29"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="19"/>
-      <c r="D66" s="20"/>
+      <c r="D66" s="17"/>
       <c r="E66" s="4"/>
       <c r="F66" s="2"/>
       <c r="G66" s="4"/>
@@ -2422,13 +2422,13 @@
       <c r="P66" s="2"/>
     </row>
     <row r="67" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="29" t="s">
+      <c r="B67" s="31" t="s">
         <v>18</v>
       </c>
       <c r="C67" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D67" s="20" t="s">
+      <c r="D67" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E67" s="5"/>
@@ -2445,9 +2445,9 @@
       <c r="P67" s="6"/>
     </row>
     <row r="68" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="29"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="19"/>
-      <c r="D68" s="20"/>
+      <c r="D68" s="17"/>
       <c r="E68" s="4"/>
       <c r="F68" s="2"/>
       <c r="G68" s="4"/>
@@ -2462,11 +2462,11 @@
       <c r="P68" s="2"/>
     </row>
     <row r="69" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="29"/>
-      <c r="C69" s="24" t="s">
+      <c r="B69" s="31"/>
+      <c r="C69" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D69" s="20" t="s">
+      <c r="D69" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E69" s="5"/>
@@ -2483,9 +2483,9 @@
       <c r="P69" s="6"/>
     </row>
     <row r="70" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="29"/>
+      <c r="B70" s="31"/>
       <c r="C70" s="19"/>
-      <c r="D70" s="20"/>
+      <c r="D70" s="17"/>
       <c r="E70" s="4"/>
       <c r="F70" s="2"/>
       <c r="G70" s="4"/>
@@ -2500,11 +2500,11 @@
       <c r="P70" s="2"/>
     </row>
     <row r="71" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="29"/>
-      <c r="C71" s="24" t="s">
+      <c r="B71" s="31"/>
+      <c r="C71" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D71" s="20" t="s">
+      <c r="D71" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E71" s="5"/>
@@ -2521,9 +2521,9 @@
       <c r="P71" s="6"/>
     </row>
     <row r="72" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="29"/>
+      <c r="B72" s="31"/>
       <c r="C72" s="19"/>
-      <c r="D72" s="20"/>
+      <c r="D72" s="17"/>
       <c r="E72" s="4"/>
       <c r="F72" s="2"/>
       <c r="G72" s="4"/>
@@ -2538,11 +2538,11 @@
       <c r="P72" s="2"/>
     </row>
     <row r="73" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="29"/>
-      <c r="C73" s="24" t="s">
+      <c r="B73" s="31"/>
+      <c r="C73" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="20" t="s">
+      <c r="D73" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E73" s="5"/>
@@ -2559,9 +2559,9 @@
       <c r="P73" s="6"/>
     </row>
     <row r="74" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="29"/>
+      <c r="B74" s="31"/>
       <c r="C74" s="19"/>
-      <c r="D74" s="20"/>
+      <c r="D74" s="17"/>
       <c r="E74" s="4"/>
       <c r="F74" s="2"/>
       <c r="G74" s="4"/>
@@ -2576,11 +2576,11 @@
       <c r="P74" s="2"/>
     </row>
     <row r="75" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="29"/>
-      <c r="C75" s="24" t="s">
+      <c r="B75" s="31"/>
+      <c r="C75" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="20" t="s">
+      <c r="D75" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E75" s="5"/>
@@ -2597,9 +2597,9 @@
       <c r="P75" s="6"/>
     </row>
     <row r="76" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="29"/>
+      <c r="B76" s="31"/>
       <c r="C76" s="19"/>
-      <c r="D76" s="20"/>
+      <c r="D76" s="17"/>
       <c r="E76" s="4"/>
       <c r="F76" s="2"/>
       <c r="G76" s="4"/>
@@ -2614,11 +2614,11 @@
       <c r="P76" s="2"/>
     </row>
     <row r="77" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="29"/>
-      <c r="C77" s="24" t="s">
+      <c r="B77" s="31"/>
+      <c r="C77" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D77" s="20" t="s">
+      <c r="D77" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E77" s="5"/>
@@ -2635,9 +2635,9 @@
       <c r="P77" s="6"/>
     </row>
     <row r="78" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="29"/>
+      <c r="B78" s="31"/>
       <c r="C78" s="19"/>
-      <c r="D78" s="20"/>
+      <c r="D78" s="17"/>
       <c r="E78" s="4"/>
       <c r="F78" s="2"/>
       <c r="G78" s="4"/>
@@ -2652,11 +2652,11 @@
       <c r="P78" s="2"/>
     </row>
     <row r="79" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="29"/>
+      <c r="B79" s="31"/>
       <c r="C79" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D79" s="26" t="s">
+      <c r="D79" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E79" s="5"/>
@@ -2673,9 +2673,9 @@
       <c r="P79" s="6"/>
     </row>
     <row r="80" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="29"/>
+      <c r="B80" s="31"/>
       <c r="C80" s="19"/>
-      <c r="D80" s="20"/>
+      <c r="D80" s="17"/>
       <c r="E80" s="4"/>
       <c r="F80" s="2"/>
       <c r="G80" s="4"/>
@@ -2690,11 +2690,11 @@
       <c r="P80" s="2"/>
     </row>
     <row r="81" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="29"/>
-      <c r="C81" s="24" t="s">
+      <c r="B81" s="31"/>
+      <c r="C81" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D81" s="20" t="s">
+      <c r="D81" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E81" s="5"/>
@@ -2711,9 +2711,9 @@
       <c r="P81" s="16"/>
     </row>
     <row r="82" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="29"/>
+      <c r="B82" s="31"/>
       <c r="C82" s="19"/>
-      <c r="D82" s="20"/>
+      <c r="D82" s="17"/>
       <c r="E82" s="4"/>
       <c r="F82" s="2"/>
       <c r="G82" s="4"/>
@@ -2728,13 +2728,13 @@
       <c r="P82" s="2"/>
     </row>
     <row r="83" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="29" t="s">
+      <c r="B83" s="31" t="s">
         <v>19</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="20" t="s">
+      <c r="D83" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E83" s="5"/>
@@ -2751,9 +2751,9 @@
       <c r="P83" s="6"/>
     </row>
     <row r="84" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="29"/>
+      <c r="B84" s="31"/>
       <c r="C84" s="19"/>
-      <c r="D84" s="20"/>
+      <c r="D84" s="17"/>
       <c r="E84" s="4"/>
       <c r="F84" s="2"/>
       <c r="G84" s="4"/>
@@ -2768,11 +2768,11 @@
       <c r="P84" s="2"/>
     </row>
     <row r="85" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="29"/>
-      <c r="C85" s="24" t="s">
+      <c r="B85" s="31"/>
+      <c r="C85" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D85" s="20" t="s">
+      <c r="D85" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E85" s="5"/>
@@ -2789,9 +2789,9 @@
       <c r="P85" s="6"/>
     </row>
     <row r="86" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="29"/>
+      <c r="B86" s="31"/>
       <c r="C86" s="19"/>
-      <c r="D86" s="20"/>
+      <c r="D86" s="17"/>
       <c r="E86" s="4"/>
       <c r="F86" s="2"/>
       <c r="G86" s="4"/>
@@ -2806,11 +2806,11 @@
       <c r="P86" s="2"/>
     </row>
     <row r="87" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="29"/>
-      <c r="C87" s="24" t="s">
+      <c r="B87" s="31"/>
+      <c r="C87" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D87" s="20" t="s">
+      <c r="D87" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E87" s="5"/>
@@ -2827,9 +2827,9 @@
       <c r="P87" s="6"/>
     </row>
     <row r="88" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="29"/>
+      <c r="B88" s="31"/>
       <c r="C88" s="19"/>
-      <c r="D88" s="20"/>
+      <c r="D88" s="17"/>
       <c r="E88" s="4"/>
       <c r="F88" s="2"/>
       <c r="G88" s="4"/>
@@ -2844,11 +2844,11 @@
       <c r="P88" s="2"/>
     </row>
     <row r="89" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="29"/>
-      <c r="C89" s="24" t="s">
+      <c r="B89" s="31"/>
+      <c r="C89" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D89" s="20" t="s">
+      <c r="D89" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E89" s="5"/>
@@ -2865,9 +2865,9 @@
       <c r="P89" s="6"/>
     </row>
     <row r="90" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="29"/>
+      <c r="B90" s="31"/>
       <c r="C90" s="19"/>
-      <c r="D90" s="20"/>
+      <c r="D90" s="17"/>
       <c r="E90" s="4"/>
       <c r="F90" s="2"/>
       <c r="G90" s="4"/>
@@ -2882,11 +2882,11 @@
       <c r="P90" s="2"/>
     </row>
     <row r="91" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="29"/>
-      <c r="C91" s="24" t="s">
+      <c r="B91" s="31"/>
+      <c r="C91" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D91" s="20" t="s">
+      <c r="D91" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E91" s="5"/>
@@ -2903,9 +2903,9 @@
       <c r="P91" s="6"/>
     </row>
     <row r="92" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="29"/>
+      <c r="B92" s="31"/>
       <c r="C92" s="19"/>
-      <c r="D92" s="20"/>
+      <c r="D92" s="17"/>
       <c r="E92" s="4"/>
       <c r="F92" s="2"/>
       <c r="G92" s="4"/>
@@ -2920,11 +2920,11 @@
       <c r="P92" s="2"/>
     </row>
     <row r="93" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="29"/>
-      <c r="C93" s="24" t="s">
+      <c r="B93" s="31"/>
+      <c r="C93" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D93" s="20" t="s">
+      <c r="D93" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E93" s="5"/>
@@ -2941,9 +2941,9 @@
       <c r="P93" s="6"/>
     </row>
     <row r="94" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="29"/>
+      <c r="B94" s="31"/>
       <c r="C94" s="19"/>
-      <c r="D94" s="20"/>
+      <c r="D94" s="17"/>
       <c r="E94" s="4"/>
       <c r="F94" s="2"/>
       <c r="G94" s="4"/>
@@ -2958,11 +2958,11 @@
       <c r="P94" s="2"/>
     </row>
     <row r="95" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="29"/>
-      <c r="C95" s="36" t="s">
+      <c r="B95" s="31"/>
+      <c r="C95" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D95" s="37" t="s">
+      <c r="D95" s="23" t="s">
         <v>24</v>
       </c>
       <c r="E95" s="12"/>
@@ -2979,9 +2979,9 @@
       <c r="P95" s="13"/>
     </row>
     <row r="96" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="29"/>
-      <c r="C96" s="36"/>
-      <c r="D96" s="38"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="24"/>
       <c r="E96" s="14"/>
       <c r="F96" s="15"/>
       <c r="G96" s="14"/>
@@ -2996,11 +2996,11 @@
       <c r="P96" s="15"/>
     </row>
     <row r="97" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="29"/>
-      <c r="C97" s="24" t="s">
+      <c r="B97" s="31"/>
+      <c r="C97" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D97" s="20" t="s">
+      <c r="D97" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E97" s="5"/>
@@ -3017,9 +3017,9 @@
       <c r="P97" s="16"/>
     </row>
     <row r="98" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="29"/>
+      <c r="B98" s="31"/>
       <c r="C98" s="19"/>
-      <c r="D98" s="20"/>
+      <c r="D98" s="17"/>
       <c r="E98" s="4"/>
       <c r="F98" s="2"/>
       <c r="G98" s="4"/>
@@ -3034,13 +3034,13 @@
       <c r="P98" s="2"/>
     </row>
     <row r="99" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="29" t="s">
+      <c r="B99" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C99" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D99" s="26" t="s">
+      <c r="D99" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E99" s="5"/>
@@ -3057,9 +3057,9 @@
       <c r="P99" s="8"/>
     </row>
     <row r="100" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="29"/>
+      <c r="B100" s="31"/>
       <c r="C100" s="19"/>
-      <c r="D100" s="20"/>
+      <c r="D100" s="17"/>
       <c r="E100" s="4"/>
       <c r="F100" s="2"/>
       <c r="G100" s="4"/>
@@ -3074,11 +3074,11 @@
       <c r="P100" s="2"/>
     </row>
     <row r="101" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="29"/>
+      <c r="B101" s="31"/>
       <c r="C101" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D101" s="26" t="s">
+      <c r="D101" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E101" s="5"/>
@@ -3095,9 +3095,9 @@
       <c r="P101" s="8"/>
     </row>
     <row r="102" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="29"/>
+      <c r="B102" s="31"/>
       <c r="C102" s="19"/>
-      <c r="D102" s="20"/>
+      <c r="D102" s="17"/>
       <c r="E102" s="4"/>
       <c r="F102" s="2"/>
       <c r="G102" s="4"/>
@@ -3112,13 +3112,13 @@
       <c r="P102" s="2"/>
     </row>
     <row r="103" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="21" t="s">
+      <c r="B103" s="36" t="s">
         <v>27</v>
       </c>
       <c r="C103" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D103" s="20"/>
+      <c r="D103" s="17"/>
       <c r="E103" s="5"/>
       <c r="F103" s="6"/>
       <c r="G103" s="5"/>
@@ -3131,14 +3131,14 @@
       <c r="N103" s="6"/>
       <c r="O103" s="5"/>
       <c r="P103" s="6"/>
-      <c r="Q103" s="17" t="s">
+      <c r="Q103" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="104" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="22"/>
+      <c r="B104" s="37"/>
       <c r="C104" s="19"/>
-      <c r="D104" s="20"/>
+      <c r="D104" s="17"/>
       <c r="E104" s="4"/>
       <c r="F104" s="2"/>
       <c r="G104" s="4"/>
@@ -3151,19 +3151,81 @@
       <c r="N104" s="2"/>
       <c r="O104" s="4"/>
       <c r="P104" s="2"/>
-      <c r="Q104" s="18"/>
+      <c r="Q104" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="Q103:Q104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B83:B98"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B67:B82"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="B51:B66"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C63:C64"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="C91:C92"/>
     <mergeCell ref="D91:D92"/>
@@ -3188,6 +3250,15 @@
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="B11:B44"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="I2:L2"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C27:C28"/>
@@ -3202,78 +3273,7 @@
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C63:C64"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B83:B98"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B67:B82"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="B51:B66"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="Q103:Q104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/総合演習資料/1.プロジェクト計画/ガントチャート.xlsx
+++ b/総合演習資料/1.プロジェクト計画/ガントチャート.xlsx
@@ -780,18 +780,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -801,53 +846,8 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1156,8 +1156,8 @@
   <dimension ref="B2:Q104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R50" sqref="R50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1171,34 +1171,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35"/>
-      <c r="I2" s="39" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="I2" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39" t="s">
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="3" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -1210,39 +1210,39 @@
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="38">
         <v>43031</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23">
+      <c r="F4" s="38"/>
+      <c r="G4" s="38">
         <v>43032</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23">
+      <c r="H4" s="38"/>
+      <c r="I4" s="38">
         <v>43033</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23">
+      <c r="J4" s="38"/>
+      <c r="K4" s="38">
         <v>43034</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23">
+      <c r="L4" s="38"/>
+      <c r="M4" s="38">
         <v>43035</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23">
+      <c r="N4" s="38"/>
+      <c r="O4" s="38">
         <v>43038</v>
       </c>
-      <c r="P4" s="23"/>
+      <c r="P4" s="38"/>
     </row>
     <row r="5" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="7"/>
@@ -1259,9 +1259,9 @@
       <c r="P5" s="6"/>
     </row>
     <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="25"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
       <c r="G6" s="4"/>
@@ -1276,11 +1276,11 @@
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="25"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="11"/>
@@ -1297,9 +1297,9 @@
       <c r="P7" s="6"/>
     </row>
     <row r="8" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="25"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="4"/>
       <c r="F8" s="10"/>
       <c r="G8" s="9"/>
@@ -1314,11 +1314,11 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="25"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="5"/>
@@ -1335,9 +1335,9 @@
       <c r="P9" s="6"/>
     </row>
     <row r="10" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="25"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="4"/>
       <c r="F10" s="2"/>
       <c r="G10" s="9"/>
@@ -1352,13 +1352,13 @@
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="5"/>
@@ -1375,15 +1375,15 @@
       <c r="P11" s="6"/>
     </row>
     <row r="12" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="29"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="4"/>
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="2"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
       <c r="K12" s="4"/>
       <c r="L12" s="2"/>
       <c r="M12" s="4"/>
@@ -1392,11 +1392,11 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="29"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="32" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="5"/>
@@ -1413,15 +1413,15 @@
       <c r="P13" s="6"/>
     </row>
     <row r="14" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="29"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="19"/>
-      <c r="D14" s="28"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="4"/>
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
       <c r="H14" s="2"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="10"/>
       <c r="K14" s="4"/>
       <c r="L14" s="2"/>
       <c r="M14" s="4"/>
@@ -1430,11 +1430,11 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="29"/>
-      <c r="C15" s="24" t="s">
+      <c r="B15" s="31"/>
+      <c r="C15" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="5"/>
@@ -1451,9 +1451,9 @@
       <c r="P15" s="6"/>
     </row>
     <row r="16" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="29"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="4"/>
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
@@ -1468,11 +1468,11 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="29"/>
-      <c r="C17" s="24" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="5"/>
@@ -1489,9 +1489,9 @@
       <c r="P17" s="6"/>
     </row>
     <row r="18" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="29"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="4"/>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
@@ -1506,11 +1506,11 @@
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="29"/>
-      <c r="C19" s="24" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="5"/>
@@ -1527,9 +1527,9 @@
       <c r="P19" s="6"/>
     </row>
     <row r="20" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="29"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="4"/>
       <c r="F20" s="2"/>
       <c r="G20" s="4"/>
@@ -1544,11 +1544,11 @@
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="29"/>
-      <c r="C21" s="24" t="s">
+      <c r="B21" s="31"/>
+      <c r="C21" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E21" s="5"/>
@@ -1565,9 +1565,9 @@
       <c r="P21" s="6"/>
     </row>
     <row r="22" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="4"/>
       <c r="F22" s="2"/>
       <c r="G22" s="4"/>
@@ -1582,11 +1582,11 @@
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="29"/>
-      <c r="C23" s="24" t="s">
+      <c r="B23" s="31"/>
+      <c r="C23" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="5"/>
@@ -1603,9 +1603,9 @@
       <c r="P23" s="6"/>
     </row>
     <row r="24" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="29"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="4"/>
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
@@ -1620,11 +1620,11 @@
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="29"/>
-      <c r="C25" s="24" t="s">
+      <c r="B25" s="31"/>
+      <c r="C25" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E25" s="5"/>
@@ -1641,9 +1641,9 @@
       <c r="P25" s="6"/>
     </row>
     <row r="26" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="29"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="4"/>
       <c r="F26" s="2"/>
       <c r="G26" s="4"/>
@@ -1658,11 +1658,11 @@
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="29"/>
-      <c r="C27" s="24" t="s">
+      <c r="B27" s="31"/>
+      <c r="C27" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E27" s="5"/>
@@ -1679,9 +1679,9 @@
       <c r="P27" s="6"/>
     </row>
     <row r="28" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="29"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="4"/>
       <c r="F28" s="2"/>
       <c r="G28" s="4"/>
@@ -1696,11 +1696,11 @@
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="29"/>
-      <c r="C29" s="24" t="s">
+      <c r="B29" s="31"/>
+      <c r="C29" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E29" s="5"/>
@@ -1717,9 +1717,9 @@
       <c r="P29" s="6"/>
     </row>
     <row r="30" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="29"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="4"/>
       <c r="F30" s="2"/>
       <c r="G30" s="4"/>
@@ -1734,11 +1734,11 @@
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="29"/>
-      <c r="C31" s="24" t="s">
+      <c r="B31" s="31"/>
+      <c r="C31" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E31" s="5"/>
@@ -1755,9 +1755,9 @@
       <c r="P31" s="6"/>
     </row>
     <row r="32" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="29"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="19"/>
-      <c r="D32" s="20"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="4"/>
       <c r="F32" s="2"/>
       <c r="G32" s="4"/>
@@ -1772,11 +1772,11 @@
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="29"/>
-      <c r="C33" s="24" t="s">
+      <c r="B33" s="31"/>
+      <c r="C33" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E33" s="5"/>
@@ -1793,9 +1793,9 @@
       <c r="P33" s="6"/>
     </row>
     <row r="34" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="29"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="4"/>
       <c r="F34" s="2"/>
       <c r="G34" s="4"/>
@@ -1810,11 +1810,11 @@
       <c r="P34" s="2"/>
     </row>
     <row r="35" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="29"/>
-      <c r="C35" s="24" t="s">
+      <c r="B35" s="31"/>
+      <c r="C35" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E35" s="5"/>
@@ -1831,9 +1831,9 @@
       <c r="P35" s="6"/>
     </row>
     <row r="36" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="29"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="19"/>
-      <c r="D36" s="20"/>
+      <c r="D36" s="17"/>
       <c r="E36" s="4"/>
       <c r="F36" s="2"/>
       <c r="G36" s="4"/>
@@ -1848,11 +1848,11 @@
       <c r="P36" s="2"/>
     </row>
     <row r="37" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="29"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E37" s="5"/>
@@ -1869,15 +1869,15 @@
       <c r="P37" s="6"/>
     </row>
     <row r="38" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="29"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="19"/>
-      <c r="D38" s="20"/>
+      <c r="D38" s="17"/>
       <c r="E38" s="4"/>
       <c r="F38" s="2"/>
       <c r="G38" s="4"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="2"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="10"/>
       <c r="K38" s="4"/>
       <c r="L38" s="2"/>
       <c r="M38" s="4"/>
@@ -1886,11 +1886,11 @@
       <c r="P38" s="2"/>
     </row>
     <row r="39" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="29"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E39" s="5"/>
@@ -1907,15 +1907,15 @@
       <c r="P39" s="6"/>
     </row>
     <row r="40" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="29"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="19"/>
-      <c r="D40" s="20"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="4"/>
       <c r="F40" s="2"/>
       <c r="G40" s="4"/>
       <c r="H40" s="2"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="2"/>
+      <c r="J40" s="10"/>
       <c r="K40" s="4"/>
       <c r="L40" s="2"/>
       <c r="M40" s="4"/>
@@ -1924,11 +1924,11 @@
       <c r="P40" s="2"/>
     </row>
     <row r="41" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="29"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E41" s="5"/>
@@ -1945,15 +1945,15 @@
       <c r="P41" s="6"/>
     </row>
     <row r="42" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="29"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="19"/>
-      <c r="D42" s="20"/>
+      <c r="D42" s="17"/>
       <c r="E42" s="4"/>
       <c r="F42" s="2"/>
       <c r="G42" s="4"/>
       <c r="H42" s="2"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="2"/>
+      <c r="J42" s="10"/>
       <c r="K42" s="4"/>
       <c r="L42" s="2"/>
       <c r="M42" s="4"/>
@@ -1962,11 +1962,11 @@
       <c r="P42" s="2"/>
     </row>
     <row r="43" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="29"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E43" s="5"/>
@@ -1983,16 +1983,16 @@
       <c r="P43" s="6"/>
     </row>
     <row r="44" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="29"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="19"/>
-      <c r="D44" s="20"/>
+      <c r="D44" s="17"/>
       <c r="E44" s="4"/>
       <c r="F44" s="2"/>
       <c r="G44" s="4"/>
       <c r="H44" s="2"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="4"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="9"/>
       <c r="L44" s="2"/>
       <c r="M44" s="4"/>
       <c r="N44" s="2"/>
@@ -2000,13 +2000,13 @@
       <c r="P44" s="2"/>
     </row>
     <row r="45" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E45" s="5"/>
@@ -2023,9 +2023,9 @@
       <c r="P45" s="6"/>
     </row>
     <row r="46" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="29"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="19"/>
-      <c r="D46" s="20"/>
+      <c r="D46" s="17"/>
       <c r="E46" s="4"/>
       <c r="F46" s="2"/>
       <c r="G46" s="4"/>
@@ -2040,11 +2040,11 @@
       <c r="P46" s="2"/>
     </row>
     <row r="47" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="29"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E47" s="5"/>
@@ -2061,9 +2061,9 @@
       <c r="P47" s="6"/>
     </row>
     <row r="48" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="29"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="19"/>
-      <c r="D48" s="20"/>
+      <c r="D48" s="17"/>
       <c r="E48" s="4"/>
       <c r="F48" s="2"/>
       <c r="G48" s="4"/>
@@ -2078,11 +2078,11 @@
       <c r="P48" s="2"/>
     </row>
     <row r="49" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="29"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D49" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E49" s="5"/>
@@ -2099,9 +2099,9 @@
       <c r="P49" s="6"/>
     </row>
     <row r="50" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="29"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="19"/>
-      <c r="D50" s="20"/>
+      <c r="D50" s="17"/>
       <c r="E50" s="4"/>
       <c r="F50" s="2"/>
       <c r="G50" s="4"/>
@@ -2116,13 +2116,13 @@
       <c r="P50" s="2"/>
     </row>
     <row r="51" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E51" s="5"/>
@@ -2139,9 +2139,9 @@
       <c r="P51" s="6"/>
     </row>
     <row r="52" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="29"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="19"/>
-      <c r="D52" s="20"/>
+      <c r="D52" s="17"/>
       <c r="E52" s="4"/>
       <c r="F52" s="2"/>
       <c r="G52" s="4"/>
@@ -2156,11 +2156,11 @@
       <c r="P52" s="2"/>
     </row>
     <row r="53" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="29"/>
-      <c r="C53" s="24" t="s">
+      <c r="B53" s="31"/>
+      <c r="C53" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="D53" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E53" s="5"/>
@@ -2177,9 +2177,9 @@
       <c r="P53" s="6"/>
     </row>
     <row r="54" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="29"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="19"/>
-      <c r="D54" s="20"/>
+      <c r="D54" s="17"/>
       <c r="E54" s="4"/>
       <c r="F54" s="2"/>
       <c r="G54" s="4"/>
@@ -2194,11 +2194,11 @@
       <c r="P54" s="2"/>
     </row>
     <row r="55" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="29"/>
-      <c r="C55" s="24" t="s">
+      <c r="B55" s="31"/>
+      <c r="C55" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E55" s="5"/>
@@ -2215,9 +2215,9 @@
       <c r="P55" s="6"/>
     </row>
     <row r="56" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="29"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="19"/>
-      <c r="D56" s="20"/>
+      <c r="D56" s="17"/>
       <c r="E56" s="4"/>
       <c r="F56" s="2"/>
       <c r="G56" s="4"/>
@@ -2232,11 +2232,11 @@
       <c r="P56" s="2"/>
     </row>
     <row r="57" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="29"/>
-      <c r="C57" s="24" t="s">
+      <c r="B57" s="31"/>
+      <c r="C57" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E57" s="5"/>
@@ -2253,9 +2253,9 @@
       <c r="P57" s="6"/>
     </row>
     <row r="58" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="29"/>
+      <c r="B58" s="31"/>
       <c r="C58" s="19"/>
-      <c r="D58" s="20"/>
+      <c r="D58" s="17"/>
       <c r="E58" s="4"/>
       <c r="F58" s="2"/>
       <c r="G58" s="4"/>
@@ -2270,11 +2270,11 @@
       <c r="P58" s="2"/>
     </row>
     <row r="59" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="29"/>
-      <c r="C59" s="24" t="s">
+      <c r="B59" s="31"/>
+      <c r="C59" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E59" s="5"/>
@@ -2291,9 +2291,9 @@
       <c r="P59" s="6"/>
     </row>
     <row r="60" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="29"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="19"/>
-      <c r="D60" s="20"/>
+      <c r="D60" s="17"/>
       <c r="E60" s="4"/>
       <c r="F60" s="2"/>
       <c r="G60" s="4"/>
@@ -2308,11 +2308,11 @@
       <c r="P60" s="2"/>
     </row>
     <row r="61" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="29"/>
-      <c r="C61" s="24" t="s">
+      <c r="B61" s="31"/>
+      <c r="C61" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="D61" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E61" s="5"/>
@@ -2329,9 +2329,9 @@
       <c r="P61" s="6"/>
     </row>
     <row r="62" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="29"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="19"/>
-      <c r="D62" s="20"/>
+      <c r="D62" s="17"/>
       <c r="E62" s="4"/>
       <c r="F62" s="2"/>
       <c r="G62" s="4"/>
@@ -2346,11 +2346,11 @@
       <c r="P62" s="2"/>
     </row>
     <row r="63" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="29"/>
-      <c r="C63" s="36" t="s">
+      <c r="B63" s="31"/>
+      <c r="C63" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D63" s="37" t="s">
+      <c r="D63" s="23" t="s">
         <v>24</v>
       </c>
       <c r="E63" s="12"/>
@@ -2367,9 +2367,9 @@
       <c r="P63" s="13"/>
     </row>
     <row r="64" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="29"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="38"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="24"/>
       <c r="E64" s="14"/>
       <c r="F64" s="15"/>
       <c r="G64" s="14"/>
@@ -2384,11 +2384,11 @@
       <c r="P64" s="15"/>
     </row>
     <row r="65" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="29"/>
-      <c r="C65" s="24" t="s">
+      <c r="B65" s="31"/>
+      <c r="C65" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="D65" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E65" s="5"/>
@@ -2405,9 +2405,9 @@
       <c r="P65" s="6"/>
     </row>
     <row r="66" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="29"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="19"/>
-      <c r="D66" s="20"/>
+      <c r="D66" s="17"/>
       <c r="E66" s="4"/>
       <c r="F66" s="2"/>
       <c r="G66" s="4"/>
@@ -2422,13 +2422,13 @@
       <c r="P66" s="2"/>
     </row>
     <row r="67" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="29" t="s">
+      <c r="B67" s="31" t="s">
         <v>18</v>
       </c>
       <c r="C67" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D67" s="20" t="s">
+      <c r="D67" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E67" s="5"/>
@@ -2445,9 +2445,9 @@
       <c r="P67" s="6"/>
     </row>
     <row r="68" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="29"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="19"/>
-      <c r="D68" s="20"/>
+      <c r="D68" s="17"/>
       <c r="E68" s="4"/>
       <c r="F68" s="2"/>
       <c r="G68" s="4"/>
@@ -2462,11 +2462,11 @@
       <c r="P68" s="2"/>
     </row>
     <row r="69" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="29"/>
-      <c r="C69" s="24" t="s">
+      <c r="B69" s="31"/>
+      <c r="C69" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D69" s="20" t="s">
+      <c r="D69" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E69" s="5"/>
@@ -2483,9 +2483,9 @@
       <c r="P69" s="6"/>
     </row>
     <row r="70" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="29"/>
+      <c r="B70" s="31"/>
       <c r="C70" s="19"/>
-      <c r="D70" s="20"/>
+      <c r="D70" s="17"/>
       <c r="E70" s="4"/>
       <c r="F70" s="2"/>
       <c r="G70" s="4"/>
@@ -2500,11 +2500,11 @@
       <c r="P70" s="2"/>
     </row>
     <row r="71" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="29"/>
-      <c r="C71" s="24" t="s">
+      <c r="B71" s="31"/>
+      <c r="C71" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D71" s="20" t="s">
+      <c r="D71" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E71" s="5"/>
@@ -2521,9 +2521,9 @@
       <c r="P71" s="6"/>
     </row>
     <row r="72" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="29"/>
+      <c r="B72" s="31"/>
       <c r="C72" s="19"/>
-      <c r="D72" s="20"/>
+      <c r="D72" s="17"/>
       <c r="E72" s="4"/>
       <c r="F72" s="2"/>
       <c r="G72" s="4"/>
@@ -2538,11 +2538,11 @@
       <c r="P72" s="2"/>
     </row>
     <row r="73" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="29"/>
-      <c r="C73" s="24" t="s">
+      <c r="B73" s="31"/>
+      <c r="C73" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="20" t="s">
+      <c r="D73" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E73" s="5"/>
@@ -2559,9 +2559,9 @@
       <c r="P73" s="6"/>
     </row>
     <row r="74" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="29"/>
+      <c r="B74" s="31"/>
       <c r="C74" s="19"/>
-      <c r="D74" s="20"/>
+      <c r="D74" s="17"/>
       <c r="E74" s="4"/>
       <c r="F74" s="2"/>
       <c r="G74" s="4"/>
@@ -2576,11 +2576,11 @@
       <c r="P74" s="2"/>
     </row>
     <row r="75" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="29"/>
-      <c r="C75" s="24" t="s">
+      <c r="B75" s="31"/>
+      <c r="C75" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="20" t="s">
+      <c r="D75" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E75" s="5"/>
@@ -2597,9 +2597,9 @@
       <c r="P75" s="6"/>
     </row>
     <row r="76" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="29"/>
+      <c r="B76" s="31"/>
       <c r="C76" s="19"/>
-      <c r="D76" s="20"/>
+      <c r="D76" s="17"/>
       <c r="E76" s="4"/>
       <c r="F76" s="2"/>
       <c r="G76" s="4"/>
@@ -2614,11 +2614,11 @@
       <c r="P76" s="2"/>
     </row>
     <row r="77" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="29"/>
-      <c r="C77" s="24" t="s">
+      <c r="B77" s="31"/>
+      <c r="C77" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D77" s="20" t="s">
+      <c r="D77" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E77" s="5"/>
@@ -2635,9 +2635,9 @@
       <c r="P77" s="6"/>
     </row>
     <row r="78" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="29"/>
+      <c r="B78" s="31"/>
       <c r="C78" s="19"/>
-      <c r="D78" s="20"/>
+      <c r="D78" s="17"/>
       <c r="E78" s="4"/>
       <c r="F78" s="2"/>
       <c r="G78" s="4"/>
@@ -2652,11 +2652,11 @@
       <c r="P78" s="2"/>
     </row>
     <row r="79" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="29"/>
+      <c r="B79" s="31"/>
       <c r="C79" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D79" s="26" t="s">
+      <c r="D79" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E79" s="5"/>
@@ -2673,9 +2673,9 @@
       <c r="P79" s="6"/>
     </row>
     <row r="80" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="29"/>
+      <c r="B80" s="31"/>
       <c r="C80" s="19"/>
-      <c r="D80" s="20"/>
+      <c r="D80" s="17"/>
       <c r="E80" s="4"/>
       <c r="F80" s="2"/>
       <c r="G80" s="4"/>
@@ -2690,11 +2690,11 @@
       <c r="P80" s="2"/>
     </row>
     <row r="81" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="29"/>
-      <c r="C81" s="24" t="s">
+      <c r="B81" s="31"/>
+      <c r="C81" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D81" s="20" t="s">
+      <c r="D81" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E81" s="5"/>
@@ -2711,9 +2711,9 @@
       <c r="P81" s="16"/>
     </row>
     <row r="82" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="29"/>
+      <c r="B82" s="31"/>
       <c r="C82" s="19"/>
-      <c r="D82" s="20"/>
+      <c r="D82" s="17"/>
       <c r="E82" s="4"/>
       <c r="F82" s="2"/>
       <c r="G82" s="4"/>
@@ -2728,13 +2728,13 @@
       <c r="P82" s="2"/>
     </row>
     <row r="83" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="29" t="s">
+      <c r="B83" s="31" t="s">
         <v>19</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="20" t="s">
+      <c r="D83" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E83" s="5"/>
@@ -2751,9 +2751,9 @@
       <c r="P83" s="6"/>
     </row>
     <row r="84" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="29"/>
+      <c r="B84" s="31"/>
       <c r="C84" s="19"/>
-      <c r="D84" s="20"/>
+      <c r="D84" s="17"/>
       <c r="E84" s="4"/>
       <c r="F84" s="2"/>
       <c r="G84" s="4"/>
@@ -2768,11 +2768,11 @@
       <c r="P84" s="2"/>
     </row>
     <row r="85" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="29"/>
-      <c r="C85" s="24" t="s">
+      <c r="B85" s="31"/>
+      <c r="C85" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D85" s="20" t="s">
+      <c r="D85" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E85" s="5"/>
@@ -2789,9 +2789,9 @@
       <c r="P85" s="6"/>
     </row>
     <row r="86" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="29"/>
+      <c r="B86" s="31"/>
       <c r="C86" s="19"/>
-      <c r="D86" s="20"/>
+      <c r="D86" s="17"/>
       <c r="E86" s="4"/>
       <c r="F86" s="2"/>
       <c r="G86" s="4"/>
@@ -2806,11 +2806,11 @@
       <c r="P86" s="2"/>
     </row>
     <row r="87" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="29"/>
-      <c r="C87" s="24" t="s">
+      <c r="B87" s="31"/>
+      <c r="C87" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D87" s="20" t="s">
+      <c r="D87" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E87" s="5"/>
@@ -2827,9 +2827,9 @@
       <c r="P87" s="6"/>
     </row>
     <row r="88" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="29"/>
+      <c r="B88" s="31"/>
       <c r="C88" s="19"/>
-      <c r="D88" s="20"/>
+      <c r="D88" s="17"/>
       <c r="E88" s="4"/>
       <c r="F88" s="2"/>
       <c r="G88" s="4"/>
@@ -2844,11 +2844,11 @@
       <c r="P88" s="2"/>
     </row>
     <row r="89" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="29"/>
-      <c r="C89" s="24" t="s">
+      <c r="B89" s="31"/>
+      <c r="C89" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D89" s="20" t="s">
+      <c r="D89" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E89" s="5"/>
@@ -2865,9 +2865,9 @@
       <c r="P89" s="6"/>
     </row>
     <row r="90" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="29"/>
+      <c r="B90" s="31"/>
       <c r="C90" s="19"/>
-      <c r="D90" s="20"/>
+      <c r="D90" s="17"/>
       <c r="E90" s="4"/>
       <c r="F90" s="2"/>
       <c r="G90" s="4"/>
@@ -2882,11 +2882,11 @@
       <c r="P90" s="2"/>
     </row>
     <row r="91" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="29"/>
-      <c r="C91" s="24" t="s">
+      <c r="B91" s="31"/>
+      <c r="C91" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D91" s="20" t="s">
+      <c r="D91" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E91" s="5"/>
@@ -2903,9 +2903,9 @@
       <c r="P91" s="6"/>
     </row>
     <row r="92" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="29"/>
+      <c r="B92" s="31"/>
       <c r="C92" s="19"/>
-      <c r="D92" s="20"/>
+      <c r="D92" s="17"/>
       <c r="E92" s="4"/>
       <c r="F92" s="2"/>
       <c r="G92" s="4"/>
@@ -2920,11 +2920,11 @@
       <c r="P92" s="2"/>
     </row>
     <row r="93" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="29"/>
-      <c r="C93" s="24" t="s">
+      <c r="B93" s="31"/>
+      <c r="C93" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D93" s="20" t="s">
+      <c r="D93" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E93" s="5"/>
@@ -2941,9 +2941,9 @@
       <c r="P93" s="6"/>
     </row>
     <row r="94" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="29"/>
+      <c r="B94" s="31"/>
       <c r="C94" s="19"/>
-      <c r="D94" s="20"/>
+      <c r="D94" s="17"/>
       <c r="E94" s="4"/>
       <c r="F94" s="2"/>
       <c r="G94" s="4"/>
@@ -2958,11 +2958,11 @@
       <c r="P94" s="2"/>
     </row>
     <row r="95" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="29"/>
-      <c r="C95" s="36" t="s">
+      <c r="B95" s="31"/>
+      <c r="C95" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D95" s="37" t="s">
+      <c r="D95" s="23" t="s">
         <v>24</v>
       </c>
       <c r="E95" s="12"/>
@@ -2979,9 +2979,9 @@
       <c r="P95" s="13"/>
     </row>
     <row r="96" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="29"/>
-      <c r="C96" s="36"/>
-      <c r="D96" s="38"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="24"/>
       <c r="E96" s="14"/>
       <c r="F96" s="15"/>
       <c r="G96" s="14"/>
@@ -2996,11 +2996,11 @@
       <c r="P96" s="15"/>
     </row>
     <row r="97" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="29"/>
-      <c r="C97" s="24" t="s">
+      <c r="B97" s="31"/>
+      <c r="C97" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D97" s="20" t="s">
+      <c r="D97" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E97" s="5"/>
@@ -3017,9 +3017,9 @@
       <c r="P97" s="16"/>
     </row>
     <row r="98" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="29"/>
+      <c r="B98" s="31"/>
       <c r="C98" s="19"/>
-      <c r="D98" s="20"/>
+      <c r="D98" s="17"/>
       <c r="E98" s="4"/>
       <c r="F98" s="2"/>
       <c r="G98" s="4"/>
@@ -3034,13 +3034,13 @@
       <c r="P98" s="2"/>
     </row>
     <row r="99" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="29" t="s">
+      <c r="B99" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C99" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D99" s="26" t="s">
+      <c r="D99" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E99" s="5"/>
@@ -3057,9 +3057,9 @@
       <c r="P99" s="8"/>
     </row>
     <row r="100" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="29"/>
+      <c r="B100" s="31"/>
       <c r="C100" s="19"/>
-      <c r="D100" s="20"/>
+      <c r="D100" s="17"/>
       <c r="E100" s="4"/>
       <c r="F100" s="2"/>
       <c r="G100" s="4"/>
@@ -3074,11 +3074,11 @@
       <c r="P100" s="2"/>
     </row>
     <row r="101" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="29"/>
+      <c r="B101" s="31"/>
       <c r="C101" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D101" s="26" t="s">
+      <c r="D101" s="20" t="s">
         <v>24</v>
       </c>
       <c r="E101" s="5"/>
@@ -3095,9 +3095,9 @@
       <c r="P101" s="8"/>
     </row>
     <row r="102" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="29"/>
+      <c r="B102" s="31"/>
       <c r="C102" s="19"/>
-      <c r="D102" s="20"/>
+      <c r="D102" s="17"/>
       <c r="E102" s="4"/>
       <c r="F102" s="2"/>
       <c r="G102" s="4"/>
@@ -3112,13 +3112,13 @@
       <c r="P102" s="2"/>
     </row>
     <row r="103" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="21" t="s">
+      <c r="B103" s="36" t="s">
         <v>27</v>
       </c>
       <c r="C103" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D103" s="20"/>
+      <c r="D103" s="17"/>
       <c r="E103" s="5"/>
       <c r="F103" s="6"/>
       <c r="G103" s="5"/>
@@ -3131,14 +3131,14 @@
       <c r="N103" s="6"/>
       <c r="O103" s="5"/>
       <c r="P103" s="6"/>
-      <c r="Q103" s="17" t="s">
+      <c r="Q103" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="104" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="22"/>
+      <c r="B104" s="37"/>
       <c r="C104" s="19"/>
-      <c r="D104" s="20"/>
+      <c r="D104" s="17"/>
       <c r="E104" s="4"/>
       <c r="F104" s="2"/>
       <c r="G104" s="4"/>
@@ -3151,19 +3151,81 @@
       <c r="N104" s="2"/>
       <c r="O104" s="4"/>
       <c r="P104" s="2"/>
-      <c r="Q104" s="18"/>
+      <c r="Q104" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="Q103:Q104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B83:B98"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B67:B82"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="B51:B66"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C63:C64"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="C91:C92"/>
     <mergeCell ref="D91:D92"/>
@@ -3188,6 +3250,15 @@
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="B11:B44"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="I2:L2"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C27:C28"/>
@@ -3202,78 +3273,7 @@
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C63:C64"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B83:B98"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B67:B82"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="B51:B66"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="Q103:Q104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/総合演習資料/1.プロジェクト計画/ガントチャート.xlsx
+++ b/総合演習資料/1.プロジェクト計画/ガントチャート.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14130" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -780,30 +780,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -821,33 +848,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1156,8 +1156,8 @@
   <dimension ref="B2:Q104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R50" sqref="R50"/>
+      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1171,34 +1171,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
-      <c r="I2" s="21" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+      <c r="I2" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21" t="s">
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
     </row>
     <row r="3" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -1210,39 +1210,39 @@
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="23">
         <v>43031</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38">
+      <c r="F4" s="23"/>
+      <c r="G4" s="23">
         <v>43032</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38">
+      <c r="H4" s="23"/>
+      <c r="I4" s="23">
         <v>43033</v>
       </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38">
+      <c r="J4" s="23"/>
+      <c r="K4" s="23">
         <v>43034</v>
       </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38">
+      <c r="L4" s="23"/>
+      <c r="M4" s="23">
         <v>43035</v>
       </c>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38">
+      <c r="N4" s="23"/>
+      <c r="O4" s="23">
         <v>43038</v>
       </c>
-      <c r="P4" s="38"/>
+      <c r="P4" s="23"/>
     </row>
     <row r="5" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="26" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="7"/>
@@ -1259,9 +1259,9 @@
       <c r="P5" s="6"/>
     </row>
     <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="39"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="19"/>
-      <c r="D6" s="17"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
       <c r="G6" s="4"/>
@@ -1276,11 +1276,11 @@
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="39"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="26" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="11"/>
@@ -1297,9 +1297,9 @@
       <c r="P7" s="6"/>
     </row>
     <row r="8" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="39"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="17"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="4"/>
       <c r="F8" s="10"/>
       <c r="G8" s="9"/>
@@ -1314,11 +1314,11 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="39"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="5"/>
@@ -1335,9 +1335,9 @@
       <c r="P9" s="6"/>
     </row>
     <row r="10" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="39"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="19"/>
-      <c r="D10" s="17"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="4"/>
       <c r="F10" s="2"/>
       <c r="G10" s="9"/>
@@ -1352,13 +1352,13 @@
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="5"/>
@@ -1375,9 +1375,9 @@
       <c r="P11" s="6"/>
     </row>
     <row r="12" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="31"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="19"/>
-      <c r="D12" s="17"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="4"/>
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
@@ -1392,11 +1392,11 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="31"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="27" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="5"/>
@@ -1413,9 +1413,9 @@
       <c r="P13" s="6"/>
     </row>
     <row r="14" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="31"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="19"/>
-      <c r="D14" s="33"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="4"/>
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
@@ -1430,11 +1430,11 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="31"/>
-      <c r="C15" s="18" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="5"/>
@@ -1451,9 +1451,9 @@
       <c r="P15" s="6"/>
     </row>
     <row r="16" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="31"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="19"/>
-      <c r="D16" s="17"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="4"/>
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
@@ -1468,11 +1468,11 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="31"/>
-      <c r="C17" s="18" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="5"/>
@@ -1489,9 +1489,9 @@
       <c r="P17" s="6"/>
     </row>
     <row r="18" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="31"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="19"/>
-      <c r="D18" s="17"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="4"/>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
@@ -1506,11 +1506,11 @@
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="31"/>
-      <c r="C19" s="18" t="s">
+      <c r="B19" s="29"/>
+      <c r="C19" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="5"/>
@@ -1527,9 +1527,9 @@
       <c r="P19" s="6"/>
     </row>
     <row r="20" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="31"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="17"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="4"/>
       <c r="F20" s="2"/>
       <c r="G20" s="4"/>
@@ -1544,11 +1544,11 @@
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="31"/>
-      <c r="C21" s="18" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E21" s="5"/>
@@ -1565,9 +1565,9 @@
       <c r="P21" s="6"/>
     </row>
     <row r="22" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="31"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="17"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="4"/>
       <c r="F22" s="2"/>
       <c r="G22" s="4"/>
@@ -1582,11 +1582,11 @@
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="31"/>
-      <c r="C23" s="18" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="5"/>
@@ -1603,9 +1603,9 @@
       <c r="P23" s="6"/>
     </row>
     <row r="24" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="31"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="19"/>
-      <c r="D24" s="17"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="4"/>
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
@@ -1620,11 +1620,11 @@
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="31"/>
-      <c r="C25" s="18" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E25" s="5"/>
@@ -1641,9 +1641,9 @@
       <c r="P25" s="6"/>
     </row>
     <row r="26" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="31"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="19"/>
-      <c r="D26" s="17"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="4"/>
       <c r="F26" s="2"/>
       <c r="G26" s="4"/>
@@ -1658,11 +1658,11 @@
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="31"/>
-      <c r="C27" s="18" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E27" s="5"/>
@@ -1679,9 +1679,9 @@
       <c r="P27" s="6"/>
     </row>
     <row r="28" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="31"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="19"/>
-      <c r="D28" s="17"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="4"/>
       <c r="F28" s="2"/>
       <c r="G28" s="4"/>
@@ -1696,11 +1696,11 @@
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="31"/>
-      <c r="C29" s="18" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E29" s="5"/>
@@ -1717,9 +1717,9 @@
       <c r="P29" s="6"/>
     </row>
     <row r="30" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="31"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="19"/>
-      <c r="D30" s="17"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="4"/>
       <c r="F30" s="2"/>
       <c r="G30" s="4"/>
@@ -1734,11 +1734,11 @@
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="31"/>
-      <c r="C31" s="18" t="s">
+      <c r="B31" s="29"/>
+      <c r="C31" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E31" s="5"/>
@@ -1755,9 +1755,9 @@
       <c r="P31" s="6"/>
     </row>
     <row r="32" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="31"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="19"/>
-      <c r="D32" s="17"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="4"/>
       <c r="F32" s="2"/>
       <c r="G32" s="4"/>
@@ -1772,11 +1772,11 @@
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="31"/>
-      <c r="C33" s="18" t="s">
+      <c r="B33" s="29"/>
+      <c r="C33" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E33" s="5"/>
@@ -1793,9 +1793,9 @@
       <c r="P33" s="6"/>
     </row>
     <row r="34" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="31"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="19"/>
-      <c r="D34" s="17"/>
+      <c r="D34" s="20"/>
       <c r="E34" s="4"/>
       <c r="F34" s="2"/>
       <c r="G34" s="4"/>
@@ -1810,11 +1810,11 @@
       <c r="P34" s="2"/>
     </row>
     <row r="35" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="31"/>
-      <c r="C35" s="18" t="s">
+      <c r="B35" s="29"/>
+      <c r="C35" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E35" s="5"/>
@@ -1831,9 +1831,9 @@
       <c r="P35" s="6"/>
     </row>
     <row r="36" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="31"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="19"/>
-      <c r="D36" s="17"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="4"/>
       <c r="F36" s="2"/>
       <c r="G36" s="4"/>
@@ -1848,11 +1848,11 @@
       <c r="P36" s="2"/>
     </row>
     <row r="37" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="31"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E37" s="5"/>
@@ -1869,9 +1869,9 @@
       <c r="P37" s="6"/>
     </row>
     <row r="38" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="31"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="19"/>
-      <c r="D38" s="17"/>
+      <c r="D38" s="20"/>
       <c r="E38" s="4"/>
       <c r="F38" s="2"/>
       <c r="G38" s="4"/>
@@ -1886,11 +1886,11 @@
       <c r="P38" s="2"/>
     </row>
     <row r="39" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="31"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E39" s="5"/>
@@ -1907,9 +1907,9 @@
       <c r="P39" s="6"/>
     </row>
     <row r="40" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="31"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="19"/>
-      <c r="D40" s="17"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="4"/>
       <c r="F40" s="2"/>
       <c r="G40" s="4"/>
@@ -1924,11 +1924,11 @@
       <c r="P40" s="2"/>
     </row>
     <row r="41" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="31"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E41" s="5"/>
@@ -1945,9 +1945,9 @@
       <c r="P41" s="6"/>
     </row>
     <row r="42" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="31"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="19"/>
-      <c r="D42" s="17"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="4"/>
       <c r="F42" s="2"/>
       <c r="G42" s="4"/>
@@ -1962,11 +1962,11 @@
       <c r="P42" s="2"/>
     </row>
     <row r="43" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="31"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E43" s="5"/>
@@ -1983,9 +1983,9 @@
       <c r="P43" s="6"/>
     </row>
     <row r="44" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="31"/>
+      <c r="B44" s="29"/>
       <c r="C44" s="19"/>
-      <c r="D44" s="17"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="4"/>
       <c r="F44" s="2"/>
       <c r="G44" s="4"/>
@@ -1993,20 +1993,20 @@
       <c r="I44" s="4"/>
       <c r="J44" s="10"/>
       <c r="K44" s="9"/>
-      <c r="L44" s="2"/>
+      <c r="L44" s="10"/>
       <c r="M44" s="4"/>
       <c r="N44" s="2"/>
       <c r="O44" s="4"/>
       <c r="P44" s="2"/>
     </row>
     <row r="45" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E45" s="5"/>
@@ -2023,16 +2023,16 @@
       <c r="P45" s="6"/>
     </row>
     <row r="46" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="31"/>
+      <c r="B46" s="29"/>
       <c r="C46" s="19"/>
-      <c r="D46" s="17"/>
+      <c r="D46" s="20"/>
       <c r="E46" s="4"/>
       <c r="F46" s="2"/>
       <c r="G46" s="4"/>
       <c r="H46" s="2"/>
       <c r="I46" s="4"/>
       <c r="J46" s="2"/>
-      <c r="K46" s="4"/>
+      <c r="K46" s="9"/>
       <c r="L46" s="2"/>
       <c r="M46" s="4"/>
       <c r="N46" s="2"/>
@@ -2040,11 +2040,11 @@
       <c r="P46" s="2"/>
     </row>
     <row r="47" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="31"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E47" s="5"/>
@@ -2061,28 +2061,28 @@
       <c r="P47" s="6"/>
     </row>
     <row r="48" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="31"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="19"/>
-      <c r="D48" s="17"/>
+      <c r="D48" s="20"/>
       <c r="E48" s="4"/>
       <c r="F48" s="2"/>
       <c r="G48" s="4"/>
       <c r="H48" s="2"/>
       <c r="I48" s="4"/>
       <c r="J48" s="2"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="2"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="10"/>
       <c r="M48" s="4"/>
       <c r="N48" s="2"/>
       <c r="O48" s="4"/>
       <c r="P48" s="2"/>
     </row>
     <row r="49" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="31"/>
+      <c r="B49" s="29"/>
       <c r="C49" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E49" s="5"/>
@@ -2099,30 +2099,30 @@
       <c r="P49" s="6"/>
     </row>
     <row r="50" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="31"/>
+      <c r="B50" s="29"/>
       <c r="C50" s="19"/>
-      <c r="D50" s="17"/>
+      <c r="D50" s="20"/>
       <c r="E50" s="4"/>
       <c r="F50" s="2"/>
       <c r="G50" s="4"/>
       <c r="H50" s="2"/>
       <c r="I50" s="4"/>
       <c r="J50" s="2"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="2"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="10"/>
       <c r="M50" s="4"/>
       <c r="N50" s="2"/>
       <c r="O50" s="4"/>
       <c r="P50" s="2"/>
     </row>
     <row r="51" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D51" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E51" s="5"/>
@@ -2139,9 +2139,9 @@
       <c r="P51" s="6"/>
     </row>
     <row r="52" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="31"/>
+      <c r="B52" s="29"/>
       <c r="C52" s="19"/>
-      <c r="D52" s="17"/>
+      <c r="D52" s="20"/>
       <c r="E52" s="4"/>
       <c r="F52" s="2"/>
       <c r="G52" s="4"/>
@@ -2156,11 +2156,11 @@
       <c r="P52" s="2"/>
     </row>
     <row r="53" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="31"/>
-      <c r="C53" s="18" t="s">
+      <c r="B53" s="29"/>
+      <c r="C53" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D53" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E53" s="5"/>
@@ -2177,9 +2177,9 @@
       <c r="P53" s="6"/>
     </row>
     <row r="54" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="31"/>
+      <c r="B54" s="29"/>
       <c r="C54" s="19"/>
-      <c r="D54" s="17"/>
+      <c r="D54" s="20"/>
       <c r="E54" s="4"/>
       <c r="F54" s="2"/>
       <c r="G54" s="4"/>
@@ -2194,11 +2194,11 @@
       <c r="P54" s="2"/>
     </row>
     <row r="55" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="31"/>
-      <c r="C55" s="18" t="s">
+      <c r="B55" s="29"/>
+      <c r="C55" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E55" s="5"/>
@@ -2215,9 +2215,9 @@
       <c r="P55" s="6"/>
     </row>
     <row r="56" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="31"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="19"/>
-      <c r="D56" s="17"/>
+      <c r="D56" s="20"/>
       <c r="E56" s="4"/>
       <c r="F56" s="2"/>
       <c r="G56" s="4"/>
@@ -2232,11 +2232,11 @@
       <c r="P56" s="2"/>
     </row>
     <row r="57" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="31"/>
-      <c r="C57" s="18" t="s">
+      <c r="B57" s="29"/>
+      <c r="C57" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E57" s="5"/>
@@ -2253,9 +2253,9 @@
       <c r="P57" s="6"/>
     </row>
     <row r="58" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="31"/>
+      <c r="B58" s="29"/>
       <c r="C58" s="19"/>
-      <c r="D58" s="17"/>
+      <c r="D58" s="20"/>
       <c r="E58" s="4"/>
       <c r="F58" s="2"/>
       <c r="G58" s="4"/>
@@ -2270,11 +2270,11 @@
       <c r="P58" s="2"/>
     </row>
     <row r="59" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="31"/>
-      <c r="C59" s="18" t="s">
+      <c r="B59" s="29"/>
+      <c r="C59" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="D59" s="20" t="s">
         <v>39</v>
       </c>
       <c r="E59" s="5"/>
@@ -2291,9 +2291,9 @@
       <c r="P59" s="6"/>
     </row>
     <row r="60" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="31"/>
+      <c r="B60" s="29"/>
       <c r="C60" s="19"/>
-      <c r="D60" s="17"/>
+      <c r="D60" s="20"/>
       <c r="E60" s="4"/>
       <c r="F60" s="2"/>
       <c r="G60" s="4"/>
@@ -2308,11 +2308,11 @@
       <c r="P60" s="2"/>
     </row>
     <row r="61" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="31"/>
-      <c r="C61" s="18" t="s">
+      <c r="B61" s="29"/>
+      <c r="C61" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="D61" s="20" t="s">
         <v>39</v>
       </c>
       <c r="E61" s="5"/>
@@ -2329,9 +2329,9 @@
       <c r="P61" s="6"/>
     </row>
     <row r="62" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="31"/>
+      <c r="B62" s="29"/>
       <c r="C62" s="19"/>
-      <c r="D62" s="17"/>
+      <c r="D62" s="20"/>
       <c r="E62" s="4"/>
       <c r="F62" s="2"/>
       <c r="G62" s="4"/>
@@ -2346,11 +2346,11 @@
       <c r="P62" s="2"/>
     </row>
     <row r="63" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="31"/>
-      <c r="C63" s="22" t="s">
+      <c r="B63" s="29"/>
+      <c r="C63" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D63" s="23" t="s">
+      <c r="D63" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E63" s="12"/>
@@ -2367,9 +2367,9 @@
       <c r="P63" s="13"/>
     </row>
     <row r="64" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="31"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="24"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="31"/>
       <c r="E64" s="14"/>
       <c r="F64" s="15"/>
       <c r="G64" s="14"/>
@@ -2384,11 +2384,11 @@
       <c r="P64" s="15"/>
     </row>
     <row r="65" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="31"/>
-      <c r="C65" s="18" t="s">
+      <c r="B65" s="29"/>
+      <c r="C65" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="D65" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E65" s="5"/>
@@ -2405,9 +2405,9 @@
       <c r="P65" s="6"/>
     </row>
     <row r="66" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="31"/>
+      <c r="B66" s="29"/>
       <c r="C66" s="19"/>
-      <c r="D66" s="17"/>
+      <c r="D66" s="20"/>
       <c r="E66" s="4"/>
       <c r="F66" s="2"/>
       <c r="G66" s="4"/>
@@ -2422,13 +2422,13 @@
       <c r="P66" s="2"/>
     </row>
     <row r="67" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C67" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D67" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E67" s="5"/>
@@ -2445,9 +2445,9 @@
       <c r="P67" s="6"/>
     </row>
     <row r="68" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="31"/>
+      <c r="B68" s="29"/>
       <c r="C68" s="19"/>
-      <c r="D68" s="17"/>
+      <c r="D68" s="20"/>
       <c r="E68" s="4"/>
       <c r="F68" s="2"/>
       <c r="G68" s="4"/>
@@ -2462,11 +2462,11 @@
       <c r="P68" s="2"/>
     </row>
     <row r="69" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="31"/>
-      <c r="C69" s="18" t="s">
+      <c r="B69" s="29"/>
+      <c r="C69" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="D69" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E69" s="5"/>
@@ -2483,9 +2483,9 @@
       <c r="P69" s="6"/>
     </row>
     <row r="70" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="31"/>
+      <c r="B70" s="29"/>
       <c r="C70" s="19"/>
-      <c r="D70" s="17"/>
+      <c r="D70" s="20"/>
       <c r="E70" s="4"/>
       <c r="F70" s="2"/>
       <c r="G70" s="4"/>
@@ -2500,11 +2500,11 @@
       <c r="P70" s="2"/>
     </row>
     <row r="71" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="31"/>
-      <c r="C71" s="18" t="s">
+      <c r="B71" s="29"/>
+      <c r="C71" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D71" s="17" t="s">
+      <c r="D71" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E71" s="5"/>
@@ -2521,9 +2521,9 @@
       <c r="P71" s="6"/>
     </row>
     <row r="72" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="31"/>
+      <c r="B72" s="29"/>
       <c r="C72" s="19"/>
-      <c r="D72" s="17"/>
+      <c r="D72" s="20"/>
       <c r="E72" s="4"/>
       <c r="F72" s="2"/>
       <c r="G72" s="4"/>
@@ -2538,11 +2538,11 @@
       <c r="P72" s="2"/>
     </row>
     <row r="73" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="31"/>
-      <c r="C73" s="18" t="s">
+      <c r="B73" s="29"/>
+      <c r="C73" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="17" t="s">
+      <c r="D73" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E73" s="5"/>
@@ -2559,9 +2559,9 @@
       <c r="P73" s="6"/>
     </row>
     <row r="74" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="31"/>
+      <c r="B74" s="29"/>
       <c r="C74" s="19"/>
-      <c r="D74" s="17"/>
+      <c r="D74" s="20"/>
       <c r="E74" s="4"/>
       <c r="F74" s="2"/>
       <c r="G74" s="4"/>
@@ -2576,11 +2576,11 @@
       <c r="P74" s="2"/>
     </row>
     <row r="75" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="31"/>
-      <c r="C75" s="18" t="s">
+      <c r="B75" s="29"/>
+      <c r="C75" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="17" t="s">
+      <c r="D75" s="20" t="s">
         <v>39</v>
       </c>
       <c r="E75" s="5"/>
@@ -2597,9 +2597,9 @@
       <c r="P75" s="6"/>
     </row>
     <row r="76" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="31"/>
+      <c r="B76" s="29"/>
       <c r="C76" s="19"/>
-      <c r="D76" s="17"/>
+      <c r="D76" s="20"/>
       <c r="E76" s="4"/>
       <c r="F76" s="2"/>
       <c r="G76" s="4"/>
@@ -2614,11 +2614,11 @@
       <c r="P76" s="2"/>
     </row>
     <row r="77" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="31"/>
-      <c r="C77" s="18" t="s">
+      <c r="B77" s="29"/>
+      <c r="C77" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D77" s="17" t="s">
+      <c r="D77" s="20" t="s">
         <v>39</v>
       </c>
       <c r="E77" s="5"/>
@@ -2635,9 +2635,9 @@
       <c r="P77" s="6"/>
     </row>
     <row r="78" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="31"/>
+      <c r="B78" s="29"/>
       <c r="C78" s="19"/>
-      <c r="D78" s="17"/>
+      <c r="D78" s="20"/>
       <c r="E78" s="4"/>
       <c r="F78" s="2"/>
       <c r="G78" s="4"/>
@@ -2652,11 +2652,11 @@
       <c r="P78" s="2"/>
     </row>
     <row r="79" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="31"/>
+      <c r="B79" s="29"/>
       <c r="C79" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D79" s="20" t="s">
+      <c r="D79" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E79" s="5"/>
@@ -2673,9 +2673,9 @@
       <c r="P79" s="6"/>
     </row>
     <row r="80" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="31"/>
+      <c r="B80" s="29"/>
       <c r="C80" s="19"/>
-      <c r="D80" s="17"/>
+      <c r="D80" s="20"/>
       <c r="E80" s="4"/>
       <c r="F80" s="2"/>
       <c r="G80" s="4"/>
@@ -2690,11 +2690,11 @@
       <c r="P80" s="2"/>
     </row>
     <row r="81" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="31"/>
-      <c r="C81" s="18" t="s">
+      <c r="B81" s="29"/>
+      <c r="C81" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D81" s="17" t="s">
+      <c r="D81" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E81" s="5"/>
@@ -2711,9 +2711,9 @@
       <c r="P81" s="16"/>
     </row>
     <row r="82" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="31"/>
+      <c r="B82" s="29"/>
       <c r="C82" s="19"/>
-      <c r="D82" s="17"/>
+      <c r="D82" s="20"/>
       <c r="E82" s="4"/>
       <c r="F82" s="2"/>
       <c r="G82" s="4"/>
@@ -2728,13 +2728,13 @@
       <c r="P82" s="2"/>
     </row>
     <row r="83" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="31" t="s">
+      <c r="B83" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C83" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="17" t="s">
+      <c r="D83" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E83" s="5"/>
@@ -2751,9 +2751,9 @@
       <c r="P83" s="6"/>
     </row>
     <row r="84" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="31"/>
+      <c r="B84" s="29"/>
       <c r="C84" s="19"/>
-      <c r="D84" s="17"/>
+      <c r="D84" s="20"/>
       <c r="E84" s="4"/>
       <c r="F84" s="2"/>
       <c r="G84" s="4"/>
@@ -2768,11 +2768,11 @@
       <c r="P84" s="2"/>
     </row>
     <row r="85" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="31"/>
-      <c r="C85" s="18" t="s">
+      <c r="B85" s="29"/>
+      <c r="C85" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D85" s="17" t="s">
+      <c r="D85" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E85" s="5"/>
@@ -2789,9 +2789,9 @@
       <c r="P85" s="6"/>
     </row>
     <row r="86" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="31"/>
+      <c r="B86" s="29"/>
       <c r="C86" s="19"/>
-      <c r="D86" s="17"/>
+      <c r="D86" s="20"/>
       <c r="E86" s="4"/>
       <c r="F86" s="2"/>
       <c r="G86" s="4"/>
@@ -2806,11 +2806,11 @@
       <c r="P86" s="2"/>
     </row>
     <row r="87" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="31"/>
-      <c r="C87" s="18" t="s">
+      <c r="B87" s="29"/>
+      <c r="C87" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D87" s="17" t="s">
+      <c r="D87" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E87" s="5"/>
@@ -2827,9 +2827,9 @@
       <c r="P87" s="6"/>
     </row>
     <row r="88" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="31"/>
+      <c r="B88" s="29"/>
       <c r="C88" s="19"/>
-      <c r="D88" s="17"/>
+      <c r="D88" s="20"/>
       <c r="E88" s="4"/>
       <c r="F88" s="2"/>
       <c r="G88" s="4"/>
@@ -2844,11 +2844,11 @@
       <c r="P88" s="2"/>
     </row>
     <row r="89" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="31"/>
-      <c r="C89" s="18" t="s">
+      <c r="B89" s="29"/>
+      <c r="C89" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D89" s="17" t="s">
+      <c r="D89" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E89" s="5"/>
@@ -2865,9 +2865,9 @@
       <c r="P89" s="6"/>
     </row>
     <row r="90" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="31"/>
+      <c r="B90" s="29"/>
       <c r="C90" s="19"/>
-      <c r="D90" s="17"/>
+      <c r="D90" s="20"/>
       <c r="E90" s="4"/>
       <c r="F90" s="2"/>
       <c r="G90" s="4"/>
@@ -2882,11 +2882,11 @@
       <c r="P90" s="2"/>
     </row>
     <row r="91" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="31"/>
-      <c r="C91" s="18" t="s">
+      <c r="B91" s="29"/>
+      <c r="C91" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D91" s="17" t="s">
+      <c r="D91" s="20" t="s">
         <v>39</v>
       </c>
       <c r="E91" s="5"/>
@@ -2903,9 +2903,9 @@
       <c r="P91" s="6"/>
     </row>
     <row r="92" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="31"/>
+      <c r="B92" s="29"/>
       <c r="C92" s="19"/>
-      <c r="D92" s="17"/>
+      <c r="D92" s="20"/>
       <c r="E92" s="4"/>
       <c r="F92" s="2"/>
       <c r="G92" s="4"/>
@@ -2920,11 +2920,11 @@
       <c r="P92" s="2"/>
     </row>
     <row r="93" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="31"/>
-      <c r="C93" s="18" t="s">
+      <c r="B93" s="29"/>
+      <c r="C93" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D93" s="17" t="s">
+      <c r="D93" s="20" t="s">
         <v>39</v>
       </c>
       <c r="E93" s="5"/>
@@ -2941,9 +2941,9 @@
       <c r="P93" s="6"/>
     </row>
     <row r="94" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="31"/>
+      <c r="B94" s="29"/>
       <c r="C94" s="19"/>
-      <c r="D94" s="17"/>
+      <c r="D94" s="20"/>
       <c r="E94" s="4"/>
       <c r="F94" s="2"/>
       <c r="G94" s="4"/>
@@ -2958,11 +2958,11 @@
       <c r="P94" s="2"/>
     </row>
     <row r="95" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="31"/>
-      <c r="C95" s="22" t="s">
+      <c r="B95" s="29"/>
+      <c r="C95" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D95" s="23" t="s">
+      <c r="D95" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E95" s="12"/>
@@ -2979,9 +2979,9 @@
       <c r="P95" s="13"/>
     </row>
     <row r="96" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="31"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="24"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="31"/>
       <c r="E96" s="14"/>
       <c r="F96" s="15"/>
       <c r="G96" s="14"/>
@@ -2996,11 +2996,11 @@
       <c r="P96" s="15"/>
     </row>
     <row r="97" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="31"/>
-      <c r="C97" s="18" t="s">
+      <c r="B97" s="29"/>
+      <c r="C97" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D97" s="17" t="s">
+      <c r="D97" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E97" s="5"/>
@@ -3017,9 +3017,9 @@
       <c r="P97" s="16"/>
     </row>
     <row r="98" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="31"/>
+      <c r="B98" s="29"/>
       <c r="C98" s="19"/>
-      <c r="D98" s="17"/>
+      <c r="D98" s="20"/>
       <c r="E98" s="4"/>
       <c r="F98" s="2"/>
       <c r="G98" s="4"/>
@@ -3034,13 +3034,13 @@
       <c r="P98" s="2"/>
     </row>
     <row r="99" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="31" t="s">
+      <c r="B99" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C99" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D99" s="20" t="s">
+      <c r="D99" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E99" s="5"/>
@@ -3057,9 +3057,9 @@
       <c r="P99" s="8"/>
     </row>
     <row r="100" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="31"/>
+      <c r="B100" s="29"/>
       <c r="C100" s="19"/>
-      <c r="D100" s="17"/>
+      <c r="D100" s="20"/>
       <c r="E100" s="4"/>
       <c r="F100" s="2"/>
       <c r="G100" s="4"/>
@@ -3074,11 +3074,11 @@
       <c r="P100" s="2"/>
     </row>
     <row r="101" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="31"/>
+      <c r="B101" s="29"/>
       <c r="C101" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D101" s="20" t="s">
+      <c r="D101" s="26" t="s">
         <v>24</v>
       </c>
       <c r="E101" s="5"/>
@@ -3095,9 +3095,9 @@
       <c r="P101" s="8"/>
     </row>
     <row r="102" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="31"/>
+      <c r="B102" s="29"/>
       <c r="C102" s="19"/>
-      <c r="D102" s="17"/>
+      <c r="D102" s="20"/>
       <c r="E102" s="4"/>
       <c r="F102" s="2"/>
       <c r="G102" s="4"/>
@@ -3112,13 +3112,13 @@
       <c r="P102" s="2"/>
     </row>
     <row r="103" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="36" t="s">
+      <c r="B103" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C103" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D103" s="17"/>
+      <c r="D103" s="20"/>
       <c r="E103" s="5"/>
       <c r="F103" s="6"/>
       <c r="G103" s="5"/>
@@ -3131,14 +3131,14 @@
       <c r="N103" s="6"/>
       <c r="O103" s="5"/>
       <c r="P103" s="6"/>
-      <c r="Q103" s="34" t="s">
+      <c r="Q103" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="104" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="37"/>
+      <c r="B104" s="22"/>
       <c r="C104" s="19"/>
-      <c r="D104" s="17"/>
+      <c r="D104" s="20"/>
       <c r="E104" s="4"/>
       <c r="F104" s="2"/>
       <c r="G104" s="4"/>
@@ -3151,10 +3151,105 @@
       <c r="N104" s="2"/>
       <c r="O104" s="4"/>
       <c r="P104" s="2"/>
-      <c r="Q104" s="35"/>
+      <c r="Q104" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="119">
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B11:B44"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B83:B98"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B67:B82"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="B51:B66"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D101:D102"/>
     <mergeCell ref="Q103:Q104"/>
     <mergeCell ref="C103:C104"/>
     <mergeCell ref="D103:D104"/>
@@ -3179,101 +3274,6 @@
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B83:B98"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B67:B82"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="B51:B66"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B11:B44"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/総合演習資料/1.プロジェクト計画/ガントチャート.xlsx
+++ b/総合演習資料/1.プロジェクト計画/ガントチャート.xlsx
@@ -583,7 +583,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,6 +611,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -780,18 +786,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -801,52 +852,28 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1156,8 +1183,8 @@
   <dimension ref="B2:Q104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L50" sqref="L50"/>
+      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1171,34 +1198,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39"/>
-      <c r="I2" s="33" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="I2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33" t="s">
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
     </row>
     <row r="3" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -1210,39 +1237,39 @@
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="38">
         <v>43031</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23">
+      <c r="F4" s="38"/>
+      <c r="G4" s="38">
         <v>43032</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23">
+      <c r="H4" s="38"/>
+      <c r="I4" s="38">
         <v>43033</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23">
+      <c r="J4" s="38"/>
+      <c r="K4" s="38">
         <v>43034</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23">
+      <c r="L4" s="38"/>
+      <c r="M4" s="38">
         <v>43035</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23">
+      <c r="N4" s="38"/>
+      <c r="O4" s="38">
         <v>43038</v>
       </c>
-      <c r="P4" s="23"/>
+      <c r="P4" s="38"/>
     </row>
     <row r="5" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="21" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="7"/>
@@ -1259,7 +1286,7 @@
       <c r="P5" s="6"/>
     </row>
     <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="25"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="19"/>
       <c r="D6" s="20"/>
       <c r="E6" s="9"/>
@@ -1276,11 +1303,11 @@
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="25"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="21" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="11"/>
@@ -1297,7 +1324,7 @@
       <c r="P7" s="6"/>
     </row>
     <row r="8" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="25"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
       <c r="E8" s="4"/>
@@ -1314,11 +1341,11 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="25"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="5"/>
@@ -1335,7 +1362,7 @@
       <c r="P9" s="6"/>
     </row>
     <row r="10" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="25"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="19"/>
       <c r="D10" s="20"/>
       <c r="E10" s="4"/>
@@ -1352,10 +1379,10 @@
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="20" t="s">
@@ -1375,7 +1402,7 @@
       <c r="P11" s="6"/>
     </row>
     <row r="12" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="29"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="19"/>
       <c r="D12" s="20"/>
       <c r="E12" s="4"/>
@@ -1392,11 +1419,11 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="29"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="32" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="5"/>
@@ -1413,9 +1440,9 @@
       <c r="P13" s="6"/>
     </row>
     <row r="14" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="29"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="19"/>
-      <c r="D14" s="28"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="4"/>
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
@@ -1430,8 +1457,8 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="29"/>
-      <c r="C15" s="24" t="s">
+      <c r="B15" s="31"/>
+      <c r="C15" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="20" t="s">
@@ -1451,7 +1478,7 @@
       <c r="P15" s="6"/>
     </row>
     <row r="16" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="29"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="19"/>
       <c r="D16" s="20"/>
       <c r="E16" s="4"/>
@@ -1468,8 +1495,8 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="29"/>
-      <c r="C17" s="24" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="20" t="s">
@@ -1489,7 +1516,7 @@
       <c r="P17" s="6"/>
     </row>
     <row r="18" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="29"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
       <c r="E18" s="4"/>
@@ -1506,8 +1533,8 @@
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="29"/>
-      <c r="C19" s="24" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="20" t="s">
@@ -1527,7 +1554,7 @@
       <c r="P19" s="6"/>
     </row>
     <row r="20" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="29"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="19"/>
       <c r="D20" s="20"/>
       <c r="E20" s="4"/>
@@ -1544,8 +1571,8 @@
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="29"/>
-      <c r="C21" s="24" t="s">
+      <c r="B21" s="31"/>
+      <c r="C21" s="18" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="20" t="s">
@@ -1565,7 +1592,7 @@
       <c r="P21" s="6"/>
     </row>
     <row r="22" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="19"/>
       <c r="D22" s="20"/>
       <c r="E22" s="4"/>
@@ -1582,8 +1609,8 @@
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="29"/>
-      <c r="C23" s="24" t="s">
+      <c r="B23" s="31"/>
+      <c r="C23" s="18" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="20" t="s">
@@ -1603,7 +1630,7 @@
       <c r="P23" s="6"/>
     </row>
     <row r="24" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="29"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="19"/>
       <c r="D24" s="20"/>
       <c r="E24" s="4"/>
@@ -1620,8 +1647,8 @@
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="29"/>
-      <c r="C25" s="24" t="s">
+      <c r="B25" s="31"/>
+      <c r="C25" s="18" t="s">
         <v>54</v>
       </c>
       <c r="D25" s="20" t="s">
@@ -1641,7 +1668,7 @@
       <c r="P25" s="6"/>
     </row>
     <row r="26" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="29"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="19"/>
       <c r="D26" s="20"/>
       <c r="E26" s="4"/>
@@ -1658,8 +1685,8 @@
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="29"/>
-      <c r="C27" s="24" t="s">
+      <c r="B27" s="31"/>
+      <c r="C27" s="18" t="s">
         <v>33</v>
       </c>
       <c r="D27" s="20" t="s">
@@ -1679,7 +1706,7 @@
       <c r="P27" s="6"/>
     </row>
     <row r="28" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="29"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="19"/>
       <c r="D28" s="20"/>
       <c r="E28" s="4"/>
@@ -1696,8 +1723,8 @@
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="29"/>
-      <c r="C29" s="24" t="s">
+      <c r="B29" s="31"/>
+      <c r="C29" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="20" t="s">
@@ -1717,7 +1744,7 @@
       <c r="P29" s="6"/>
     </row>
     <row r="30" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="29"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="19"/>
       <c r="D30" s="20"/>
       <c r="E30" s="4"/>
@@ -1734,8 +1761,8 @@
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="29"/>
-      <c r="C31" s="24" t="s">
+      <c r="B31" s="31"/>
+      <c r="C31" s="18" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="20" t="s">
@@ -1755,7 +1782,7 @@
       <c r="P31" s="6"/>
     </row>
     <row r="32" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="29"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="19"/>
       <c r="D32" s="20"/>
       <c r="E32" s="4"/>
@@ -1772,8 +1799,8 @@
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="29"/>
-      <c r="C33" s="24" t="s">
+      <c r="B33" s="31"/>
+      <c r="C33" s="18" t="s">
         <v>55</v>
       </c>
       <c r="D33" s="20" t="s">
@@ -1793,7 +1820,7 @@
       <c r="P33" s="6"/>
     </row>
     <row r="34" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="29"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="19"/>
       <c r="D34" s="20"/>
       <c r="E34" s="4"/>
@@ -1810,8 +1837,8 @@
       <c r="P34" s="2"/>
     </row>
     <row r="35" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="29"/>
-      <c r="C35" s="24" t="s">
+      <c r="B35" s="31"/>
+      <c r="C35" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D35" s="20" t="s">
@@ -1831,7 +1858,7 @@
       <c r="P35" s="6"/>
     </row>
     <row r="36" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="29"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="19"/>
       <c r="D36" s="20"/>
       <c r="E36" s="4"/>
@@ -1848,7 +1875,7 @@
       <c r="P36" s="2"/>
     </row>
     <row r="37" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="29"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="19" t="s">
         <v>9</v>
       </c>
@@ -1869,7 +1896,7 @@
       <c r="P37" s="6"/>
     </row>
     <row r="38" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="29"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="19"/>
       <c r="D38" s="20"/>
       <c r="E38" s="4"/>
@@ -1886,7 +1913,7 @@
       <c r="P38" s="2"/>
     </row>
     <row r="39" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="29"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="19" t="s">
         <v>10</v>
       </c>
@@ -1907,7 +1934,7 @@
       <c r="P39" s="6"/>
     </row>
     <row r="40" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="29"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="19"/>
       <c r="D40" s="20"/>
       <c r="E40" s="4"/>
@@ -1924,7 +1951,7 @@
       <c r="P40" s="2"/>
     </row>
     <row r="41" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="29"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="19" t="s">
         <v>11</v>
       </c>
@@ -1945,7 +1972,7 @@
       <c r="P41" s="6"/>
     </row>
     <row r="42" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="29"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="19"/>
       <c r="D42" s="20"/>
       <c r="E42" s="4"/>
@@ -1962,7 +1989,7 @@
       <c r="P42" s="2"/>
     </row>
     <row r="43" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="29"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="19" t="s">
         <v>12</v>
       </c>
@@ -1983,7 +2010,7 @@
       <c r="P43" s="6"/>
     </row>
     <row r="44" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="29"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="19"/>
       <c r="D44" s="20"/>
       <c r="E44" s="4"/>
@@ -2000,10 +2027,10 @@
       <c r="P44" s="2"/>
     </row>
     <row r="45" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="20" t="s">
@@ -2023,7 +2050,7 @@
       <c r="P45" s="6"/>
     </row>
     <row r="46" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="29"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="19"/>
       <c r="D46" s="20"/>
       <c r="E46" s="4"/>
@@ -2040,7 +2067,7 @@
       <c r="P46" s="2"/>
     </row>
     <row r="47" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="29"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="19" t="s">
         <v>16</v>
       </c>
@@ -2061,7 +2088,7 @@
       <c r="P47" s="6"/>
     </row>
     <row r="48" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="29"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="19"/>
       <c r="D48" s="20"/>
       <c r="E48" s="4"/>
@@ -2078,11 +2105,11 @@
       <c r="P48" s="2"/>
     </row>
     <row r="49" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="29"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D49" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E49" s="5"/>
@@ -2099,7 +2126,7 @@
       <c r="P49" s="6"/>
     </row>
     <row r="50" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="29"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="19"/>
       <c r="D50" s="20"/>
       <c r="E50" s="4"/>
@@ -2110,54 +2137,54 @@
       <c r="J50" s="2"/>
       <c r="K50" s="9"/>
       <c r="L50" s="10"/>
-      <c r="M50" s="4"/>
+      <c r="M50" s="9"/>
       <c r="N50" s="2"/>
       <c r="O50" s="4"/>
       <c r="P50" s="2"/>
     </row>
     <row r="51" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="6"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="43"/>
     </row>
     <row r="52" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="29"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="2"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="44"/>
+      <c r="N52" s="45"/>
+      <c r="O52" s="44"/>
+      <c r="P52" s="45"/>
     </row>
     <row r="53" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="29"/>
-      <c r="C53" s="24" t="s">
+      <c r="B53" s="31"/>
+      <c r="C53" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D53" s="20" t="s">
@@ -2177,7 +2204,7 @@
       <c r="P53" s="6"/>
     </row>
     <row r="54" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="29"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="19"/>
       <c r="D54" s="20"/>
       <c r="E54" s="4"/>
@@ -2187,15 +2214,15 @@
       <c r="I54" s="4"/>
       <c r="J54" s="2"/>
       <c r="K54" s="4"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="4"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="9"/>
       <c r="N54" s="2"/>
       <c r="O54" s="4"/>
       <c r="P54" s="2"/>
     </row>
     <row r="55" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="29"/>
-      <c r="C55" s="24" t="s">
+      <c r="B55" s="31"/>
+      <c r="C55" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D55" s="20" t="s">
@@ -2215,7 +2242,7 @@
       <c r="P55" s="6"/>
     </row>
     <row r="56" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="29"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="19"/>
       <c r="D56" s="20"/>
       <c r="E56" s="4"/>
@@ -2226,14 +2253,14 @@
       <c r="J56" s="2"/>
       <c r="K56" s="4"/>
       <c r="L56" s="2"/>
-      <c r="M56" s="4"/>
+      <c r="M56" s="9"/>
       <c r="N56" s="2"/>
       <c r="O56" s="4"/>
       <c r="P56" s="2"/>
     </row>
     <row r="57" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="29"/>
-      <c r="C57" s="24" t="s">
+      <c r="B57" s="31"/>
+      <c r="C57" s="18" t="s">
         <v>45</v>
       </c>
       <c r="D57" s="20" t="s">
@@ -2253,7 +2280,7 @@
       <c r="P57" s="6"/>
     </row>
     <row r="58" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="29"/>
+      <c r="B58" s="31"/>
       <c r="C58" s="19"/>
       <c r="D58" s="20"/>
       <c r="E58" s="4"/>
@@ -2264,14 +2291,14 @@
       <c r="J58" s="2"/>
       <c r="K58" s="4"/>
       <c r="L58" s="2"/>
-      <c r="M58" s="4"/>
+      <c r="M58" s="9"/>
       <c r="N58" s="2"/>
       <c r="O58" s="4"/>
       <c r="P58" s="2"/>
     </row>
     <row r="59" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="29"/>
-      <c r="C59" s="24" t="s">
+      <c r="B59" s="31"/>
+      <c r="C59" s="18" t="s">
         <v>46</v>
       </c>
       <c r="D59" s="20" t="s">
@@ -2291,7 +2318,7 @@
       <c r="P59" s="6"/>
     </row>
     <row r="60" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="29"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="19"/>
       <c r="D60" s="20"/>
       <c r="E60" s="4"/>
@@ -2302,14 +2329,14 @@
       <c r="J60" s="2"/>
       <c r="K60" s="4"/>
       <c r="L60" s="2"/>
-      <c r="M60" s="4"/>
+      <c r="M60" s="9"/>
       <c r="N60" s="2"/>
       <c r="O60" s="4"/>
       <c r="P60" s="2"/>
     </row>
     <row r="61" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="29"/>
-      <c r="C61" s="24" t="s">
+      <c r="B61" s="31"/>
+      <c r="C61" s="18" t="s">
         <v>47</v>
       </c>
       <c r="D61" s="20" t="s">
@@ -2329,7 +2356,7 @@
       <c r="P61" s="6"/>
     </row>
     <row r="62" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="29"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="19"/>
       <c r="D62" s="20"/>
       <c r="E62" s="4"/>
@@ -2340,17 +2367,17 @@
       <c r="J62" s="2"/>
       <c r="K62" s="4"/>
       <c r="L62" s="2"/>
-      <c r="M62" s="4"/>
+      <c r="M62" s="9"/>
       <c r="N62" s="2"/>
       <c r="O62" s="4"/>
       <c r="P62" s="2"/>
     </row>
     <row r="63" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="29"/>
-      <c r="C63" s="32" t="s">
+      <c r="B63" s="31"/>
+      <c r="C63" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D63" s="30" t="s">
+      <c r="D63" s="23" t="s">
         <v>24</v>
       </c>
       <c r="E63" s="12"/>
@@ -2367,9 +2394,9 @@
       <c r="P63" s="13"/>
     </row>
     <row r="64" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="29"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="31"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="24"/>
       <c r="E64" s="14"/>
       <c r="F64" s="15"/>
       <c r="G64" s="14"/>
@@ -2384,8 +2411,8 @@
       <c r="P64" s="15"/>
     </row>
     <row r="65" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="29"/>
-      <c r="C65" s="24" t="s">
+      <c r="B65" s="31"/>
+      <c r="C65" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D65" s="20" t="s">
@@ -2405,7 +2432,7 @@
       <c r="P65" s="6"/>
     </row>
     <row r="66" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="29"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="19"/>
       <c r="D66" s="20"/>
       <c r="E66" s="4"/>
@@ -2415,14 +2442,14 @@
       <c r="I66" s="4"/>
       <c r="J66" s="2"/>
       <c r="K66" s="4"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="4"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="46"/>
       <c r="N66" s="2"/>
       <c r="O66" s="4"/>
       <c r="P66" s="2"/>
     </row>
     <row r="67" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="29" t="s">
+      <c r="B67" s="31" t="s">
         <v>18</v>
       </c>
       <c r="C67" s="19" t="s">
@@ -2445,7 +2472,7 @@
       <c r="P67" s="6"/>
     </row>
     <row r="68" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="29"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="19"/>
       <c r="D68" s="20"/>
       <c r="E68" s="4"/>
@@ -2462,8 +2489,8 @@
       <c r="P68" s="2"/>
     </row>
     <row r="69" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="29"/>
-      <c r="C69" s="24" t="s">
+      <c r="B69" s="31"/>
+      <c r="C69" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D69" s="20" t="s">
@@ -2483,7 +2510,7 @@
       <c r="P69" s="6"/>
     </row>
     <row r="70" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="29"/>
+      <c r="B70" s="31"/>
       <c r="C70" s="19"/>
       <c r="D70" s="20"/>
       <c r="E70" s="4"/>
@@ -2500,8 +2527,8 @@
       <c r="P70" s="2"/>
     </row>
     <row r="71" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="29"/>
-      <c r="C71" s="24" t="s">
+      <c r="B71" s="31"/>
+      <c r="C71" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D71" s="20" t="s">
@@ -2521,7 +2548,7 @@
       <c r="P71" s="6"/>
     </row>
     <row r="72" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="29"/>
+      <c r="B72" s="31"/>
       <c r="C72" s="19"/>
       <c r="D72" s="20"/>
       <c r="E72" s="4"/>
@@ -2538,8 +2565,8 @@
       <c r="P72" s="2"/>
     </row>
     <row r="73" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="29"/>
-      <c r="C73" s="24" t="s">
+      <c r="B73" s="31"/>
+      <c r="C73" s="18" t="s">
         <v>45</v>
       </c>
       <c r="D73" s="20" t="s">
@@ -2559,7 +2586,7 @@
       <c r="P73" s="6"/>
     </row>
     <row r="74" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="29"/>
+      <c r="B74" s="31"/>
       <c r="C74" s="19"/>
       <c r="D74" s="20"/>
       <c r="E74" s="4"/>
@@ -2576,8 +2603,8 @@
       <c r="P74" s="2"/>
     </row>
     <row r="75" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="29"/>
-      <c r="C75" s="24" t="s">
+      <c r="B75" s="31"/>
+      <c r="C75" s="18" t="s">
         <v>46</v>
       </c>
       <c r="D75" s="20" t="s">
@@ -2597,7 +2624,7 @@
       <c r="P75" s="6"/>
     </row>
     <row r="76" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="29"/>
+      <c r="B76" s="31"/>
       <c r="C76" s="19"/>
       <c r="D76" s="20"/>
       <c r="E76" s="4"/>
@@ -2614,8 +2641,8 @@
       <c r="P76" s="2"/>
     </row>
     <row r="77" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="29"/>
-      <c r="C77" s="24" t="s">
+      <c r="B77" s="31"/>
+      <c r="C77" s="18" t="s">
         <v>47</v>
       </c>
       <c r="D77" s="20" t="s">
@@ -2635,7 +2662,7 @@
       <c r="P77" s="6"/>
     </row>
     <row r="78" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="29"/>
+      <c r="B78" s="31"/>
       <c r="C78" s="19"/>
       <c r="D78" s="20"/>
       <c r="E78" s="4"/>
@@ -2652,11 +2679,11 @@
       <c r="P78" s="2"/>
     </row>
     <row r="79" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="29"/>
+      <c r="B79" s="31"/>
       <c r="C79" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D79" s="26" t="s">
+      <c r="D79" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E79" s="5"/>
@@ -2673,7 +2700,7 @@
       <c r="P79" s="6"/>
     </row>
     <row r="80" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="29"/>
+      <c r="B80" s="31"/>
       <c r="C80" s="19"/>
       <c r="D80" s="20"/>
       <c r="E80" s="4"/>
@@ -2690,8 +2717,8 @@
       <c r="P80" s="2"/>
     </row>
     <row r="81" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="29"/>
-      <c r="C81" s="24" t="s">
+      <c r="B81" s="31"/>
+      <c r="C81" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D81" s="20" t="s">
@@ -2711,7 +2738,7 @@
       <c r="P81" s="16"/>
     </row>
     <row r="82" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="29"/>
+      <c r="B82" s="31"/>
       <c r="C82" s="19"/>
       <c r="D82" s="20"/>
       <c r="E82" s="4"/>
@@ -2728,48 +2755,48 @@
       <c r="P82" s="2"/>
     </row>
     <row r="83" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="29" t="s">
+      <c r="B83" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="C83" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="20" t="s">
+      <c r="D83" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E83" s="5"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="7"/>
-      <c r="P83" s="6"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="43"/>
+      <c r="K83" s="42"/>
+      <c r="L83" s="43"/>
+      <c r="M83" s="42"/>
+      <c r="N83" s="43"/>
+      <c r="O83" s="42"/>
+      <c r="P83" s="43"/>
     </row>
     <row r="84" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="29"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="4"/>
-      <c r="P84" s="2"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="44"/>
+      <c r="F84" s="45"/>
+      <c r="G84" s="44"/>
+      <c r="H84" s="45"/>
+      <c r="I84" s="44"/>
+      <c r="J84" s="45"/>
+      <c r="K84" s="44"/>
+      <c r="L84" s="45"/>
+      <c r="M84" s="44"/>
+      <c r="N84" s="45"/>
+      <c r="O84" s="44"/>
+      <c r="P84" s="45"/>
     </row>
     <row r="85" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="29"/>
-      <c r="C85" s="24" t="s">
+      <c r="B85" s="31"/>
+      <c r="C85" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D85" s="20" t="s">
@@ -2789,7 +2816,7 @@
       <c r="P85" s="6"/>
     </row>
     <row r="86" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="29"/>
+      <c r="B86" s="31"/>
       <c r="C86" s="19"/>
       <c r="D86" s="20"/>
       <c r="E86" s="4"/>
@@ -2806,8 +2833,8 @@
       <c r="P86" s="2"/>
     </row>
     <row r="87" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="29"/>
-      <c r="C87" s="24" t="s">
+      <c r="B87" s="31"/>
+      <c r="C87" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D87" s="20" t="s">
@@ -2827,7 +2854,7 @@
       <c r="P87" s="6"/>
     </row>
     <row r="88" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="29"/>
+      <c r="B88" s="31"/>
       <c r="C88" s="19"/>
       <c r="D88" s="20"/>
       <c r="E88" s="4"/>
@@ -2844,8 +2871,8 @@
       <c r="P88" s="2"/>
     </row>
     <row r="89" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="29"/>
-      <c r="C89" s="24" t="s">
+      <c r="B89" s="31"/>
+      <c r="C89" s="18" t="s">
         <v>45</v>
       </c>
       <c r="D89" s="20" t="s">
@@ -2865,7 +2892,7 @@
       <c r="P89" s="6"/>
     </row>
     <row r="90" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="29"/>
+      <c r="B90" s="31"/>
       <c r="C90" s="19"/>
       <c r="D90" s="20"/>
       <c r="E90" s="4"/>
@@ -2882,8 +2909,8 @@
       <c r="P90" s="2"/>
     </row>
     <row r="91" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="29"/>
-      <c r="C91" s="24" t="s">
+      <c r="B91" s="31"/>
+      <c r="C91" s="18" t="s">
         <v>46</v>
       </c>
       <c r="D91" s="20" t="s">
@@ -2903,7 +2930,7 @@
       <c r="P91" s="6"/>
     </row>
     <row r="92" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="29"/>
+      <c r="B92" s="31"/>
       <c r="C92" s="19"/>
       <c r="D92" s="20"/>
       <c r="E92" s="4"/>
@@ -2920,8 +2947,8 @@
       <c r="P92" s="2"/>
     </row>
     <row r="93" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="29"/>
-      <c r="C93" s="24" t="s">
+      <c r="B93" s="31"/>
+      <c r="C93" s="18" t="s">
         <v>47</v>
       </c>
       <c r="D93" s="20" t="s">
@@ -2941,7 +2968,7 @@
       <c r="P93" s="6"/>
     </row>
     <row r="94" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="29"/>
+      <c r="B94" s="31"/>
       <c r="C94" s="19"/>
       <c r="D94" s="20"/>
       <c r="E94" s="4"/>
@@ -2958,11 +2985,11 @@
       <c r="P94" s="2"/>
     </row>
     <row r="95" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="29"/>
-      <c r="C95" s="32" t="s">
+      <c r="B95" s="31"/>
+      <c r="C95" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D95" s="30" t="s">
+      <c r="D95" s="23" t="s">
         <v>24</v>
       </c>
       <c r="E95" s="12"/>
@@ -2979,9 +3006,9 @@
       <c r="P95" s="13"/>
     </row>
     <row r="96" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="29"/>
-      <c r="C96" s="32"/>
-      <c r="D96" s="31"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="24"/>
       <c r="E96" s="14"/>
       <c r="F96" s="15"/>
       <c r="G96" s="14"/>
@@ -2996,8 +3023,8 @@
       <c r="P96" s="15"/>
     </row>
     <row r="97" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="29"/>
-      <c r="C97" s="24" t="s">
+      <c r="B97" s="31"/>
+      <c r="C97" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D97" s="20" t="s">
@@ -3017,7 +3044,7 @@
       <c r="P97" s="16"/>
     </row>
     <row r="98" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="29"/>
+      <c r="B98" s="31"/>
       <c r="C98" s="19"/>
       <c r="D98" s="20"/>
       <c r="E98" s="4"/>
@@ -3034,13 +3061,13 @@
       <c r="P98" s="2"/>
     </row>
     <row r="99" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="29" t="s">
+      <c r="B99" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C99" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D99" s="26" t="s">
+      <c r="D99" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E99" s="5"/>
@@ -3057,7 +3084,7 @@
       <c r="P99" s="8"/>
     </row>
     <row r="100" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="29"/>
+      <c r="B100" s="31"/>
       <c r="C100" s="19"/>
       <c r="D100" s="20"/>
       <c r="E100" s="4"/>
@@ -3074,11 +3101,11 @@
       <c r="P100" s="2"/>
     </row>
     <row r="101" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="29"/>
+      <c r="B101" s="31"/>
       <c r="C101" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D101" s="26" t="s">
+      <c r="D101" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E101" s="5"/>
@@ -3095,7 +3122,7 @@
       <c r="P101" s="8"/>
     </row>
     <row r="102" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="29"/>
+      <c r="B102" s="31"/>
       <c r="C102" s="19"/>
       <c r="D102" s="20"/>
       <c r="E102" s="4"/>
@@ -3112,7 +3139,7 @@
       <c r="P102" s="2"/>
     </row>
     <row r="103" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="21" t="s">
+      <c r="B103" s="36" t="s">
         <v>27</v>
       </c>
       <c r="C103" s="19" t="s">
@@ -3131,12 +3158,12 @@
       <c r="N103" s="6"/>
       <c r="O103" s="5"/>
       <c r="P103" s="6"/>
-      <c r="Q103" s="17" t="s">
+      <c r="Q103" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="104" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="22"/>
+      <c r="B104" s="37"/>
       <c r="C104" s="19"/>
       <c r="D104" s="20"/>
       <c r="E104" s="4"/>
@@ -3151,26 +3178,89 @@
       <c r="N104" s="2"/>
       <c r="O104" s="4"/>
       <c r="P104" s="2"/>
-      <c r="Q104" s="18"/>
+      <c r="Q104" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="Q103:Q104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B83:B98"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B67:B82"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="B51:B66"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D71:D72"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="C91:C92"/>
     <mergeCell ref="D91:D92"/>
@@ -3195,85 +3285,22 @@
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="B11:B44"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B83:B98"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B67:B82"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="B51:B66"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="Q103:Q104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/総合演習資料/1.プロジェクト計画/ガントチャート.xlsx
+++ b/総合演習資料/1.プロジェクト計画/ガントチャート.xlsx
@@ -786,30 +786,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -826,54 +874,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1183,8 +1183,8 @@
   <dimension ref="B2:Q104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M50" sqref="M50"/>
+      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1198,34 +1198,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
-      <c r="I2" s="17" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
+      <c r="I2" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
     </row>
     <row r="3" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -1237,39 +1237,39 @@
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="28">
         <v>43031</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38">
+      <c r="F4" s="28"/>
+      <c r="G4" s="28">
         <v>43032</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38">
+      <c r="H4" s="28"/>
+      <c r="I4" s="28">
         <v>43033</v>
       </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38">
+      <c r="J4" s="28"/>
+      <c r="K4" s="28">
         <v>43034</v>
       </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38">
+      <c r="L4" s="28"/>
+      <c r="M4" s="28">
         <v>43035</v>
       </c>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38">
+      <c r="N4" s="28"/>
+      <c r="O4" s="28">
         <v>43038</v>
       </c>
-      <c r="P4" s="38"/>
+      <c r="P4" s="28"/>
     </row>
     <row r="5" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="33" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="7"/>
@@ -1286,9 +1286,9 @@
       <c r="P5" s="6"/>
     </row>
     <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="39"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
       <c r="G6" s="4"/>
@@ -1303,11 +1303,11 @@
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="39"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="33" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="11"/>
@@ -1324,9 +1324,9 @@
       <c r="P7" s="6"/>
     </row>
     <row r="8" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="39"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="4"/>
       <c r="F8" s="10"/>
       <c r="G8" s="9"/>
@@ -1341,11 +1341,11 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="39"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="33" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="5"/>
@@ -1362,9 +1362,9 @@
       <c r="P9" s="6"/>
     </row>
     <row r="10" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="39"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="4"/>
       <c r="F10" s="2"/>
       <c r="G10" s="9"/>
@@ -1382,10 +1382,10 @@
       <c r="B11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="25" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="5"/>
@@ -1403,8 +1403,8 @@
     </row>
     <row r="12" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="31"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="4"/>
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
@@ -1420,10 +1420,10 @@
     </row>
     <row r="13" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="31"/>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="37" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="5"/>
@@ -1441,8 +1441,8 @@
     </row>
     <row r="14" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="31"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="33"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="4"/>
       <c r="F14" s="2"/>
       <c r="G14" s="4"/>
@@ -1458,10 +1458,10 @@
     </row>
     <row r="15" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="31"/>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="25" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="5"/>
@@ -1479,8 +1479,8 @@
     </row>
     <row r="16" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="31"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="4"/>
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
@@ -1496,10 +1496,10 @@
     </row>
     <row r="17" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="31"/>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="25" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="5"/>
@@ -1517,8 +1517,8 @@
     </row>
     <row r="18" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="31"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="4"/>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
@@ -1534,10 +1534,10 @@
     </row>
     <row r="19" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="31"/>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="25" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="5"/>
@@ -1555,8 +1555,8 @@
     </row>
     <row r="20" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="31"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="4"/>
       <c r="F20" s="2"/>
       <c r="G20" s="4"/>
@@ -1572,10 +1572,10 @@
     </row>
     <row r="21" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="31"/>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E21" s="5"/>
@@ -1593,8 +1593,8 @@
     </row>
     <row r="22" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="31"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="4"/>
       <c r="F22" s="2"/>
       <c r="G22" s="4"/>
@@ -1610,10 +1610,10 @@
     </row>
     <row r="23" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="31"/>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="5"/>
@@ -1631,8 +1631,8 @@
     </row>
     <row r="24" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="31"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="4"/>
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="25" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="31"/>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E25" s="5"/>
@@ -1669,8 +1669,8 @@
     </row>
     <row r="26" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="31"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="4"/>
       <c r="F26" s="2"/>
       <c r="G26" s="4"/>
@@ -1686,10 +1686,10 @@
     </row>
     <row r="27" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="31"/>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E27" s="5"/>
@@ -1707,8 +1707,8 @@
     </row>
     <row r="28" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="31"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="4"/>
       <c r="F28" s="2"/>
       <c r="G28" s="4"/>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="29" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="31"/>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E29" s="5"/>
@@ -1745,8 +1745,8 @@
     </row>
     <row r="30" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="31"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="4"/>
       <c r="F30" s="2"/>
       <c r="G30" s="4"/>
@@ -1762,10 +1762,10 @@
     </row>
     <row r="31" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="31"/>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E31" s="5"/>
@@ -1783,8 +1783,8 @@
     </row>
     <row r="32" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="31"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="20"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="4"/>
       <c r="F32" s="2"/>
       <c r="G32" s="4"/>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="33" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="31"/>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E33" s="5"/>
@@ -1821,8 +1821,8 @@
     </row>
     <row r="34" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="31"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="4"/>
       <c r="F34" s="2"/>
       <c r="G34" s="4"/>
@@ -1838,10 +1838,10 @@
     </row>
     <row r="35" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="31"/>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E35" s="5"/>
@@ -1859,8 +1859,8 @@
     </row>
     <row r="36" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="31"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="20"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
       <c r="E36" s="4"/>
       <c r="F36" s="2"/>
       <c r="G36" s="4"/>
@@ -1876,10 +1876,10 @@
     </row>
     <row r="37" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="31"/>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="25" t="s">
         <v>38</v>
       </c>
       <c r="E37" s="5"/>
@@ -1897,8 +1897,8 @@
     </row>
     <row r="38" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="31"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="20"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="25"/>
       <c r="E38" s="4"/>
       <c r="F38" s="2"/>
       <c r="G38" s="4"/>
@@ -1914,10 +1914,10 @@
     </row>
     <row r="39" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="31"/>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="25" t="s">
         <v>38</v>
       </c>
       <c r="E39" s="5"/>
@@ -1935,8 +1935,8 @@
     </row>
     <row r="40" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="31"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="20"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="25"/>
       <c r="E40" s="4"/>
       <c r="F40" s="2"/>
       <c r="G40" s="4"/>
@@ -1952,10 +1952,10 @@
     </row>
     <row r="41" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="31"/>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="25" t="s">
         <v>38</v>
       </c>
       <c r="E41" s="5"/>
@@ -1973,8 +1973,8 @@
     </row>
     <row r="42" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="31"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="20"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="25"/>
       <c r="E42" s="4"/>
       <c r="F42" s="2"/>
       <c r="G42" s="4"/>
@@ -1990,10 +1990,10 @@
     </row>
     <row r="43" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="31"/>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E43" s="5"/>
@@ -2011,8 +2011,8 @@
     </row>
     <row r="44" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="31"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="20"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="25"/>
       <c r="E44" s="4"/>
       <c r="F44" s="2"/>
       <c r="G44" s="4"/>
@@ -2030,10 +2030,10 @@
       <c r="B45" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="25" t="s">
         <v>38</v>
       </c>
       <c r="E45" s="5"/>
@@ -2051,8 +2051,8 @@
     </row>
     <row r="46" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="31"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="20"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="25"/>
       <c r="E46" s="4"/>
       <c r="F46" s="2"/>
       <c r="G46" s="4"/>
@@ -2068,10 +2068,10 @@
     </row>
     <row r="47" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="31"/>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E47" s="5"/>
@@ -2089,8 +2089,8 @@
     </row>
     <row r="48" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="31"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="20"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="25"/>
       <c r="E48" s="4"/>
       <c r="F48" s="2"/>
       <c r="G48" s="4"/>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="49" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="31"/>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="33" t="s">
         <v>24</v>
       </c>
       <c r="E49" s="5"/>
@@ -2127,8 +2127,8 @@
     </row>
     <row r="50" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="31"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="20"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="25"/>
       <c r="E50" s="4"/>
       <c r="F50" s="2"/>
       <c r="G50" s="4"/>
@@ -2146,48 +2146,48 @@
       <c r="B51" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="40" t="s">
+      <c r="C51" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="41" t="s">
+      <c r="D51" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E51" s="42"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="42"/>
-      <c r="L51" s="43"/>
-      <c r="M51" s="42"/>
-      <c r="N51" s="43"/>
-      <c r="O51" s="42"/>
-      <c r="P51" s="43"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="18"/>
     </row>
     <row r="52" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="31"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="45"/>
-      <c r="K52" s="44"/>
-      <c r="L52" s="45"/>
-      <c r="M52" s="44"/>
-      <c r="N52" s="45"/>
-      <c r="O52" s="44"/>
-      <c r="P52" s="45"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="20"/>
     </row>
     <row r="53" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="31"/>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="D53" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E53" s="5"/>
@@ -2205,8 +2205,8 @@
     </row>
     <row r="54" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="31"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="20"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="25"/>
       <c r="E54" s="4"/>
       <c r="F54" s="2"/>
       <c r="G54" s="4"/>
@@ -2222,10 +2222,10 @@
     </row>
     <row r="55" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="31"/>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E55" s="5"/>
@@ -2243,8 +2243,8 @@
     </row>
     <row r="56" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="31"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="20"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="25"/>
       <c r="E56" s="4"/>
       <c r="F56" s="2"/>
       <c r="G56" s="4"/>
@@ -2260,10 +2260,10 @@
     </row>
     <row r="57" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="31"/>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E57" s="5"/>
@@ -2281,8 +2281,8 @@
     </row>
     <row r="58" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="31"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="20"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="25"/>
       <c r="E58" s="4"/>
       <c r="F58" s="2"/>
       <c r="G58" s="4"/>
@@ -2298,10 +2298,10 @@
     </row>
     <row r="59" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="31"/>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E59" s="5"/>
@@ -2319,8 +2319,8 @@
     </row>
     <row r="60" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="31"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="20"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="25"/>
       <c r="E60" s="4"/>
       <c r="F60" s="2"/>
       <c r="G60" s="4"/>
@@ -2336,10 +2336,10 @@
     </row>
     <row r="61" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="31"/>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="D61" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E61" s="5"/>
@@ -2357,8 +2357,8 @@
     </row>
     <row r="62" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="31"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="20"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="25"/>
       <c r="E62" s="4"/>
       <c r="F62" s="2"/>
       <c r="G62" s="4"/>
@@ -2374,10 +2374,10 @@
     </row>
     <row r="63" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="31"/>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D63" s="23" t="s">
+      <c r="D63" s="34" t="s">
         <v>24</v>
       </c>
       <c r="E63" s="12"/>
@@ -2395,8 +2395,8 @@
     </row>
     <row r="64" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="31"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="24"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="35"/>
       <c r="E64" s="14"/>
       <c r="F64" s="15"/>
       <c r="G64" s="14"/>
@@ -2412,10 +2412,10 @@
     </row>
     <row r="65" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="31"/>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="D65" s="25" t="s">
         <v>38</v>
       </c>
       <c r="E65" s="5"/>
@@ -2433,8 +2433,8 @@
     </row>
     <row r="66" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="31"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="20"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="25"/>
       <c r="E66" s="4"/>
       <c r="F66" s="2"/>
       <c r="G66" s="4"/>
@@ -2443,7 +2443,7 @@
       <c r="J66" s="2"/>
       <c r="K66" s="4"/>
       <c r="L66" s="10"/>
-      <c r="M66" s="46"/>
+      <c r="M66" s="21"/>
       <c r="N66" s="2"/>
       <c r="O66" s="4"/>
       <c r="P66" s="2"/>
@@ -2452,10 +2452,10 @@
       <c r="B67" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C67" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D67" s="20" t="s">
+      <c r="D67" s="25" t="s">
         <v>38</v>
       </c>
       <c r="E67" s="5"/>
@@ -2473,8 +2473,8 @@
     </row>
     <row r="68" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="31"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="20"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="25"/>
       <c r="E68" s="4"/>
       <c r="F68" s="2"/>
       <c r="G68" s="4"/>
@@ -2490,10 +2490,10 @@
     </row>
     <row r="69" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="31"/>
-      <c r="C69" s="18" t="s">
+      <c r="C69" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D69" s="20" t="s">
+      <c r="D69" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E69" s="5"/>
@@ -2511,8 +2511,8 @@
     </row>
     <row r="70" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="31"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="20"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="25"/>
       <c r="E70" s="4"/>
       <c r="F70" s="2"/>
       <c r="G70" s="4"/>
@@ -2528,10 +2528,10 @@
     </row>
     <row r="71" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="31"/>
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D71" s="20" t="s">
+      <c r="D71" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E71" s="5"/>
@@ -2549,8 +2549,8 @@
     </row>
     <row r="72" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="31"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="20"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="25"/>
       <c r="E72" s="4"/>
       <c r="F72" s="2"/>
       <c r="G72" s="4"/>
@@ -2566,10 +2566,10 @@
     </row>
     <row r="73" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="31"/>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="20" t="s">
+      <c r="D73" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E73" s="5"/>
@@ -2587,8 +2587,8 @@
     </row>
     <row r="74" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="31"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="20"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="25"/>
       <c r="E74" s="4"/>
       <c r="F74" s="2"/>
       <c r="G74" s="4"/>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="75" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="31"/>
-      <c r="C75" s="18" t="s">
+      <c r="C75" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="20" t="s">
+      <c r="D75" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E75" s="5"/>
@@ -2625,8 +2625,8 @@
     </row>
     <row r="76" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="31"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="20"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="25"/>
       <c r="E76" s="4"/>
       <c r="F76" s="2"/>
       <c r="G76" s="4"/>
@@ -2642,10 +2642,10 @@
     </row>
     <row r="77" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="31"/>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D77" s="20" t="s">
+      <c r="D77" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E77" s="5"/>
@@ -2663,8 +2663,8 @@
     </row>
     <row r="78" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="31"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="20"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="25"/>
       <c r="E78" s="4"/>
       <c r="F78" s="2"/>
       <c r="G78" s="4"/>
@@ -2680,10 +2680,10 @@
     </row>
     <row r="79" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="31"/>
-      <c r="C79" s="19" t="s">
+      <c r="C79" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D79" s="21" t="s">
+      <c r="D79" s="33" t="s">
         <v>24</v>
       </c>
       <c r="E79" s="5"/>
@@ -2701,8 +2701,8 @@
     </row>
     <row r="80" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="31"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="20"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="25"/>
       <c r="E80" s="4"/>
       <c r="F80" s="2"/>
       <c r="G80" s="4"/>
@@ -2718,10 +2718,10 @@
     </row>
     <row r="81" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="31"/>
-      <c r="C81" s="18" t="s">
+      <c r="C81" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D81" s="20" t="s">
+      <c r="D81" s="25" t="s">
         <v>38</v>
       </c>
       <c r="E81" s="5"/>
@@ -2739,8 +2739,8 @@
     </row>
     <row r="82" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="31"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="20"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="25"/>
       <c r="E82" s="4"/>
       <c r="F82" s="2"/>
       <c r="G82" s="4"/>
@@ -2758,48 +2758,48 @@
       <c r="B83" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C83" s="40" t="s">
+      <c r="C83" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="41" t="s">
+      <c r="D83" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E83" s="42"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="42"/>
-      <c r="H83" s="43"/>
-      <c r="I83" s="42"/>
-      <c r="J83" s="43"/>
-      <c r="K83" s="42"/>
-      <c r="L83" s="43"/>
-      <c r="M83" s="42"/>
-      <c r="N83" s="43"/>
-      <c r="O83" s="42"/>
-      <c r="P83" s="43"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="18"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="18"/>
     </row>
     <row r="84" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="31"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="44"/>
-      <c r="F84" s="45"/>
-      <c r="G84" s="44"/>
-      <c r="H84" s="45"/>
-      <c r="I84" s="44"/>
-      <c r="J84" s="45"/>
-      <c r="K84" s="44"/>
-      <c r="L84" s="45"/>
-      <c r="M84" s="44"/>
-      <c r="N84" s="45"/>
-      <c r="O84" s="44"/>
-      <c r="P84" s="45"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="20"/>
+      <c r="O84" s="19"/>
+      <c r="P84" s="20"/>
     </row>
     <row r="85" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="31"/>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D85" s="20" t="s">
+      <c r="D85" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E85" s="5"/>
@@ -2817,8 +2817,8 @@
     </row>
     <row r="86" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="31"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="20"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="25"/>
       <c r="E86" s="4"/>
       <c r="F86" s="2"/>
       <c r="G86" s="4"/>
@@ -2834,10 +2834,10 @@
     </row>
     <row r="87" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="31"/>
-      <c r="C87" s="18" t="s">
+      <c r="C87" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D87" s="20" t="s">
+      <c r="D87" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E87" s="5"/>
@@ -2855,8 +2855,8 @@
     </row>
     <row r="88" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="31"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="20"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="25"/>
       <c r="E88" s="4"/>
       <c r="F88" s="2"/>
       <c r="G88" s="4"/>
@@ -2872,10 +2872,10 @@
     </row>
     <row r="89" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="31"/>
-      <c r="C89" s="18" t="s">
+      <c r="C89" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D89" s="20" t="s">
+      <c r="D89" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E89" s="5"/>
@@ -2893,8 +2893,8 @@
     </row>
     <row r="90" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="31"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="20"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="25"/>
       <c r="E90" s="4"/>
       <c r="F90" s="2"/>
       <c r="G90" s="4"/>
@@ -2910,10 +2910,10 @@
     </row>
     <row r="91" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="31"/>
-      <c r="C91" s="18" t="s">
+      <c r="C91" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D91" s="20" t="s">
+      <c r="D91" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E91" s="5"/>
@@ -2931,8 +2931,8 @@
     </row>
     <row r="92" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="31"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="20"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="25"/>
       <c r="E92" s="4"/>
       <c r="F92" s="2"/>
       <c r="G92" s="4"/>
@@ -2948,10 +2948,10 @@
     </row>
     <row r="93" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="31"/>
-      <c r="C93" s="18" t="s">
+      <c r="C93" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D93" s="20" t="s">
+      <c r="D93" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E93" s="5"/>
@@ -2969,8 +2969,8 @@
     </row>
     <row r="94" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="31"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="20"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="25"/>
       <c r="E94" s="4"/>
       <c r="F94" s="2"/>
       <c r="G94" s="4"/>
@@ -2986,10 +2986,10 @@
     </row>
     <row r="95" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="31"/>
-      <c r="C95" s="22" t="s">
+      <c r="C95" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D95" s="23" t="s">
+      <c r="D95" s="34" t="s">
         <v>24</v>
       </c>
       <c r="E95" s="12"/>
@@ -3007,8 +3007,8 @@
     </row>
     <row r="96" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="31"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="24"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="35"/>
       <c r="E96" s="14"/>
       <c r="F96" s="15"/>
       <c r="G96" s="14"/>
@@ -3024,10 +3024,10 @@
     </row>
     <row r="97" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="31"/>
-      <c r="C97" s="18" t="s">
+      <c r="C97" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D97" s="20" t="s">
+      <c r="D97" s="25" t="s">
         <v>38</v>
       </c>
       <c r="E97" s="5"/>
@@ -3045,8 +3045,8 @@
     </row>
     <row r="98" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="31"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="20"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="25"/>
       <c r="E98" s="4"/>
       <c r="F98" s="2"/>
       <c r="G98" s="4"/>
@@ -3064,10 +3064,10 @@
       <c r="B99" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C99" s="19" t="s">
+      <c r="C99" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D99" s="21" t="s">
+      <c r="D99" s="33" t="s">
         <v>24</v>
       </c>
       <c r="E99" s="5"/>
@@ -3085,8 +3085,8 @@
     </row>
     <row r="100" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="31"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="20"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="25"/>
       <c r="E100" s="4"/>
       <c r="F100" s="2"/>
       <c r="G100" s="4"/>
@@ -3102,10 +3102,10 @@
     </row>
     <row r="101" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="31"/>
-      <c r="C101" s="19" t="s">
+      <c r="C101" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D101" s="21" t="s">
+      <c r="D101" s="33" t="s">
         <v>24</v>
       </c>
       <c r="E101" s="5"/>
@@ -3123,8 +3123,8 @@
     </row>
     <row r="102" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="31"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="20"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="25"/>
       <c r="E102" s="4"/>
       <c r="F102" s="2"/>
       <c r="G102" s="4"/>
@@ -3139,13 +3139,13 @@
       <c r="P102" s="2"/>
     </row>
     <row r="103" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="36" t="s">
+      <c r="B103" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C103" s="19" t="s">
+      <c r="C103" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D103" s="20"/>
+      <c r="D103" s="25"/>
       <c r="E103" s="5"/>
       <c r="F103" s="6"/>
       <c r="G103" s="5"/>
@@ -3158,14 +3158,14 @@
       <c r="N103" s="6"/>
       <c r="O103" s="5"/>
       <c r="P103" s="6"/>
-      <c r="Q103" s="34" t="s">
+      <c r="Q103" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="104" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="37"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="20"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="25"/>
       <c r="E104" s="4"/>
       <c r="F104" s="2"/>
       <c r="G104" s="4"/>
@@ -3178,10 +3178,105 @@
       <c r="N104" s="2"/>
       <c r="O104" s="4"/>
       <c r="P104" s="2"/>
-      <c r="Q104" s="35"/>
+      <c r="Q104" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="119">
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B11:B44"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="B83:B98"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B67:B82"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="B51:B66"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C47:C48"/>
     <mergeCell ref="Q103:Q104"/>
     <mergeCell ref="C103:C104"/>
     <mergeCell ref="D103:D104"/>
@@ -3206,101 +3301,6 @@
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B83:B98"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B67:B82"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="B51:B66"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B11:B44"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/総合演習資料/1.プロジェクト計画/ガントチャート.xlsx
+++ b/総合演習資料/1.プロジェクト計画/ガントチャート.xlsx
@@ -801,18 +801,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -822,59 +873,8 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1183,8 +1183,8 @@
   <dimension ref="B2:Q104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+      <pane ySplit="4" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1198,34 +1198,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
-      <c r="I2" s="40" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="I2" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
     </row>
     <row r="3" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -1237,36 +1237,36 @@
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="45">
         <v>43031</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28">
+      <c r="F4" s="45"/>
+      <c r="G4" s="45">
         <v>43032</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28">
+      <c r="H4" s="45"/>
+      <c r="I4" s="45">
         <v>43033</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28">
+      <c r="J4" s="45"/>
+      <c r="K4" s="45">
         <v>43034</v>
       </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28">
+      <c r="L4" s="45"/>
+      <c r="M4" s="45">
         <v>43035</v>
       </c>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28">
+      <c r="N4" s="45"/>
+      <c r="O4" s="45">
         <v>43038</v>
       </c>
-      <c r="P4" s="28"/>
+      <c r="P4" s="45"/>
     </row>
     <row r="5" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="33" t="s">
@@ -1286,9 +1286,9 @@
       <c r="P5" s="6"/>
     </row>
     <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="30"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
       <c r="G6" s="4"/>
@@ -1303,8 +1303,8 @@
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="30"/>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="46"/>
+      <c r="C7" s="23" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="33" t="s">
@@ -1324,9 +1324,9 @@
       <c r="P7" s="6"/>
     </row>
     <row r="8" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="30"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="4"/>
       <c r="F8" s="10"/>
       <c r="G8" s="9"/>
@@ -1341,8 +1341,8 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="30"/>
-      <c r="C9" s="24" t="s">
+      <c r="B9" s="46"/>
+      <c r="C9" s="23" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="33" t="s">
@@ -1362,9 +1362,9 @@
       <c r="P9" s="6"/>
     </row>
     <row r="10" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="30"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="4"/>
       <c r="F10" s="2"/>
       <c r="G10" s="9"/>
@@ -1382,10 +1382,10 @@
       <c r="B11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="30" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="5"/>
@@ -1403,8 +1403,8 @@
     </row>
     <row r="12" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="31"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="4"/>
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="13" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="31"/>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="37" t="s">
@@ -1441,7 +1441,7 @@
     </row>
     <row r="14" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="31"/>
-      <c r="C14" s="24"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="38"/>
       <c r="E14" s="4"/>
       <c r="F14" s="2"/>
@@ -1458,10 +1458,10 @@
     </row>
     <row r="15" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="31"/>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="30" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="5"/>
@@ -1479,8 +1479,8 @@
     </row>
     <row r="16" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="31"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="30"/>
       <c r="E16" s="4"/>
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
@@ -1496,10 +1496,10 @@
     </row>
     <row r="17" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="31"/>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="30" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="5"/>
@@ -1517,8 +1517,8 @@
     </row>
     <row r="18" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="31"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="4"/>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
@@ -1534,10 +1534,10 @@
     </row>
     <row r="19" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="31"/>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="30" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="5"/>
@@ -1555,8 +1555,8 @@
     </row>
     <row r="20" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="31"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="4"/>
       <c r="F20" s="2"/>
       <c r="G20" s="4"/>
@@ -1572,10 +1572,10 @@
     </row>
     <row r="21" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="31"/>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="30" t="s">
         <v>36</v>
       </c>
       <c r="E21" s="5"/>
@@ -1593,8 +1593,8 @@
     </row>
     <row r="22" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="31"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="4"/>
       <c r="F22" s="2"/>
       <c r="G22" s="4"/>
@@ -1610,10 +1610,10 @@
     </row>
     <row r="23" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="31"/>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="30" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="5"/>
@@ -1631,8 +1631,8 @@
     </row>
     <row r="24" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="31"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="4"/>
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="25" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="31"/>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="30" t="s">
         <v>36</v>
       </c>
       <c r="E25" s="5"/>
@@ -1669,8 +1669,8 @@
     </row>
     <row r="26" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="31"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="4"/>
       <c r="F26" s="2"/>
       <c r="G26" s="4"/>
@@ -1686,10 +1686,10 @@
     </row>
     <row r="27" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="31"/>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="30" t="s">
         <v>36</v>
       </c>
       <c r="E27" s="5"/>
@@ -1707,8 +1707,8 @@
     </row>
     <row r="28" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="31"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="25"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="4"/>
       <c r="F28" s="2"/>
       <c r="G28" s="4"/>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="29" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="31"/>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="30" t="s">
         <v>36</v>
       </c>
       <c r="E29" s="5"/>
@@ -1745,8 +1745,8 @@
     </row>
     <row r="30" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="31"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="4"/>
       <c r="F30" s="2"/>
       <c r="G30" s="4"/>
@@ -1762,10 +1762,10 @@
     </row>
     <row r="31" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="31"/>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="30" t="s">
         <v>36</v>
       </c>
       <c r="E31" s="5"/>
@@ -1783,8 +1783,8 @@
     </row>
     <row r="32" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="31"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="25"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="4"/>
       <c r="F32" s="2"/>
       <c r="G32" s="4"/>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="33" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="31"/>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="30" t="s">
         <v>36</v>
       </c>
       <c r="E33" s="5"/>
@@ -1821,8 +1821,8 @@
     </row>
     <row r="34" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="31"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="30"/>
       <c r="E34" s="4"/>
       <c r="F34" s="2"/>
       <c r="G34" s="4"/>
@@ -1838,10 +1838,10 @@
     </row>
     <row r="35" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="31"/>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="30" t="s">
         <v>36</v>
       </c>
       <c r="E35" s="5"/>
@@ -1859,8 +1859,8 @@
     </row>
     <row r="36" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="31"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="30"/>
       <c r="E36" s="4"/>
       <c r="F36" s="2"/>
       <c r="G36" s="4"/>
@@ -1876,10 +1876,10 @@
     </row>
     <row r="37" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="31"/>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="30" t="s">
         <v>38</v>
       </c>
       <c r="E37" s="5"/>
@@ -1897,8 +1897,8 @@
     </row>
     <row r="38" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="31"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="25"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="30"/>
       <c r="E38" s="4"/>
       <c r="F38" s="2"/>
       <c r="G38" s="4"/>
@@ -1914,10 +1914,10 @@
     </row>
     <row r="39" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="31"/>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="30" t="s">
         <v>38</v>
       </c>
       <c r="E39" s="5"/>
@@ -1935,8 +1935,8 @@
     </row>
     <row r="40" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="31"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="25"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="30"/>
       <c r="E40" s="4"/>
       <c r="F40" s="2"/>
       <c r="G40" s="4"/>
@@ -1952,10 +1952,10 @@
     </row>
     <row r="41" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="31"/>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="30" t="s">
         <v>38</v>
       </c>
       <c r="E41" s="5"/>
@@ -1973,8 +1973,8 @@
     </row>
     <row r="42" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="31"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="25"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="30"/>
       <c r="E42" s="4"/>
       <c r="F42" s="2"/>
       <c r="G42" s="4"/>
@@ -1990,10 +1990,10 @@
     </row>
     <row r="43" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="31"/>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="30" t="s">
         <v>36</v>
       </c>
       <c r="E43" s="5"/>
@@ -2011,8 +2011,8 @@
     </row>
     <row r="44" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="31"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="25"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="30"/>
       <c r="E44" s="4"/>
       <c r="F44" s="2"/>
       <c r="G44" s="4"/>
@@ -2030,10 +2030,10 @@
       <c r="B45" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="30" t="s">
         <v>38</v>
       </c>
       <c r="E45" s="5"/>
@@ -2051,8 +2051,8 @@
     </row>
     <row r="46" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="31"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="25"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="30"/>
       <c r="E46" s="4"/>
       <c r="F46" s="2"/>
       <c r="G46" s="4"/>
@@ -2068,10 +2068,10 @@
     </row>
     <row r="47" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="31"/>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="30" t="s">
         <v>36</v>
       </c>
       <c r="E47" s="5"/>
@@ -2089,8 +2089,8 @@
     </row>
     <row r="48" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="31"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="25"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="30"/>
       <c r="E48" s="4"/>
       <c r="F48" s="2"/>
       <c r="G48" s="4"/>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="49" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="31"/>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="33" t="s">
@@ -2127,8 +2127,8 @@
     </row>
     <row r="50" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="31"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="25"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="30"/>
       <c r="E50" s="4"/>
       <c r="F50" s="2"/>
       <c r="G50" s="4"/>
@@ -2146,10 +2146,10 @@
       <c r="B51" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="36" t="s">
+      <c r="D51" s="40" t="s">
         <v>38</v>
       </c>
       <c r="E51" s="17"/>
@@ -2167,8 +2167,8 @@
     </row>
     <row r="52" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="31"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="36"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="40"/>
       <c r="E52" s="19"/>
       <c r="F52" s="20"/>
       <c r="G52" s="19"/>
@@ -2184,10 +2184,10 @@
     </row>
     <row r="53" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="31"/>
-      <c r="C53" s="29" t="s">
+      <c r="C53" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D53" s="25" t="s">
+      <c r="D53" s="30" t="s">
         <v>36</v>
       </c>
       <c r="E53" s="5"/>
@@ -2205,8 +2205,8 @@
     </row>
     <row r="54" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="31"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="25"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="30"/>
       <c r="E54" s="4"/>
       <c r="F54" s="2"/>
       <c r="G54" s="4"/>
@@ -2222,10 +2222,10 @@
     </row>
     <row r="55" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="31"/>
-      <c r="C55" s="29" t="s">
+      <c r="C55" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="25" t="s">
+      <c r="D55" s="30" t="s">
         <v>36</v>
       </c>
       <c r="E55" s="5"/>
@@ -2243,8 +2243,8 @@
     </row>
     <row r="56" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="31"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="25"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="30"/>
       <c r="E56" s="4"/>
       <c r="F56" s="2"/>
       <c r="G56" s="4"/>
@@ -2260,10 +2260,10 @@
     </row>
     <row r="57" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="31"/>
-      <c r="C57" s="29" t="s">
+      <c r="C57" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D57" s="25" t="s">
+      <c r="D57" s="30" t="s">
         <v>36</v>
       </c>
       <c r="E57" s="5"/>
@@ -2281,8 +2281,8 @@
     </row>
     <row r="58" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="31"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="25"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="30"/>
       <c r="E58" s="4"/>
       <c r="F58" s="2"/>
       <c r="G58" s="4"/>
@@ -2298,10 +2298,10 @@
     </row>
     <row r="59" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="31"/>
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D59" s="25" t="s">
+      <c r="D59" s="30" t="s">
         <v>39</v>
       </c>
       <c r="E59" s="5"/>
@@ -2319,8 +2319,8 @@
     </row>
     <row r="60" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="31"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="25"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="30"/>
       <c r="E60" s="4"/>
       <c r="F60" s="2"/>
       <c r="G60" s="4"/>
@@ -2336,10 +2336,10 @@
     </row>
     <row r="61" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="31"/>
-      <c r="C61" s="29" t="s">
+      <c r="C61" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D61" s="25" t="s">
+      <c r="D61" s="30" t="s">
         <v>39</v>
       </c>
       <c r="E61" s="5"/>
@@ -2357,8 +2357,8 @@
     </row>
     <row r="62" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="31"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="25"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="30"/>
       <c r="E62" s="4"/>
       <c r="F62" s="2"/>
       <c r="G62" s="4"/>
@@ -2374,10 +2374,10 @@
     </row>
     <row r="63" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="31"/>
-      <c r="C63" s="39" t="s">
+      <c r="C63" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D63" s="34" t="s">
+      <c r="D63" s="35" t="s">
         <v>24</v>
       </c>
       <c r="E63" s="12"/>
@@ -2395,8 +2395,8 @@
     </row>
     <row r="64" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="31"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="35"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="36"/>
       <c r="E64" s="14"/>
       <c r="F64" s="15"/>
       <c r="G64" s="14"/>
@@ -2412,10 +2412,10 @@
     </row>
     <row r="65" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="31"/>
-      <c r="C65" s="29" t="s">
+      <c r="C65" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D65" s="25" t="s">
+      <c r="D65" s="30" t="s">
         <v>38</v>
       </c>
       <c r="E65" s="5"/>
@@ -2433,8 +2433,8 @@
     </row>
     <row r="66" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="31"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="25"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="30"/>
       <c r="E66" s="4"/>
       <c r="F66" s="2"/>
       <c r="G66" s="4"/>
@@ -2452,10 +2452,10 @@
       <c r="B67" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D67" s="25" t="s">
+      <c r="D67" s="30" t="s">
         <v>38</v>
       </c>
       <c r="E67" s="5"/>
@@ -2473,8 +2473,8 @@
     </row>
     <row r="68" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="31"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="25"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="30"/>
       <c r="E68" s="4"/>
       <c r="F68" s="2"/>
       <c r="G68" s="4"/>
@@ -2484,16 +2484,16 @@
       <c r="K68" s="4"/>
       <c r="L68" s="2"/>
       <c r="M68" s="4"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="4"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="9"/>
       <c r="P68" s="2"/>
     </row>
     <row r="69" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="31"/>
-      <c r="C69" s="29" t="s">
+      <c r="C69" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D69" s="25" t="s">
+      <c r="D69" s="30" t="s">
         <v>36</v>
       </c>
       <c r="E69" s="5"/>
@@ -2511,8 +2511,8 @@
     </row>
     <row r="70" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="31"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="25"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="30"/>
       <c r="E70" s="4"/>
       <c r="F70" s="2"/>
       <c r="G70" s="4"/>
@@ -2522,16 +2522,16 @@
       <c r="K70" s="4"/>
       <c r="L70" s="2"/>
       <c r="M70" s="4"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="4"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="9"/>
       <c r="P70" s="2"/>
     </row>
     <row r="71" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="31"/>
-      <c r="C71" s="29" t="s">
+      <c r="C71" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D71" s="25" t="s">
+      <c r="D71" s="30" t="s">
         <v>36</v>
       </c>
       <c r="E71" s="5"/>
@@ -2549,8 +2549,8 @@
     </row>
     <row r="72" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="31"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="25"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="30"/>
       <c r="E72" s="4"/>
       <c r="F72" s="2"/>
       <c r="G72" s="4"/>
@@ -2560,16 +2560,16 @@
       <c r="K72" s="4"/>
       <c r="L72" s="2"/>
       <c r="M72" s="4"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="4"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="9"/>
       <c r="P72" s="2"/>
     </row>
     <row r="73" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="31"/>
-      <c r="C73" s="29" t="s">
+      <c r="C73" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="25" t="s">
+      <c r="D73" s="30" t="s">
         <v>36</v>
       </c>
       <c r="E73" s="5"/>
@@ -2587,8 +2587,8 @@
     </row>
     <row r="74" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="31"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="25"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="30"/>
       <c r="E74" s="4"/>
       <c r="F74" s="2"/>
       <c r="G74" s="4"/>
@@ -2598,16 +2598,16 @@
       <c r="K74" s="4"/>
       <c r="L74" s="2"/>
       <c r="M74" s="4"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="4"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="9"/>
       <c r="P74" s="2"/>
     </row>
     <row r="75" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="31"/>
-      <c r="C75" s="29" t="s">
+      <c r="C75" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="25" t="s">
+      <c r="D75" s="30" t="s">
         <v>39</v>
       </c>
       <c r="E75" s="5"/>
@@ -2625,8 +2625,8 @@
     </row>
     <row r="76" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="31"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="25"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="30"/>
       <c r="E76" s="4"/>
       <c r="F76" s="2"/>
       <c r="G76" s="4"/>
@@ -2636,16 +2636,16 @@
       <c r="K76" s="4"/>
       <c r="L76" s="2"/>
       <c r="M76" s="4"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="4"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="9"/>
       <c r="P76" s="2"/>
     </row>
     <row r="77" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="31"/>
-      <c r="C77" s="29" t="s">
+      <c r="C77" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D77" s="25" t="s">
+      <c r="D77" s="30" t="s">
         <v>39</v>
       </c>
       <c r="E77" s="5"/>
@@ -2663,8 +2663,8 @@
     </row>
     <row r="78" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="31"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="25"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="30"/>
       <c r="E78" s="4"/>
       <c r="F78" s="2"/>
       <c r="G78" s="4"/>
@@ -2675,12 +2675,12 @@
       <c r="L78" s="2"/>
       <c r="M78" s="4"/>
       <c r="N78" s="2"/>
-      <c r="O78" s="4"/>
+      <c r="O78" s="9"/>
       <c r="P78" s="2"/>
     </row>
     <row r="79" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="31"/>
-      <c r="C79" s="24" t="s">
+      <c r="C79" s="23" t="s">
         <v>42</v>
       </c>
       <c r="D79" s="33" t="s">
@@ -2701,8 +2701,8 @@
     </row>
     <row r="80" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="31"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="25"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="30"/>
       <c r="E80" s="4"/>
       <c r="F80" s="2"/>
       <c r="G80" s="4"/>
@@ -2712,16 +2712,16 @@
       <c r="K80" s="4"/>
       <c r="L80" s="2"/>
       <c r="M80" s="4"/>
-      <c r="N80" s="2"/>
+      <c r="N80" s="10"/>
       <c r="O80" s="4"/>
       <c r="P80" s="2"/>
     </row>
     <row r="81" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="31"/>
-      <c r="C81" s="29" t="s">
+      <c r="C81" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D81" s="25" t="s">
+      <c r="D81" s="30" t="s">
         <v>38</v>
       </c>
       <c r="E81" s="5"/>
@@ -2739,8 +2739,8 @@
     </row>
     <row r="82" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="31"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="25"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="30"/>
       <c r="E82" s="4"/>
       <c r="F82" s="2"/>
       <c r="G82" s="4"/>
@@ -2751,17 +2751,17 @@
       <c r="L82" s="2"/>
       <c r="M82" s="4"/>
       <c r="N82" s="2"/>
-      <c r="O82" s="4"/>
+      <c r="O82" s="9"/>
       <c r="P82" s="2"/>
     </row>
     <row r="83" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C83" s="32" t="s">
+      <c r="C83" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="36" t="s">
+      <c r="D83" s="40" t="s">
         <v>38</v>
       </c>
       <c r="E83" s="17"/>
@@ -2779,8 +2779,8 @@
     </row>
     <row r="84" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="31"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="36"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="40"/>
       <c r="E84" s="19"/>
       <c r="F84" s="20"/>
       <c r="G84" s="19"/>
@@ -2796,10 +2796,10 @@
     </row>
     <row r="85" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="31"/>
-      <c r="C85" s="29" t="s">
+      <c r="C85" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D85" s="25" t="s">
+      <c r="D85" s="30" t="s">
         <v>36</v>
       </c>
       <c r="E85" s="5"/>
@@ -2817,8 +2817,8 @@
     </row>
     <row r="86" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="31"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="25"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="30"/>
       <c r="E86" s="4"/>
       <c r="F86" s="2"/>
       <c r="G86" s="4"/>
@@ -2829,15 +2829,15 @@
       <c r="L86" s="2"/>
       <c r="M86" s="4"/>
       <c r="N86" s="2"/>
-      <c r="O86" s="4"/>
+      <c r="O86" s="9"/>
       <c r="P86" s="2"/>
     </row>
     <row r="87" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="31"/>
-      <c r="C87" s="29" t="s">
+      <c r="C87" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D87" s="25" t="s">
+      <c r="D87" s="30" t="s">
         <v>36</v>
       </c>
       <c r="E87" s="5"/>
@@ -2855,8 +2855,8 @@
     </row>
     <row r="88" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="31"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="25"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="30"/>
       <c r="E88" s="4"/>
       <c r="F88" s="2"/>
       <c r="G88" s="4"/>
@@ -2867,15 +2867,15 @@
       <c r="L88" s="2"/>
       <c r="M88" s="4"/>
       <c r="N88" s="2"/>
-      <c r="O88" s="4"/>
+      <c r="O88" s="9"/>
       <c r="P88" s="2"/>
     </row>
     <row r="89" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="31"/>
-      <c r="C89" s="29" t="s">
+      <c r="C89" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D89" s="25" t="s">
+      <c r="D89" s="30" t="s">
         <v>36</v>
       </c>
       <c r="E89" s="5"/>
@@ -2893,8 +2893,8 @@
     </row>
     <row r="90" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="31"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="25"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="30"/>
       <c r="E90" s="4"/>
       <c r="F90" s="2"/>
       <c r="G90" s="4"/>
@@ -2905,15 +2905,15 @@
       <c r="L90" s="2"/>
       <c r="M90" s="4"/>
       <c r="N90" s="2"/>
-      <c r="O90" s="4"/>
+      <c r="O90" s="9"/>
       <c r="P90" s="2"/>
     </row>
     <row r="91" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="31"/>
-      <c r="C91" s="29" t="s">
+      <c r="C91" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D91" s="25" t="s">
+      <c r="D91" s="30" t="s">
         <v>39</v>
       </c>
       <c r="E91" s="5"/>
@@ -2931,8 +2931,8 @@
     </row>
     <row r="92" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="31"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="25"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="30"/>
       <c r="E92" s="4"/>
       <c r="F92" s="2"/>
       <c r="G92" s="4"/>
@@ -2943,15 +2943,15 @@
       <c r="L92" s="2"/>
       <c r="M92" s="4"/>
       <c r="N92" s="2"/>
-      <c r="O92" s="4"/>
+      <c r="O92" s="9"/>
       <c r="P92" s="2"/>
     </row>
     <row r="93" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="31"/>
-      <c r="C93" s="29" t="s">
+      <c r="C93" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D93" s="25" t="s">
+      <c r="D93" s="30" t="s">
         <v>39</v>
       </c>
       <c r="E93" s="5"/>
@@ -2969,8 +2969,8 @@
     </row>
     <row r="94" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="31"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="25"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="30"/>
       <c r="E94" s="4"/>
       <c r="F94" s="2"/>
       <c r="G94" s="4"/>
@@ -2981,15 +2981,15 @@
       <c r="L94" s="2"/>
       <c r="M94" s="4"/>
       <c r="N94" s="2"/>
-      <c r="O94" s="4"/>
+      <c r="O94" s="9"/>
       <c r="P94" s="2"/>
     </row>
     <row r="95" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="31"/>
-      <c r="C95" s="39" t="s">
+      <c r="C95" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D95" s="34" t="s">
+      <c r="D95" s="35" t="s">
         <v>24</v>
       </c>
       <c r="E95" s="12"/>
@@ -3007,8 +3007,8 @@
     </row>
     <row r="96" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="31"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="35"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="36"/>
       <c r="E96" s="14"/>
       <c r="F96" s="15"/>
       <c r="G96" s="14"/>
@@ -3024,10 +3024,10 @@
     </row>
     <row r="97" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="31"/>
-      <c r="C97" s="29" t="s">
+      <c r="C97" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D97" s="25" t="s">
+      <c r="D97" s="30" t="s">
         <v>38</v>
       </c>
       <c r="E97" s="5"/>
@@ -3045,8 +3045,8 @@
     </row>
     <row r="98" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="31"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="25"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="30"/>
       <c r="E98" s="4"/>
       <c r="F98" s="2"/>
       <c r="G98" s="4"/>
@@ -3057,14 +3057,14 @@
       <c r="L98" s="2"/>
       <c r="M98" s="4"/>
       <c r="N98" s="2"/>
-      <c r="O98" s="4"/>
+      <c r="O98" s="9"/>
       <c r="P98" s="2"/>
     </row>
     <row r="99" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C99" s="24" t="s">
+      <c r="C99" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D99" s="33" t="s">
@@ -3085,8 +3085,8 @@
     </row>
     <row r="100" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="31"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="25"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="30"/>
       <c r="E100" s="4"/>
       <c r="F100" s="2"/>
       <c r="G100" s="4"/>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="101" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="31"/>
-      <c r="C101" s="24" t="s">
+      <c r="C101" s="23" t="s">
         <v>50</v>
       </c>
       <c r="D101" s="33" t="s">
@@ -3123,8 +3123,8 @@
     </row>
     <row r="102" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="31"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="25"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="30"/>
       <c r="E102" s="4"/>
       <c r="F102" s="2"/>
       <c r="G102" s="4"/>
@@ -3139,13 +3139,13 @@
       <c r="P102" s="2"/>
     </row>
     <row r="103" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="26" t="s">
+      <c r="B103" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C103" s="24" t="s">
+      <c r="C103" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D103" s="25"/>
+      <c r="D103" s="30"/>
       <c r="E103" s="5"/>
       <c r="F103" s="6"/>
       <c r="G103" s="5"/>
@@ -3158,14 +3158,14 @@
       <c r="N103" s="6"/>
       <c r="O103" s="5"/>
       <c r="P103" s="6"/>
-      <c r="Q103" s="22" t="s">
+      <c r="Q103" s="41" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="104" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="27"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="25"/>
+      <c r="B104" s="44"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="30"/>
       <c r="E104" s="4"/>
       <c r="F104" s="2"/>
       <c r="G104" s="4"/>
@@ -3178,33 +3178,82 @@
       <c r="N104" s="2"/>
       <c r="O104" s="4"/>
       <c r="P104" s="2"/>
-      <c r="Q104" s="23"/>
+      <c r="Q104" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B11:B44"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="Q103:Q104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B83:B98"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B67:B82"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="B51:B66"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D77:D78"/>
     <mergeCell ref="C79:C80"/>
     <mergeCell ref="D79:D80"/>
     <mergeCell ref="C97:C98"/>
@@ -3229,78 +3278,29 @@
     <mergeCell ref="D81:D82"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="B83:B98"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B67:B82"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="B51:B66"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="Q103:Q104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B11:B44"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/総合演習資料/1.プロジェクト計画/ガントチャート.xlsx
+++ b/総合演習資料/1.プロジェクト計画/ガントチャート.xlsx
@@ -190,10 +190,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>システムテスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -511,6 +507,13 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>タニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運用テスト</t>
+    <rPh sb="0" eb="2">
+      <t>ウンヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -801,11 +804,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -824,57 +878,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1182,9 +1185,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K101" sqref="K101"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B99" sqref="B99:B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1198,34 +1201,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
-      <c r="I2" s="32" t="s">
+      <c r="B2" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
+      <c r="I2" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+    </row>
+    <row r="3" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-    </row>
-    <row r="3" spans="2:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
@@ -1237,40 +1240,40 @@
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="28">
         <v>43031</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45">
+      <c r="F4" s="28"/>
+      <c r="G4" s="28">
         <v>43032</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45">
+      <c r="H4" s="28"/>
+      <c r="I4" s="28">
         <v>43033</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45">
+      <c r="J4" s="28"/>
+      <c r="K4" s="28">
         <v>43034</v>
       </c>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45">
+      <c r="L4" s="28"/>
+      <c r="M4" s="28">
         <v>43035</v>
       </c>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45">
+      <c r="N4" s="28"/>
+      <c r="O4" s="28">
         <v>43038</v>
       </c>
-      <c r="P4" s="45"/>
+      <c r="P4" s="28"/>
     </row>
     <row r="5" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>23</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
@@ -1286,9 +1289,9 @@
       <c r="P5" s="6"/>
     </row>
     <row r="6" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="46"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
       <c r="G6" s="4"/>
@@ -1303,12 +1306,12 @@
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="46"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="24" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="8"/>
@@ -1324,9 +1327,9 @@
       <c r="P7" s="6"/>
     </row>
     <row r="8" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="46"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="4"/>
       <c r="F8" s="10"/>
       <c r="G8" s="9"/>
@@ -1341,12 +1344,12 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="46"/>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="24" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
@@ -1362,9 +1365,9 @@
       <c r="P9" s="6"/>
     </row>
     <row r="10" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="46"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="4"/>
       <c r="F10" s="2"/>
       <c r="G10" s="9"/>
@@ -1382,11 +1385,11 @@
       <c r="B11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>37</v>
+      <c r="D11" s="25" t="s">
+        <v>36</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
@@ -1403,8 +1406,8 @@
     </row>
     <row r="12" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="31"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="30"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="4"/>
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
@@ -1420,11 +1423,11 @@
     </row>
     <row r="13" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="31"/>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
@@ -1441,7 +1444,7 @@
     </row>
     <row r="14" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="31"/>
-      <c r="C14" s="23"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="38"/>
       <c r="E14" s="4"/>
       <c r="F14" s="2"/>
@@ -1458,11 +1461,11 @@
     </row>
     <row r="15" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="31"/>
-      <c r="C15" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>37</v>
+      <c r="C15" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>36</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
@@ -1479,8 +1482,8 @@
     </row>
     <row r="16" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="31"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="30"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="4"/>
       <c r="F16" s="2"/>
       <c r="G16" s="4"/>
@@ -1496,11 +1499,11 @@
     </row>
     <row r="17" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="31"/>
-      <c r="C17" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>37</v>
+      <c r="C17" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>36</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
@@ -1517,8 +1520,8 @@
     </row>
     <row r="18" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="31"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="30"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="4"/>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
@@ -1534,11 +1537,11 @@
     </row>
     <row r="19" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="31"/>
-      <c r="C19" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>37</v>
+      <c r="C19" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>36</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
@@ -1555,8 +1558,8 @@
     </row>
     <row r="20" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="31"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="30"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="4"/>
       <c r="F20" s="2"/>
       <c r="G20" s="4"/>
@@ -1572,11 +1575,11 @@
     </row>
     <row r="21" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="31"/>
-      <c r="C21" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>36</v>
+      <c r="C21" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
@@ -1593,8 +1596,8 @@
     </row>
     <row r="22" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="31"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="30"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="4"/>
       <c r="F22" s="2"/>
       <c r="G22" s="4"/>
@@ -1610,11 +1613,11 @@
     </row>
     <row r="23" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="31"/>
-      <c r="C23" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>36</v>
+      <c r="C23" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
@@ -1631,8 +1634,8 @@
     </row>
     <row r="24" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="31"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="30"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="4"/>
       <c r="F24" s="2"/>
       <c r="G24" s="4"/>
@@ -1648,11 +1651,11 @@
     </row>
     <row r="25" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="31"/>
-      <c r="C25" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>36</v>
+      <c r="C25" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
@@ -1669,8 +1672,8 @@
     </row>
     <row r="26" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="31"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="30"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="4"/>
       <c r="F26" s="2"/>
       <c r="G26" s="4"/>
@@ -1686,11 +1689,11 @@
     </row>
     <row r="27" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="31"/>
-      <c r="C27" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>36</v>
+      <c r="C27" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
@@ -1707,8 +1710,8 @@
     </row>
     <row r="28" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="31"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="30"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="4"/>
       <c r="F28" s="2"/>
       <c r="G28" s="4"/>
@@ -1724,11 +1727,11 @@
     </row>
     <row r="29" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="31"/>
-      <c r="C29" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>36</v>
+      <c r="C29" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="6"/>
@@ -1745,8 +1748,8 @@
     </row>
     <row r="30" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="31"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="30"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="4"/>
       <c r="F30" s="2"/>
       <c r="G30" s="4"/>
@@ -1762,11 +1765,11 @@
     </row>
     <row r="31" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="31"/>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="25" t="s">
         <v>35</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>36</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
@@ -1783,8 +1786,8 @@
     </row>
     <row r="32" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="31"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="30"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="4"/>
       <c r="F32" s="2"/>
       <c r="G32" s="4"/>
@@ -1800,11 +1803,11 @@
     </row>
     <row r="33" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="31"/>
-      <c r="C33" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>36</v>
+      <c r="C33" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="6"/>
@@ -1821,8 +1824,8 @@
     </row>
     <row r="34" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="31"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="30"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="4"/>
       <c r="F34" s="2"/>
       <c r="G34" s="4"/>
@@ -1838,11 +1841,11 @@
     </row>
     <row r="35" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="31"/>
-      <c r="C35" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>36</v>
+      <c r="C35" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="6"/>
@@ -1859,8 +1862,8 @@
     </row>
     <row r="36" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="31"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="30"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
       <c r="E36" s="4"/>
       <c r="F36" s="2"/>
       <c r="G36" s="4"/>
@@ -1876,11 +1879,11 @@
     </row>
     <row r="37" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="31"/>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="30" t="s">
-        <v>38</v>
+      <c r="D37" s="25" t="s">
+        <v>37</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="6"/>
@@ -1897,8 +1900,8 @@
     </row>
     <row r="38" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="31"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="30"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="25"/>
       <c r="E38" s="4"/>
       <c r="F38" s="2"/>
       <c r="G38" s="4"/>
@@ -1914,11 +1917,11 @@
     </row>
     <row r="39" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="31"/>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="30" t="s">
-        <v>38</v>
+      <c r="D39" s="25" t="s">
+        <v>37</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="6"/>
@@ -1935,8 +1938,8 @@
     </row>
     <row r="40" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="31"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="30"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="25"/>
       <c r="E40" s="4"/>
       <c r="F40" s="2"/>
       <c r="G40" s="4"/>
@@ -1952,11 +1955,11 @@
     </row>
     <row r="41" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="31"/>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="30" t="s">
-        <v>38</v>
+      <c r="D41" s="25" t="s">
+        <v>37</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="6"/>
@@ -1973,8 +1976,8 @@
     </row>
     <row r="42" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="31"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="30"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="25"/>
       <c r="E42" s="4"/>
       <c r="F42" s="2"/>
       <c r="G42" s="4"/>
@@ -1990,11 +1993,11 @@
     </row>
     <row r="43" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="31"/>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="30" t="s">
-        <v>36</v>
+      <c r="D43" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="6"/>
@@ -2011,8 +2014,8 @@
     </row>
     <row r="44" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="31"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="30"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="25"/>
       <c r="E44" s="4"/>
       <c r="F44" s="2"/>
       <c r="G44" s="4"/>
@@ -2030,11 +2033,11 @@
       <c r="B45" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="30" t="s">
-        <v>38</v>
+      <c r="D45" s="25" t="s">
+        <v>37</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="6"/>
@@ -2051,8 +2054,8 @@
     </row>
     <row r="46" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="31"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="30"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="25"/>
       <c r="E46" s="4"/>
       <c r="F46" s="2"/>
       <c r="G46" s="4"/>
@@ -2068,11 +2071,11 @@
     </row>
     <row r="47" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="31"/>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="30" t="s">
-        <v>36</v>
+      <c r="D47" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="6"/>
@@ -2089,8 +2092,8 @@
     </row>
     <row r="48" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="31"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="30"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="25"/>
       <c r="E48" s="4"/>
       <c r="F48" s="2"/>
       <c r="G48" s="4"/>
@@ -2106,11 +2109,11 @@
     </row>
     <row r="49" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="31"/>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="24" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="6"/>
@@ -2127,8 +2130,8 @@
     </row>
     <row r="50" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="31"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="30"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="25"/>
       <c r="E50" s="4"/>
       <c r="F50" s="2"/>
       <c r="G50" s="4"/>
@@ -2146,11 +2149,11 @@
       <c r="B51" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D51" s="40" t="s">
-        <v>38</v>
+      <c r="C51" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>37</v>
       </c>
       <c r="E51" s="17"/>
       <c r="F51" s="18"/>
@@ -2167,8 +2170,8 @@
     </row>
     <row r="52" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="31"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="40"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="36"/>
       <c r="E52" s="19"/>
       <c r="F52" s="20"/>
       <c r="G52" s="19"/>
@@ -2184,11 +2187,11 @@
     </row>
     <row r="53" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="31"/>
-      <c r="C53" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>36</v>
+      <c r="C53" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="6"/>
@@ -2205,8 +2208,8 @@
     </row>
     <row r="54" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="31"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="30"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="25"/>
       <c r="E54" s="4"/>
       <c r="F54" s="2"/>
       <c r="G54" s="4"/>
@@ -2222,11 +2225,11 @@
     </row>
     <row r="55" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="31"/>
-      <c r="C55" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>36</v>
+      <c r="C55" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="6"/>
@@ -2243,8 +2246,8 @@
     </row>
     <row r="56" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="31"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="30"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="25"/>
       <c r="E56" s="4"/>
       <c r="F56" s="2"/>
       <c r="G56" s="4"/>
@@ -2260,11 +2263,11 @@
     </row>
     <row r="57" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="31"/>
-      <c r="C57" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D57" s="30" t="s">
-        <v>36</v>
+      <c r="C57" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="6"/>
@@ -2281,8 +2284,8 @@
     </row>
     <row r="58" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="31"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="30"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="25"/>
       <c r="E58" s="4"/>
       <c r="F58" s="2"/>
       <c r="G58" s="4"/>
@@ -2298,11 +2301,11 @@
     </row>
     <row r="59" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="31"/>
-      <c r="C59" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59" s="30" t="s">
-        <v>39</v>
+      <c r="C59" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="6"/>
@@ -2319,8 +2322,8 @@
     </row>
     <row r="60" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="31"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="30"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="25"/>
       <c r="E60" s="4"/>
       <c r="F60" s="2"/>
       <c r="G60" s="4"/>
@@ -2336,11 +2339,11 @@
     </row>
     <row r="61" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="31"/>
-      <c r="C61" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D61" s="30" t="s">
-        <v>39</v>
+      <c r="C61" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="6"/>
@@ -2357,8 +2360,8 @@
     </row>
     <row r="62" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="31"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="30"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="25"/>
       <c r="E62" s="4"/>
       <c r="F62" s="2"/>
       <c r="G62" s="4"/>
@@ -2374,11 +2377,11 @@
     </row>
     <row r="63" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="31"/>
-      <c r="C63" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D63" s="35" t="s">
-        <v>24</v>
+      <c r="C63" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="34" t="s">
+        <v>23</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="13"/>
@@ -2395,8 +2398,8 @@
     </row>
     <row r="64" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="31"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="36"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="35"/>
       <c r="E64" s="14"/>
       <c r="F64" s="15"/>
       <c r="G64" s="14"/>
@@ -2412,11 +2415,11 @@
     </row>
     <row r="65" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="31"/>
-      <c r="C65" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D65" s="30" t="s">
-        <v>38</v>
+      <c r="C65" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>37</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="6"/>
@@ -2433,8 +2436,8 @@
     </row>
     <row r="66" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="31"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="30"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="25"/>
       <c r="E66" s="4"/>
       <c r="F66" s="2"/>
       <c r="G66" s="4"/>
@@ -2452,11 +2455,11 @@
       <c r="B67" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C67" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D67" s="30" t="s">
-        <v>38</v>
+      <c r="C67" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>37</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="6"/>
@@ -2473,8 +2476,8 @@
     </row>
     <row r="68" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="31"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="30"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="25"/>
       <c r="E68" s="4"/>
       <c r="F68" s="2"/>
       <c r="G68" s="4"/>
@@ -2490,11 +2493,11 @@
     </row>
     <row r="69" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="31"/>
-      <c r="C69" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D69" s="30" t="s">
-        <v>36</v>
+      <c r="C69" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="6"/>
@@ -2511,8 +2514,8 @@
     </row>
     <row r="70" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="31"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="30"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="25"/>
       <c r="E70" s="4"/>
       <c r="F70" s="2"/>
       <c r="G70" s="4"/>
@@ -2528,11 +2531,11 @@
     </row>
     <row r="71" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="31"/>
-      <c r="C71" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>36</v>
+      <c r="C71" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="6"/>
@@ -2549,8 +2552,8 @@
     </row>
     <row r="72" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="31"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="30"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="25"/>
       <c r="E72" s="4"/>
       <c r="F72" s="2"/>
       <c r="G72" s="4"/>
@@ -2566,11 +2569,11 @@
     </row>
     <row r="73" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="31"/>
-      <c r="C73" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D73" s="30" t="s">
-        <v>36</v>
+      <c r="C73" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="6"/>
@@ -2587,8 +2590,8 @@
     </row>
     <row r="74" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="31"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="30"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="25"/>
       <c r="E74" s="4"/>
       <c r="F74" s="2"/>
       <c r="G74" s="4"/>
@@ -2604,11 +2607,11 @@
     </row>
     <row r="75" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="31"/>
-      <c r="C75" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D75" s="30" t="s">
-        <v>39</v>
+      <c r="C75" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D75" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="6"/>
@@ -2625,8 +2628,8 @@
     </row>
     <row r="76" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="31"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="30"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="25"/>
       <c r="E76" s="4"/>
       <c r="F76" s="2"/>
       <c r="G76" s="4"/>
@@ -2642,11 +2645,11 @@
     </row>
     <row r="77" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="31"/>
-      <c r="C77" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D77" s="30" t="s">
-        <v>39</v>
+      <c r="C77" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="6"/>
@@ -2663,8 +2666,8 @@
     </row>
     <row r="78" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="31"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="30"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="25"/>
       <c r="E78" s="4"/>
       <c r="F78" s="2"/>
       <c r="G78" s="4"/>
@@ -2680,11 +2683,11 @@
     </row>
     <row r="79" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="31"/>
-      <c r="C79" s="23" t="s">
-        <v>42</v>
+      <c r="C79" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="D79" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="6"/>
@@ -2701,8 +2704,8 @@
     </row>
     <row r="80" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="31"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="30"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="25"/>
       <c r="E80" s="4"/>
       <c r="F80" s="2"/>
       <c r="G80" s="4"/>
@@ -2718,11 +2721,11 @@
     </row>
     <row r="81" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="31"/>
-      <c r="C81" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D81" s="30" t="s">
-        <v>38</v>
+      <c r="C81" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D81" s="25" t="s">
+        <v>37</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="6"/>
@@ -2739,8 +2742,8 @@
     </row>
     <row r="82" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="31"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="30"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="25"/>
       <c r="E82" s="4"/>
       <c r="F82" s="2"/>
       <c r="G82" s="4"/>
@@ -2758,11 +2761,11 @@
       <c r="B83" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C83" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D83" s="40" t="s">
-        <v>38</v>
+      <c r="C83" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D83" s="36" t="s">
+        <v>37</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="18"/>
@@ -2779,8 +2782,8 @@
     </row>
     <row r="84" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="31"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="40"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="36"/>
       <c r="E84" s="19"/>
       <c r="F84" s="20"/>
       <c r="G84" s="19"/>
@@ -2796,11 +2799,11 @@
     </row>
     <row r="85" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="31"/>
-      <c r="C85" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D85" s="30" t="s">
-        <v>36</v>
+      <c r="C85" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="6"/>
@@ -2817,8 +2820,8 @@
     </row>
     <row r="86" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="31"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="30"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="25"/>
       <c r="E86" s="4"/>
       <c r="F86" s="2"/>
       <c r="G86" s="4"/>
@@ -2834,11 +2837,11 @@
     </row>
     <row r="87" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="31"/>
-      <c r="C87" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D87" s="30" t="s">
-        <v>36</v>
+      <c r="C87" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D87" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="6"/>
@@ -2855,8 +2858,8 @@
     </row>
     <row r="88" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="31"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="30"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="25"/>
       <c r="E88" s="4"/>
       <c r="F88" s="2"/>
       <c r="G88" s="4"/>
@@ -2872,11 +2875,11 @@
     </row>
     <row r="89" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="31"/>
-      <c r="C89" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D89" s="30" t="s">
-        <v>36</v>
+      <c r="C89" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D89" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="6"/>
@@ -2893,8 +2896,8 @@
     </row>
     <row r="90" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="31"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="30"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="25"/>
       <c r="E90" s="4"/>
       <c r="F90" s="2"/>
       <c r="G90" s="4"/>
@@ -2910,11 +2913,11 @@
     </row>
     <row r="91" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="31"/>
-      <c r="C91" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D91" s="30" t="s">
-        <v>39</v>
+      <c r="C91" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D91" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="6"/>
@@ -2931,8 +2934,8 @@
     </row>
     <row r="92" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="31"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="30"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="25"/>
       <c r="E92" s="4"/>
       <c r="F92" s="2"/>
       <c r="G92" s="4"/>
@@ -2948,11 +2951,11 @@
     </row>
     <row r="93" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="31"/>
-      <c r="C93" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D93" s="30" t="s">
-        <v>39</v>
+      <c r="C93" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D93" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="6"/>
@@ -2969,8 +2972,8 @@
     </row>
     <row r="94" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="31"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="30"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="25"/>
       <c r="E94" s="4"/>
       <c r="F94" s="2"/>
       <c r="G94" s="4"/>
@@ -2986,11 +2989,11 @@
     </row>
     <row r="95" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="31"/>
-      <c r="C95" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D95" s="35" t="s">
-        <v>24</v>
+      <c r="C95" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D95" s="34" t="s">
+        <v>23</v>
       </c>
       <c r="E95" s="12"/>
       <c r="F95" s="13"/>
@@ -3007,8 +3010,8 @@
     </row>
     <row r="96" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="31"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="36"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="35"/>
       <c r="E96" s="14"/>
       <c r="F96" s="15"/>
       <c r="G96" s="14"/>
@@ -3024,11 +3027,11 @@
     </row>
     <row r="97" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="31"/>
-      <c r="C97" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D97" s="30" t="s">
-        <v>38</v>
+      <c r="C97" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D97" s="25" t="s">
+        <v>37</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="6"/>
@@ -3045,8 +3048,8 @@
     </row>
     <row r="98" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="31"/>
-      <c r="C98" s="23"/>
-      <c r="D98" s="30"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="25"/>
       <c r="E98" s="4"/>
       <c r="F98" s="2"/>
       <c r="G98" s="4"/>
@@ -3062,13 +3065,13 @@
     </row>
     <row r="99" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C99" s="23" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="D99" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="6"/>
@@ -3085,8 +3088,8 @@
     </row>
     <row r="100" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="31"/>
-      <c r="C100" s="23"/>
-      <c r="D100" s="30"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="25"/>
       <c r="E100" s="4"/>
       <c r="F100" s="2"/>
       <c r="G100" s="4"/>
@@ -3102,11 +3105,11 @@
     </row>
     <row r="101" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="31"/>
-      <c r="C101" s="23" t="s">
-        <v>50</v>
+      <c r="C101" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="D101" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="6"/>
@@ -3123,8 +3126,8 @@
     </row>
     <row r="102" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="31"/>
-      <c r="C102" s="23"/>
-      <c r="D102" s="30"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="25"/>
       <c r="E102" s="4"/>
       <c r="F102" s="2"/>
       <c r="G102" s="4"/>
@@ -3139,13 +3142,13 @@
       <c r="P102" s="2"/>
     </row>
     <row r="103" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C103" s="23" t="s">
+      <c r="B103" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D103" s="30"/>
+      <c r="C103" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="25"/>
       <c r="E103" s="5"/>
       <c r="F103" s="6"/>
       <c r="G103" s="5"/>
@@ -3158,14 +3161,14 @@
       <c r="N103" s="6"/>
       <c r="O103" s="5"/>
       <c r="P103" s="6"/>
-      <c r="Q103" s="41" t="s">
-        <v>25</v>
+      <c r="Q103" s="22" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="44"/>
-      <c r="C104" s="23"/>
-      <c r="D104" s="30"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="25"/>
       <c r="E104" s="4"/>
       <c r="F104" s="2"/>
       <c r="G104" s="4"/>
@@ -3178,10 +3181,105 @@
       <c r="N104" s="2"/>
       <c r="O104" s="4"/>
       <c r="P104" s="2"/>
-      <c r="Q104" s="42"/>
+      <c r="Q104" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="119">
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B11:B44"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="B83:B98"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B67:B82"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="B51:B66"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C47:C48"/>
     <mergeCell ref="Q103:Q104"/>
     <mergeCell ref="C103:C104"/>
     <mergeCell ref="D103:D104"/>
@@ -3206,101 +3304,6 @@
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B83:B98"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B67:B82"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="B51:B66"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B11:B44"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
